--- a/src/main/resources/excel/result_temp2.xlsx
+++ b/src/main/resources/excel/result_temp2.xlsx
@@ -1340,7 +1340,8 @@
     <t>龙驹马云禄
 驱虎荀彧
 伶歌卞夫人
-奇谋法正</t>
+奇谋法正
+汉寿亭候云长</t>
   </si>
   <si>
     <t>郡主孙尚香
@@ -1952,10 +1953,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1981,6 +1982,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2040,50 +2064,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2103,6 +2083,27 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2245,6 +2246,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2299,6 +2330,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2348,48 +2391,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2590,6 +2591,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2605,15 +2630,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2625,36 +2641,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2679,6 +2665,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2695,10 +2696,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2707,133 +2708,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/src/main/resources/excel/result_temp2.xlsx
+++ b/src/main/resources/excel/result_temp2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="806" activeTab="6"/>
+    <workbookView windowWidth="25035" windowHeight="8925" tabRatio="806" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="虚战力简表" sheetId="13" r:id="rId1"/>
@@ -878,7 +878,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="345">
   <si>
     <t>${top}</t>
   </si>
@@ -1196,6 +1196,9 @@
   </si>
   <si>
     <t>紫薇之御</t>
+  </si>
+  <si>
+    <t>印玉</t>
   </si>
   <si>
     <t>命石
@@ -1255,7 +1258,7 @@
     <t>5/10/15/30/40/100</t>
   </si>
   <si>
-    <t>?/?/?/?</t>
+    <t>1410/690/1576/2065</t>
   </si>
   <si>
     <t>40/20/142</t>
@@ -1646,9 +1649,6 @@
   </si>
   <si>
     <t>血玉</t>
-  </si>
-  <si>
-    <t>印玉</t>
   </si>
   <si>
     <t>普通命石</t>
@@ -1954,11 +1954,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1987,9 +1987,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2010,129 +2116,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="50">
@@ -2246,25 +2235,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2276,7 +2277,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2288,13 +2289,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2306,49 +2343,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2366,31 +2373,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2402,31 +2409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2591,6 +2580,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2606,26 +2613,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2656,35 +2663,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2696,10 +2685,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2708,137 +2697,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3028,6 +3017,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3040,6 +3032,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3047,6 +3042,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3542,486 +3540,486 @@
   </cols>
   <sheetData>
     <row r="1" ht="72" customHeight="1" spans="1:36">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:36">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="82" t="s">
+      <c r="J2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="82" t="s">
+      <c r="K2" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="L2" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="82" t="s">
+      <c r="M2" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="82" t="s">
+      <c r="N2" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="82" t="s">
+      <c r="O2" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="82" t="s">
+      <c r="P2" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="82" t="s">
+      <c r="Q2" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="82" t="s">
+      <c r="R2" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="82" t="s">
+      <c r="S2" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="82" t="s">
+      <c r="T2" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="82" t="s">
+      <c r="U2" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="82" t="s">
+      <c r="V2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="82" t="s">
+      <c r="W2" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="82" t="s">
+      <c r="X2" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="82" t="s">
+      <c r="Y2" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="82" t="s">
+      <c r="Z2" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="82" t="s">
+      <c r="AA2" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="82" t="s">
+      <c r="AB2" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="82" t="s">
+      <c r="AC2" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="82" t="s">
+      <c r="AD2" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="96" t="s">
+      <c r="AE2" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:36">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="84" t="s">
+      <c r="K3" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="84" t="s">
+      <c r="L3" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="84" t="s">
+      <c r="M3" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="84" t="s">
+      <c r="N3" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="84" t="s">
+      <c r="O3" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="84" t="s">
+      <c r="P3" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="84" t="s">
+      <c r="Q3" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="84" t="s">
+      <c r="R3" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="84" t="s">
+      <c r="S3" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="84" t="s">
+      <c r="T3" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="84" t="s">
+      <c r="U3" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="V3" s="84" t="s">
+      <c r="V3" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="W3" s="84" t="s">
+      <c r="W3" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="84" t="s">
+      <c r="X3" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="Y3" s="84" t="s">
+      <c r="Y3" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="Z3" s="84" t="s">
+      <c r="Z3" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="AA3" s="84" t="s">
+      <c r="AA3" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" s="84" t="s">
+      <c r="AB3" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="AC3" s="84" t="s">
+      <c r="AC3" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="AD3" s="84" t="s">
+      <c r="AD3" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="AE3" s="98" t="s">
+      <c r="AE3" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="AF3" s="99" t="s">
+      <c r="AF3" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="AG3" s="99" t="s">
+      <c r="AG3" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="AH3" s="99" t="s">
+      <c r="AH3" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="AI3" s="99" t="s">
+      <c r="AI3" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="AJ3" s="99" t="s">
+      <c r="AJ3" s="102" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:36">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="103"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="106"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:36">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="91"/>
-      <c r="Z5" s="91"/>
-      <c r="AA5" s="91"/>
-      <c r="AB5" s="91"/>
-      <c r="AC5" s="91"/>
-      <c r="AD5" s="91"/>
-      <c r="AE5" s="101"/>
-      <c r="AF5" s="101"/>
-      <c r="AG5" s="101"/>
-      <c r="AH5" s="101"/>
-      <c r="AI5" s="101"/>
-      <c r="AJ5" s="103"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="104"/>
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="104"/>
+      <c r="AJ5" s="106"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:36">
-      <c r="A6" s="91"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="91"/>
-      <c r="T6" s="91"/>
-      <c r="U6" s="91"/>
-      <c r="V6" s="91"/>
-      <c r="W6" s="91"/>
-      <c r="X6" s="91"/>
-      <c r="Y6" s="91"/>
-      <c r="Z6" s="91"/>
-      <c r="AA6" s="91"/>
-      <c r="AB6" s="91"/>
-      <c r="AC6" s="91"/>
-      <c r="AD6" s="91"/>
-      <c r="AE6" s="101"/>
-      <c r="AF6" s="101"/>
-      <c r="AG6" s="101"/>
-      <c r="AH6" s="101"/>
-      <c r="AI6" s="101"/>
-      <c r="AJ6" s="103"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="104"/>
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="104"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="106"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:36">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="101"/>
-      <c r="AF7" s="101"/>
-      <c r="AG7" s="101"/>
-      <c r="AH7" s="101"/>
-      <c r="AI7" s="101"/>
-      <c r="AJ7" s="103"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="104"/>
+      <c r="AF7" s="104"/>
+      <c r="AG7" s="104"/>
+      <c r="AH7" s="104"/>
+      <c r="AI7" s="104"/>
+      <c r="AJ7" s="106"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:36">
-      <c r="A8" s="91"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="91"/>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="91"/>
-      <c r="AC8" s="91"/>
-      <c r="AD8" s="91"/>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="101"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="101"/>
-      <c r="AI8" s="101"/>
-      <c r="AJ8" s="103"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="94"/>
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="94"/>
+      <c r="AE8" s="104"/>
+      <c r="AF8" s="104"/>
+      <c r="AG8" s="104"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="104"/>
+      <c r="AJ8" s="106"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:36">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="91"/>
-      <c r="AE9" s="102"/>
-      <c r="AF9" s="102"/>
-      <c r="AG9" s="102"/>
-      <c r="AH9" s="102"/>
-      <c r="AI9" s="102"/>
-      <c r="AJ9" s="104"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="105"/>
+      <c r="AF9" s="105"/>
+      <c r="AG9" s="105"/>
+      <c r="AH9" s="105"/>
+      <c r="AI9" s="105"/>
+      <c r="AJ9" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4055,99 +4053,99 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="2:31">
       <c r="B1" s="45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I1" s="45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J1" s="45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M1" s="45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N1" s="45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O1" s="45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P1" s="45" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q1" s="45" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R1" s="45" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S1" s="45" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T1" s="45" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="U1" s="45" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="V1" s="45" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="W1" s="45" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="X1" s="45" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y1" s="45" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z1" s="45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA1" s="45" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AB1" s="45" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AC1" s="45" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AD1" s="45" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AE1" s="45" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:31">
       <c r="A2" s="23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B2" s="46">
         <v>1</v>
@@ -4242,7 +4240,7 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:31">
       <c r="A3" s="23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B3" s="46">
         <v>20</v>
@@ -4337,102 +4335,102 @@
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:31">
       <c r="A4" s="23" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="U4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="V4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="W4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Y4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AA4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AB4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AC4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AD4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AE4" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:31">
       <c r="A5" s="23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -4491,7 +4489,7 @@
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:31">
       <c r="A6" s="23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B6" s="46">
         <v>1</v>
@@ -4538,7 +4536,7 @@
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:31">
       <c r="A7" s="23" t="s">
-        <v>245</v>
+        <v>106</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
@@ -5809,10 +5807,10 @@
         <v>280</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>281</v>
@@ -5828,10 +5826,10 @@
         <v>284</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N3" s="21" t="s">
         <v>280</v>
@@ -5846,10 +5844,10 @@
         <v>284</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="T3" s="22" t="s">
         <v>280</v>
@@ -5864,10 +5862,10 @@
         <v>284</v>
       </c>
       <c r="X3" s="32" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y3" s="32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z3" s="32" t="s">
         <v>280</v>
@@ -5882,10 +5880,10 @@
         <v>284</v>
       </c>
       <c r="AD3" s="39" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AE3" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF3" s="39" t="s">
         <v>280</v>
@@ -6081,7 +6079,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10">
@@ -6489,7 +6487,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10">
@@ -7072,7 +7070,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10">
@@ -7864,7 +7862,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10">
@@ -8654,7 +8652,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10">
@@ -9062,7 +9060,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10">
@@ -9771,492 +9769,492 @@
   </cols>
   <sheetData>
     <row r="1" ht="72" customHeight="1" spans="1:36">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:37">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="82" t="s">
+      <c r="J2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="82" t="s">
+      <c r="K2" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="L2" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="82" t="s">
+      <c r="M2" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="82" t="s">
+      <c r="N2" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="82" t="s">
+      <c r="O2" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="82" t="s">
+      <c r="P2" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="82" t="s">
+      <c r="Q2" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="82" t="s">
+      <c r="R2" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="82" t="s">
+      <c r="S2" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="82" t="s">
+      <c r="T2" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="82" t="s">
+      <c r="U2" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="82" t="s">
+      <c r="V2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="82" t="s">
+      <c r="W2" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="82" t="s">
+      <c r="X2" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="82" t="s">
+      <c r="Y2" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="82" t="s">
+      <c r="Z2" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="82" t="s">
+      <c r="AA2" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="82" t="s">
+      <c r="AB2" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="82" t="s">
+      <c r="AC2" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="82" t="s">
+      <c r="AD2" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="96" t="s">
+      <c r="AE2" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="91"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="94"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:36">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="84" t="s">
+      <c r="K3" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="84" t="s">
+      <c r="L3" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="84" t="s">
+      <c r="M3" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="84" t="s">
+      <c r="N3" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="84" t="s">
+      <c r="O3" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="84" t="s">
+      <c r="P3" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="84" t="s">
+      <c r="Q3" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="84" t="s">
+      <c r="R3" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="84" t="s">
+      <c r="S3" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="84" t="s">
+      <c r="T3" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="84" t="s">
+      <c r="U3" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="V3" s="84" t="s">
+      <c r="V3" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="W3" s="84" t="s">
+      <c r="W3" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="84" t="s">
+      <c r="X3" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="Y3" s="84" t="s">
+      <c r="Y3" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="Z3" s="84" t="s">
+      <c r="Z3" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="AA3" s="84" t="s">
+      <c r="AA3" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" s="84" t="s">
+      <c r="AB3" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="AC3" s="84" t="s">
+      <c r="AC3" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="AD3" s="84" t="s">
+      <c r="AD3" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="AE3" s="98" t="s">
+      <c r="AE3" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="AF3" s="99" t="s">
+      <c r="AF3" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="AG3" s="99" t="s">
+      <c r="AG3" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="AH3" s="99" t="s">
+      <c r="AH3" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="AI3" s="99" t="s">
+      <c r="AI3" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="AJ3" s="99" t="s">
+      <c r="AJ3" s="102" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:36">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="103"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="106"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:36">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="91"/>
-      <c r="Z5" s="91"/>
-      <c r="AA5" s="91"/>
-      <c r="AB5" s="91"/>
-      <c r="AC5" s="91"/>
-      <c r="AD5" s="91"/>
-      <c r="AE5" s="101"/>
-      <c r="AF5" s="101"/>
-      <c r="AG5" s="101"/>
-      <c r="AH5" s="101"/>
-      <c r="AI5" s="101"/>
-      <c r="AJ5" s="103"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="104"/>
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="104"/>
+      <c r="AJ5" s="106"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:36">
-      <c r="A6" s="91"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="91"/>
-      <c r="T6" s="91"/>
-      <c r="U6" s="91"/>
-      <c r="V6" s="91"/>
-      <c r="W6" s="91"/>
-      <c r="X6" s="91"/>
-      <c r="Y6" s="91"/>
-      <c r="Z6" s="91"/>
-      <c r="AA6" s="91"/>
-      <c r="AB6" s="91"/>
-      <c r="AC6" s="91"/>
-      <c r="AD6" s="91"/>
-      <c r="AE6" s="101"/>
-      <c r="AF6" s="101"/>
-      <c r="AG6" s="101"/>
-      <c r="AH6" s="101"/>
-      <c r="AI6" s="101"/>
-      <c r="AJ6" s="103"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="104"/>
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="104"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="106"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:36">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="101"/>
-      <c r="AF7" s="101"/>
-      <c r="AG7" s="101"/>
-      <c r="AH7" s="101"/>
-      <c r="AI7" s="101"/>
-      <c r="AJ7" s="103"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="104"/>
+      <c r="AF7" s="104"/>
+      <c r="AG7" s="104"/>
+      <c r="AH7" s="104"/>
+      <c r="AI7" s="104"/>
+      <c r="AJ7" s="106"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:36">
-      <c r="A8" s="91"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="91"/>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="91"/>
-      <c r="AC8" s="91"/>
-      <c r="AD8" s="91"/>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="101"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="101"/>
-      <c r="AI8" s="101"/>
-      <c r="AJ8" s="103"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="94"/>
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="94"/>
+      <c r="AE8" s="104"/>
+      <c r="AF8" s="104"/>
+      <c r="AG8" s="104"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="104"/>
+      <c r="AJ8" s="106"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:36">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="91"/>
-      <c r="AE9" s="102"/>
-      <c r="AF9" s="102"/>
-      <c r="AG9" s="102"/>
-      <c r="AH9" s="102"/>
-      <c r="AI9" s="102"/>
-      <c r="AJ9" s="104"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="105"/>
+      <c r="AF9" s="105"/>
+      <c r="AG9" s="105"/>
+      <c r="AH9" s="105"/>
+      <c r="AI9" s="105"/>
+      <c r="AJ9" s="107"/>
     </row>
     <row r="10" spans="1:36">
-      <c r="A10" s="93"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="94"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -10284,16 +10282,16 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
-      <c r="AE10" s="102"/>
-      <c r="AF10" s="102"/>
-      <c r="AG10" s="102"/>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="104"/>
+      <c r="AE10" s="105"/>
+      <c r="AF10" s="105"/>
+      <c r="AG10" s="105"/>
+      <c r="AH10" s="105"/>
+      <c r="AI10" s="105"/>
+      <c r="AJ10" s="107"/>
     </row>
     <row r="11" spans="1:36">
-      <c r="A11" s="95"/>
-      <c r="B11" s="79"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -10322,16 +10320,16 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
-      <c r="AE11" s="102"/>
-      <c r="AF11" s="102"/>
-      <c r="AG11" s="102"/>
-      <c r="AH11" s="102"/>
-      <c r="AI11" s="102"/>
-      <c r="AJ11" s="102"/>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="105"/>
+      <c r="AG11" s="105"/>
+      <c r="AH11" s="105"/>
+      <c r="AI11" s="105"/>
+      <c r="AJ11" s="105"/>
     </row>
     <row r="12" spans="1:36">
-      <c r="A12" s="95"/>
-      <c r="B12" s="79"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -10360,16 +10358,16 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
-      <c r="AE12" s="102"/>
-      <c r="AF12" s="102"/>
-      <c r="AG12" s="102"/>
-      <c r="AH12" s="102"/>
-      <c r="AI12" s="102"/>
-      <c r="AJ12" s="102"/>
+      <c r="AE12" s="105"/>
+      <c r="AF12" s="105"/>
+      <c r="AG12" s="105"/>
+      <c r="AH12" s="105"/>
+      <c r="AI12" s="105"/>
+      <c r="AJ12" s="105"/>
     </row>
     <row r="13" spans="1:36">
-      <c r="A13" s="95"/>
-      <c r="B13" s="79"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -10398,15 +10396,15 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
-      <c r="AE13" s="102"/>
-      <c r="AF13" s="102"/>
-      <c r="AG13" s="102"/>
-      <c r="AH13" s="102"/>
-      <c r="AI13" s="102"/>
-      <c r="AJ13" s="102"/>
+      <c r="AE13" s="105"/>
+      <c r="AF13" s="105"/>
+      <c r="AG13" s="105"/>
+      <c r="AH13" s="105"/>
+      <c r="AI13" s="105"/>
+      <c r="AJ13" s="105"/>
     </row>
     <row r="14" spans="1:36">
-      <c r="A14" s="93"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -10436,12 +10434,12 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
-      <c r="AE14" s="102"/>
-      <c r="AF14" s="102"/>
-      <c r="AG14" s="102"/>
-      <c r="AH14" s="102"/>
-      <c r="AI14" s="102"/>
-      <c r="AJ14" s="102"/>
+      <c r="AE14" s="105"/>
+      <c r="AF14" s="105"/>
+      <c r="AG14" s="105"/>
+      <c r="AH14" s="105"/>
+      <c r="AI14" s="105"/>
+      <c r="AJ14" s="105"/>
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="1"/>
@@ -10474,12 +10472,12 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
-      <c r="AE15" s="102"/>
-      <c r="AF15" s="102"/>
-      <c r="AG15" s="102"/>
-      <c r="AH15" s="102"/>
-      <c r="AI15" s="102"/>
-      <c r="AJ15" s="102"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="105"/>
+      <c r="AH15" s="105"/>
+      <c r="AI15" s="105"/>
+      <c r="AJ15" s="105"/>
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="1"/>
@@ -10512,12 +10510,12 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
-      <c r="AE16" s="102"/>
-      <c r="AF16" s="102"/>
-      <c r="AG16" s="102"/>
-      <c r="AH16" s="102"/>
-      <c r="AI16" s="102"/>
-      <c r="AJ16" s="102"/>
+      <c r="AE16" s="105"/>
+      <c r="AF16" s="105"/>
+      <c r="AG16" s="105"/>
+      <c r="AH16" s="105"/>
+      <c r="AI16" s="105"/>
+      <c r="AJ16" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10573,492 +10571,492 @@
   </cols>
   <sheetData>
     <row r="1" ht="72" customHeight="1" spans="1:36">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:37">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="H2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="82" t="s">
+      <c r="J2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="82" t="s">
+      <c r="K2" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="L2" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="82" t="s">
+      <c r="M2" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="82" t="s">
+      <c r="N2" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="82" t="s">
+      <c r="O2" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="82" t="s">
+      <c r="P2" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="82" t="s">
+      <c r="Q2" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="82" t="s">
+      <c r="R2" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="82" t="s">
+      <c r="S2" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="82" t="s">
+      <c r="T2" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="82" t="s">
+      <c r="U2" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="82" t="s">
+      <c r="V2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="82" t="s">
+      <c r="W2" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="82" t="s">
+      <c r="X2" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="82" t="s">
+      <c r="Y2" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="82" t="s">
+      <c r="Z2" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="82" t="s">
+      <c r="AA2" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="82" t="s">
+      <c r="AB2" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="82" t="s">
+      <c r="AC2" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="82" t="s">
+      <c r="AD2" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="96" t="s">
+      <c r="AE2" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="91"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="94"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:36">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="84" t="s">
+      <c r="K3" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="84" t="s">
+      <c r="L3" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="84" t="s">
+      <c r="M3" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="84" t="s">
+      <c r="N3" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="84" t="s">
+      <c r="O3" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="84" t="s">
+      <c r="P3" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="84" t="s">
+      <c r="Q3" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="84" t="s">
+      <c r="R3" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="84" t="s">
+      <c r="S3" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="84" t="s">
+      <c r="T3" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="84" t="s">
+      <c r="U3" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="V3" s="84" t="s">
+      <c r="V3" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="W3" s="84" t="s">
+      <c r="W3" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="84" t="s">
+      <c r="X3" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="Y3" s="84" t="s">
+      <c r="Y3" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="Z3" s="84" t="s">
+      <c r="Z3" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="AA3" s="84" t="s">
+      <c r="AA3" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" s="84" t="s">
+      <c r="AB3" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="AC3" s="84" t="s">
+      <c r="AC3" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="AD3" s="84" t="s">
+      <c r="AD3" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="AE3" s="98" t="s">
+      <c r="AE3" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="AF3" s="99" t="s">
+      <c r="AF3" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="AG3" s="99" t="s">
+      <c r="AG3" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="AH3" s="99" t="s">
+      <c r="AH3" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="AI3" s="99" t="s">
+      <c r="AI3" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="AJ3" s="99" t="s">
+      <c r="AJ3" s="102" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:36">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="103"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="106"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:36">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="91"/>
-      <c r="Z5" s="91"/>
-      <c r="AA5" s="91"/>
-      <c r="AB5" s="91"/>
-      <c r="AC5" s="91"/>
-      <c r="AD5" s="91"/>
-      <c r="AE5" s="101"/>
-      <c r="AF5" s="101"/>
-      <c r="AG5" s="101"/>
-      <c r="AH5" s="101"/>
-      <c r="AI5" s="101"/>
-      <c r="AJ5" s="103"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="104"/>
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="104"/>
+      <c r="AJ5" s="106"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:36">
-      <c r="A6" s="91"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="91"/>
-      <c r="T6" s="91"/>
-      <c r="U6" s="91"/>
-      <c r="V6" s="91"/>
-      <c r="W6" s="91"/>
-      <c r="X6" s="91"/>
-      <c r="Y6" s="91"/>
-      <c r="Z6" s="91"/>
-      <c r="AA6" s="91"/>
-      <c r="AB6" s="91"/>
-      <c r="AC6" s="91"/>
-      <c r="AD6" s="91"/>
-      <c r="AE6" s="101"/>
-      <c r="AF6" s="101"/>
-      <c r="AG6" s="101"/>
-      <c r="AH6" s="101"/>
-      <c r="AI6" s="101"/>
-      <c r="AJ6" s="103"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="104"/>
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="104"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="106"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:36">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="101"/>
-      <c r="AF7" s="101"/>
-      <c r="AG7" s="101"/>
-      <c r="AH7" s="101"/>
-      <c r="AI7" s="101"/>
-      <c r="AJ7" s="103"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="104"/>
+      <c r="AF7" s="104"/>
+      <c r="AG7" s="104"/>
+      <c r="AH7" s="104"/>
+      <c r="AI7" s="104"/>
+      <c r="AJ7" s="106"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:36">
-      <c r="A8" s="91"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="91"/>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="91"/>
-      <c r="AC8" s="91"/>
-      <c r="AD8" s="91"/>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="101"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="101"/>
-      <c r="AI8" s="101"/>
-      <c r="AJ8" s="103"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="94"/>
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="94"/>
+      <c r="AE8" s="104"/>
+      <c r="AF8" s="104"/>
+      <c r="AG8" s="104"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="104"/>
+      <c r="AJ8" s="106"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:36">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="91"/>
-      <c r="AE9" s="102"/>
-      <c r="AF9" s="102"/>
-      <c r="AG9" s="102"/>
-      <c r="AH9" s="102"/>
-      <c r="AI9" s="102"/>
-      <c r="AJ9" s="104"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="105"/>
+      <c r="AF9" s="105"/>
+      <c r="AG9" s="105"/>
+      <c r="AH9" s="105"/>
+      <c r="AI9" s="105"/>
+      <c r="AJ9" s="107"/>
     </row>
     <row r="10" spans="1:36">
-      <c r="A10" s="93"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="94"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -11086,16 +11084,16 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
-      <c r="AE10" s="102"/>
-      <c r="AF10" s="102"/>
-      <c r="AG10" s="102"/>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="104"/>
+      <c r="AE10" s="105"/>
+      <c r="AF10" s="105"/>
+      <c r="AG10" s="105"/>
+      <c r="AH10" s="105"/>
+      <c r="AI10" s="105"/>
+      <c r="AJ10" s="107"/>
     </row>
     <row r="11" spans="1:36">
-      <c r="A11" s="95"/>
-      <c r="B11" s="79"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -11124,16 +11122,16 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
-      <c r="AE11" s="102"/>
-      <c r="AF11" s="102"/>
-      <c r="AG11" s="102"/>
-      <c r="AH11" s="102"/>
-      <c r="AI11" s="102"/>
-      <c r="AJ11" s="102"/>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="105"/>
+      <c r="AG11" s="105"/>
+      <c r="AH11" s="105"/>
+      <c r="AI11" s="105"/>
+      <c r="AJ11" s="105"/>
     </row>
     <row r="12" spans="1:36">
-      <c r="A12" s="95"/>
-      <c r="B12" s="79"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -11162,16 +11160,16 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
-      <c r="AE12" s="102"/>
-      <c r="AF12" s="102"/>
-      <c r="AG12" s="102"/>
-      <c r="AH12" s="102"/>
-      <c r="AI12" s="102"/>
-      <c r="AJ12" s="102"/>
+      <c r="AE12" s="105"/>
+      <c r="AF12" s="105"/>
+      <c r="AG12" s="105"/>
+      <c r="AH12" s="105"/>
+      <c r="AI12" s="105"/>
+      <c r="AJ12" s="105"/>
     </row>
     <row r="13" spans="1:36">
-      <c r="A13" s="95"/>
-      <c r="B13" s="79"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -11200,15 +11198,15 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
-      <c r="AE13" s="102"/>
-      <c r="AF13" s="102"/>
-      <c r="AG13" s="102"/>
-      <c r="AH13" s="102"/>
-      <c r="AI13" s="102"/>
-      <c r="AJ13" s="102"/>
+      <c r="AE13" s="105"/>
+      <c r="AF13" s="105"/>
+      <c r="AG13" s="105"/>
+      <c r="AH13" s="105"/>
+      <c r="AI13" s="105"/>
+      <c r="AJ13" s="105"/>
     </row>
     <row r="14" spans="1:36">
-      <c r="A14" s="93"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -11238,12 +11236,12 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
-      <c r="AE14" s="102"/>
-      <c r="AF14" s="102"/>
-      <c r="AG14" s="102"/>
-      <c r="AH14" s="102"/>
-      <c r="AI14" s="102"/>
-      <c r="AJ14" s="102"/>
+      <c r="AE14" s="105"/>
+      <c r="AF14" s="105"/>
+      <c r="AG14" s="105"/>
+      <c r="AH14" s="105"/>
+      <c r="AI14" s="105"/>
+      <c r="AJ14" s="105"/>
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="1"/>
@@ -11276,12 +11274,12 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
-      <c r="AE15" s="102"/>
-      <c r="AF15" s="102"/>
-      <c r="AG15" s="102"/>
-      <c r="AH15" s="102"/>
-      <c r="AI15" s="102"/>
-      <c r="AJ15" s="102"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="105"/>
+      <c r="AH15" s="105"/>
+      <c r="AI15" s="105"/>
+      <c r="AJ15" s="105"/>
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="1"/>
@@ -11314,12 +11312,12 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
-      <c r="AE16" s="102"/>
-      <c r="AF16" s="102"/>
-      <c r="AG16" s="102"/>
-      <c r="AH16" s="102"/>
-      <c r="AI16" s="102"/>
-      <c r="AJ16" s="102"/>
+      <c r="AE16" s="105"/>
+      <c r="AF16" s="105"/>
+      <c r="AG16" s="105"/>
+      <c r="AH16" s="105"/>
+      <c r="AI16" s="105"/>
+      <c r="AJ16" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11358,15 +11356,15 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:8">
       <c r="A2" s="23" t="s">
@@ -11451,15 +11449,15 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:8">
       <c r="A2" s="23" t="s">
@@ -11544,15 +11542,15 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:8">
       <c r="A2" s="23" t="s">
@@ -11618,7 +11616,7 @@
   <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11632,7 +11630,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1"/>
     <row r="2" ht="18" customHeight="1" spans="1:12">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="78" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="23" t="s">
@@ -11641,18 +11639,18 @@
       <c r="C2" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:12">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="80" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -11661,51 +11659,51 @@
       <c r="C3" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:12">
-      <c r="A4" s="77"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="23" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:12">
-      <c r="A5" s="77"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="23" t="s">
         <v>101</v>
       </c>
       <c r="C5" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11717,14 +11715,14 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11732,9 +11730,10 @@
     <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="13" width="15.875" style="1" customWidth="1"/>
-    <col min="14" max="17" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="5.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="1" customWidth="1"/>
+    <col min="7" max="14" width="15.875" style="1" customWidth="1"/>
+    <col min="15" max="18" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:1">
@@ -11742,7 +11741,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="36" customHeight="1" spans="1:17">
+    <row r="2" s="1" customFormat="1" ht="36" customHeight="1" spans="1:18">
       <c r="A2" s="23"/>
       <c r="B2" s="23" t="s">
         <v>71</v>
@@ -11753,25 +11752,25 @@
       <c r="D2" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="58" t="s">
         <v>108</v>
       </c>
       <c r="H2" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="58" t="s">
         <v>112</v>
       </c>
       <c r="L2" s="59" t="s">
@@ -11780,397 +11779,415 @@
       <c r="M2" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="N2" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="59" t="s">
+      <c r="O2" s="58" t="s">
         <v>116</v>
       </c>
       <c r="P2" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="Q2" s="71" t="s">
+      <c r="Q2" s="59" t="s">
         <v>118</v>
       </c>
+      <c r="R2" s="74" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="18" customHeight="1" spans="1:17">
+    <row r="3" s="1" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A3" s="53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D3" s="53">
         <v>40</v>
       </c>
-      <c r="E3" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="61" t="s">
+      <c r="E3" s="53">
+        <v>4200</v>
+      </c>
+      <c r="F3" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61" t="s">
+      <c r="G3" s="61" t="s">
         <v>124</v>
       </c>
+      <c r="H3" s="60"/>
       <c r="I3" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61" t="s">
+      <c r="J3" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="60"/>
+      <c r="L3" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="5">
-        <v>105</v>
-      </c>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="O3" s="46"/>
       <c r="P3" s="5">
         <v>105</v>
       </c>
-      <c r="Q3" s="46"/>
+      <c r="Q3" s="5">
+        <v>105</v>
+      </c>
+      <c r="R3" s="46"/>
     </row>
-    <row r="4" customFormat="1" ht="18" customHeight="1" spans="1:17">
+    <row r="4" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A4" s="62" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D4" s="62">
         <v>10</v>
       </c>
-      <c r="E4" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>124</v>
+      <c r="E4" s="63"/>
+      <c r="F4" s="62" t="s">
+        <v>131</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="62"/>
+        <v>125</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="I4" s="62"/>
-      <c r="J4" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="L4" s="62"/>
       <c r="M4" s="62"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
     </row>
-    <row r="5" ht="54" customHeight="1" spans="1:17">
+    <row r="5" ht="54" customHeight="1" spans="1:18">
       <c r="A5" s="62"/>
-      <c r="B5" s="63" t="s">
-        <v>131</v>
+      <c r="B5" s="64" t="s">
+        <v>132</v>
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="15" t="s">
-        <v>124</v>
-      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="46"/>
+        <v>125</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="I5" s="46"/>
       <c r="J5" s="46"/>
-      <c r="K5" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="L5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="15" t="s">
+        <v>126</v>
+      </c>
       <c r="M5" s="46"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
     </row>
-    <row r="6" customFormat="1" ht="54" customHeight="1" spans="1:17">
+    <row r="6" customFormat="1" ht="54" customHeight="1" spans="1:18">
       <c r="A6" s="62"/>
-      <c r="B6" s="63" t="s">
-        <v>132</v>
+      <c r="B6" s="64" t="s">
+        <v>133</v>
       </c>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="15" t="s">
-        <v>124</v>
-      </c>
+      <c r="E6" s="63"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" s="46"/>
+        <v>125</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="J6" s="46"/>
       <c r="K6" s="46"/>
-      <c r="L6" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="M6" s="46"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="N6" s="46"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
     </row>
-    <row r="7" ht="36" customHeight="1" spans="1:17">
+    <row r="7" ht="36" customHeight="1" spans="1:18">
       <c r="A7" s="62"/>
-      <c r="B7" s="63" t="s">
-        <v>133</v>
+      <c r="B7" s="64" t="s">
+        <v>134</v>
       </c>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="46"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="46"/>
-      <c r="H7" s="15" t="s">
-        <v>124</v>
-      </c>
+      <c r="H7" s="46"/>
       <c r="I7" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="46"/>
+        <v>125</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="K7" s="46"/>
       <c r="L7" s="46"/>
-      <c r="M7" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
     </row>
-    <row r="8" customFormat="1" ht="18" customHeight="1" spans="1:17">
+    <row r="8" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A8" s="62"/>
       <c r="B8" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C8" s="62"/>
       <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="46"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="46"/>
+      <c r="I8" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="J8" s="46"/>
       <c r="K8" s="46"/>
       <c r="L8" s="46"/>
-      <c r="M8" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
     </row>
-    <row r="9" customFormat="1" ht="18" customHeight="1" spans="1:17">
+    <row r="9" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A9" s="62"/>
       <c r="B9" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="46"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="H9" s="46"/>
-      <c r="I9" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="J9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="K9" s="46"/>
       <c r="L9" s="46"/>
-      <c r="M9" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
     </row>
-    <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:17">
+    <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A10" s="62"/>
       <c r="B10" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="46"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="H10" s="46"/>
-      <c r="I10" s="15" t="s">
-        <v>124</v>
-      </c>
+      <c r="I10" s="46"/>
       <c r="J10" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="K10" s="46"/>
+      <c r="K10" s="15" t="s">
+        <v>126</v>
+      </c>
       <c r="L10" s="46"/>
       <c r="M10" s="46"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
     </row>
-    <row r="11" customFormat="1" ht="18" customHeight="1" spans="1:17">
+    <row r="11" customFormat="1" ht="18" customHeight="1" spans="1:18">
       <c r="A11" s="62"/>
       <c r="B11" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" s="10" t="s">
+      <c r="E11" s="63"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="K11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="L11" s="46"/>
       <c r="M11" s="46"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
     </row>
-    <row r="12" ht="72" customHeight="1" spans="1:17">
+    <row r="12" ht="72" customHeight="1" spans="1:18">
       <c r="A12" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="B12" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="66">
+      <c r="C12" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="67">
         <v>5</v>
       </c>
-      <c r="E12" s="66" t="s">
-        <v>141</v>
-      </c>
+      <c r="E12" s="68"/>
       <c r="F12" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="G12" s="46"/>
+      <c r="G12" s="69" t="s">
+        <v>143</v>
+      </c>
       <c r="H12" s="46"/>
       <c r="I12" s="46"/>
-      <c r="J12" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="K12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="76" t="s">
+        <v>144</v>
+      </c>
       <c r="L12" s="46"/>
       <c r="M12" s="46"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
     </row>
-    <row r="13" ht="90" customHeight="1" spans="1:17">
+    <row r="13" ht="90" customHeight="1" spans="1:18">
       <c r="A13" s="46"/>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="70"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="73" t="s">
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+    </row>
+    <row r="14" ht="72" customHeight="1" spans="1:18">
+      <c r="A14" s="46"/>
+      <c r="B14" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="70"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="N14" s="77"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
     </row>
-    <row r="14" ht="72" customHeight="1" spans="1:17">
-      <c r="A14" s="46"/>
-      <c r="B14" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="M14" s="74"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-    </row>
-    <row r="15" ht="72" customHeight="1" spans="1:17">
+    <row r="15" ht="72" customHeight="1" spans="1:18">
       <c r="A15" s="46"/>
-      <c r="B15" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="46"/>
+      <c r="B15" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
-      <c r="I15" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="73" t="s">
+      <c r="I15" s="46"/>
+      <c r="J15" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="11">
+    <mergeCell ref="A1:N1"/>
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="C4:C11"/>
@@ -12179,6 +12196,8 @@
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="E4:E11"/>
     <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F4:F11"/>
+    <mergeCell ref="F12:F15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -12207,7 +12226,7 @@
     <row r="1" ht="18" customHeight="1" spans="1:37">
       <c r="A1" s="48"/>
       <c r="B1" s="49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
@@ -12248,7 +12267,7 @@
     <row r="2" ht="60" customHeight="1" spans="1:37">
       <c r="A2" s="48"/>
       <c r="B2" s="49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -12289,7 +12308,7 @@
     <row r="3" spans="1:361">
       <c r="A3" s="50"/>
       <c r="B3" s="23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -12303,7 +12322,7 @@
       <c r="L3" s="23"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
@@ -12317,7 +12336,7 @@
       <c r="X3" s="23"/>
       <c r="Y3" s="23"/>
       <c r="Z3" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA3" s="23"/>
       <c r="AB3" s="23"/>
@@ -12331,7 +12350,7 @@
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM3" s="23"/>
       <c r="AN3" s="23"/>
@@ -12345,7 +12364,7 @@
       <c r="AV3" s="23"/>
       <c r="AW3" s="23"/>
       <c r="AX3" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AY3" s="23"/>
       <c r="AZ3" s="23"/>
@@ -12359,7 +12378,7 @@
       <c r="BH3" s="23"/>
       <c r="BI3" s="23"/>
       <c r="BJ3" s="23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BK3" s="23"/>
       <c r="BL3" s="23"/>
@@ -12373,7 +12392,7 @@
       <c r="BT3" s="23"/>
       <c r="BU3" s="23"/>
       <c r="BV3" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BW3" s="23"/>
       <c r="BX3" s="23"/>
@@ -12387,7 +12406,7 @@
       <c r="CF3" s="23"/>
       <c r="CG3" s="23"/>
       <c r="CH3" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CI3" s="23"/>
       <c r="CJ3" s="23"/>
@@ -12401,7 +12420,7 @@
       <c r="CR3" s="23"/>
       <c r="CS3" s="23"/>
       <c r="CT3" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="CU3" s="23"/>
       <c r="CV3" s="23"/>
@@ -12415,7 +12434,7 @@
       <c r="DD3" s="23"/>
       <c r="DE3" s="23"/>
       <c r="DF3" s="23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="DG3" s="23"/>
       <c r="DH3" s="23"/>
@@ -12429,7 +12448,7 @@
       <c r="DP3" s="23"/>
       <c r="DQ3" s="23"/>
       <c r="DR3" s="23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DS3" s="23"/>
       <c r="DT3" s="23"/>
@@ -12443,7 +12462,7 @@
       <c r="EB3" s="23"/>
       <c r="EC3" s="23"/>
       <c r="ED3" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="EE3" s="23"/>
       <c r="EF3" s="23"/>
@@ -12457,7 +12476,7 @@
       <c r="EN3" s="23"/>
       <c r="EO3" s="23"/>
       <c r="EP3" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="EQ3" s="23"/>
       <c r="ER3" s="23"/>
@@ -12471,7 +12490,7 @@
       <c r="EZ3" s="23"/>
       <c r="FA3" s="23"/>
       <c r="FB3" s="23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="FC3" s="23"/>
       <c r="FD3" s="23"/>
@@ -12485,7 +12504,7 @@
       <c r="FL3" s="23"/>
       <c r="FM3" s="23"/>
       <c r="FN3" s="23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="FO3" s="23"/>
       <c r="FP3" s="23"/>
@@ -12499,7 +12518,7 @@
       <c r="FX3" s="23"/>
       <c r="FY3" s="23"/>
       <c r="FZ3" s="23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="GA3" s="23"/>
       <c r="GB3" s="23"/>
@@ -12513,7 +12532,7 @@
       <c r="GJ3" s="23"/>
       <c r="GK3" s="23"/>
       <c r="GL3" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="GM3" s="23"/>
       <c r="GN3" s="23"/>
@@ -12527,7 +12546,7 @@
       <c r="GV3" s="23"/>
       <c r="GW3" s="23"/>
       <c r="GX3" s="23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="GY3" s="23"/>
       <c r="GZ3" s="23"/>
@@ -12541,7 +12560,7 @@
       <c r="HH3" s="23"/>
       <c r="HI3" s="23"/>
       <c r="HJ3" s="23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="HK3" s="23"/>
       <c r="HL3" s="23"/>
@@ -12555,7 +12574,7 @@
       <c r="HT3" s="23"/>
       <c r="HU3" s="23"/>
       <c r="HV3" s="23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="HW3" s="23"/>
       <c r="HX3" s="23"/>
@@ -12569,7 +12588,7 @@
       <c r="IF3" s="23"/>
       <c r="IG3" s="23"/>
       <c r="IH3" s="23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="II3" s="23"/>
       <c r="IJ3" s="23"/>
@@ -12583,7 +12602,7 @@
       <c r="IR3" s="23"/>
       <c r="IS3" s="23"/>
       <c r="IT3" s="23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="IU3" s="23"/>
       <c r="IV3" s="23"/>
@@ -12597,7 +12616,7 @@
       <c r="JD3" s="23"/>
       <c r="JE3" s="23"/>
       <c r="JF3" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="JG3" s="23"/>
       <c r="JH3" s="23"/>
@@ -12611,7 +12630,7 @@
       <c r="JP3" s="23"/>
       <c r="JQ3" s="23"/>
       <c r="JR3" s="23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="JS3" s="23"/>
       <c r="JT3" s="23"/>
@@ -12625,7 +12644,7 @@
       <c r="KB3" s="23"/>
       <c r="KC3" s="23"/>
       <c r="KD3" s="23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="KE3" s="23"/>
       <c r="KF3" s="23"/>
@@ -12639,7 +12658,7 @@
       <c r="KN3" s="23"/>
       <c r="KO3" s="23"/>
       <c r="KP3" s="23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="KQ3" s="23"/>
       <c r="KR3" s="23"/>
@@ -12653,7 +12672,7 @@
       <c r="KZ3" s="23"/>
       <c r="LA3" s="23"/>
       <c r="LB3" s="23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="LC3" s="23"/>
       <c r="LD3" s="23"/>
@@ -12667,7 +12686,7 @@
       <c r="LL3" s="23"/>
       <c r="LM3" s="23"/>
       <c r="LN3" s="23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="LO3" s="23"/>
       <c r="LP3" s="23"/>
@@ -12681,7 +12700,7 @@
       <c r="LX3" s="23"/>
       <c r="LY3" s="23"/>
       <c r="LZ3" s="23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="MA3" s="23"/>
       <c r="MB3" s="23"/>
@@ -12695,7 +12714,7 @@
       <c r="MJ3" s="23"/>
       <c r="MK3" s="23"/>
       <c r="ML3" s="23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="MM3" s="23"/>
       <c r="MN3" s="23"/>
@@ -13796,7 +13815,7 @@
     </row>
     <row r="5" spans="1:361">
       <c r="A5" s="51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -14161,7 +14180,7 @@
     </row>
     <row r="6" spans="1:361">
       <c r="A6" s="51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B6" s="46"/>
       <c r="C6" s="52"/>
@@ -14525,7 +14544,7 @@
     </row>
     <row r="7" spans="1:361">
       <c r="A7" s="51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
@@ -14890,7 +14909,7 @@
     </row>
     <row r="8" spans="1:361">
       <c r="A8" s="51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
@@ -15255,7 +15274,7 @@
     </row>
     <row r="9" spans="1:361">
       <c r="A9" s="51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="46"/>
@@ -15620,7 +15639,7 @@
     </row>
     <row r="10" spans="1:361">
       <c r="A10" s="51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
@@ -15985,7 +16004,7 @@
     </row>
     <row r="11" spans="1:361">
       <c r="A11" s="51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -16350,7 +16369,7 @@
     </row>
     <row r="12" spans="1:361">
       <c r="A12" s="51" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="53"/>
@@ -16715,7 +16734,7 @@
     </row>
     <row r="13" spans="1:361">
       <c r="A13" s="51" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
@@ -17080,7 +17099,7 @@
     </row>
     <row r="14" spans="1:361">
       <c r="A14" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="55"/>
@@ -17445,7 +17464,7 @@
     </row>
     <row r="15" spans="1:361">
       <c r="A15" s="51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B15" s="46"/>
       <c r="C15" s="46"/>
@@ -17809,7 +17828,7 @@
     </row>
     <row r="16" spans="1:361">
       <c r="A16" s="51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B16" s="52"/>
       <c r="C16" s="52"/>
@@ -18174,7 +18193,7 @@
     </row>
     <row r="17" spans="1:361">
       <c r="A17" s="51" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -18539,7 +18558,7 @@
     </row>
     <row r="18" spans="1:361">
       <c r="A18" s="51" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
@@ -18904,7 +18923,7 @@
     </row>
     <row r="19" spans="1:361">
       <c r="A19" s="51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -19269,7 +19288,7 @@
     </row>
     <row r="20" spans="1:361">
       <c r="A20" s="51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
@@ -19634,7 +19653,7 @@
     </row>
     <row r="21" spans="1:361">
       <c r="A21" s="51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
@@ -19999,7 +20018,7 @@
     </row>
     <row r="22" spans="1:361">
       <c r="A22" s="51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
@@ -20363,7 +20382,7 @@
     </row>
     <row r="23" spans="1:361">
       <c r="A23" s="51" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -20728,7 +20747,7 @@
     </row>
     <row r="24" spans="1:361">
       <c r="A24" s="51" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
@@ -21093,7 +21112,7 @@
     </row>
     <row r="25" spans="1:361">
       <c r="A25" s="51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
@@ -21458,7 +21477,7 @@
     </row>
     <row r="26" spans="1:361">
       <c r="A26" s="51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
@@ -21823,7 +21842,7 @@
     </row>
     <row r="27" spans="1:361">
       <c r="A27" s="51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B27" s="52"/>
       <c r="C27" s="52"/>
@@ -22188,7 +22207,7 @@
     </row>
     <row r="28" spans="1:361">
       <c r="A28" s="51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
@@ -22553,7 +22572,7 @@
     </row>
     <row r="29" spans="1:361">
       <c r="A29" s="51" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B29" s="46"/>
       <c r="C29" s="46"/>
@@ -22918,7 +22937,7 @@
     </row>
     <row r="30" spans="1:361">
       <c r="A30" s="51" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
@@ -23283,7 +23302,7 @@
     </row>
     <row r="31" spans="1:361">
       <c r="A31" s="51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
@@ -23648,7 +23667,7 @@
     </row>
     <row r="32" spans="1:361">
       <c r="A32" s="51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B32" s="46"/>
       <c r="C32" s="46"/>
@@ -24013,7 +24032,7 @@
     </row>
     <row r="33" spans="1:361">
       <c r="A33" s="51" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B33" s="46"/>
       <c r="C33" s="46"/>
@@ -24378,7 +24397,7 @@
     </row>
     <row r="34" spans="1:361">
       <c r="A34" s="51" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>

--- a/src/main/resources/excel/result_temp2.xlsx
+++ b/src/main/resources/excel/result_temp2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25035" windowHeight="8925" tabRatio="806" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25035" windowHeight="8925" tabRatio="806" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="虚战力简表" sheetId="13" r:id="rId1"/>
@@ -878,7 +878,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="369">
   <si>
     <t>${top}</t>
   </si>
@@ -1955,12 +1955,213 @@
     <t>赤羽朱然</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>战阵等级</t>
+  </si>
+  <si>
+    <t>战功券</t>
+  </si>
+  <si>
+    <t>战纹</t>
+  </si>
+  <si>
+    <t>暴击倍数</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阶</t>
+    </r>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阶</t>
+    </r>
+  </si>
+  <si>
+    <t>*100</t>
+  </si>
+  <si>
+    <r>
+      <t>2阶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3阶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1,2,5</t>
+  </si>
+  <si>
+    <r>
+      <t>4阶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1,2,5,9</t>
+  </si>
+  <si>
+    <r>
+      <t>5阶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1,2,5,9,16</t>
+  </si>
+  <si>
+    <r>
+      <t>6阶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1,2,5,9,16,32</t>
+  </si>
+  <si>
+    <r>
+      <t>7阶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1,2,5,9,16,32,64</t>
+  </si>
+  <si>
+    <r>
+      <t>8阶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1,2,5,9,16,32,64,90</t>
+  </si>
+  <si>
+    <r>
+      <t>9阶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10阶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1997,6 +2198,27 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="19">
@@ -2269,12 +2491,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2476,6 +2702,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2518,6 +2747,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2529,60 +2764,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2623,20 +2804,86 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3218,36 +3465,36 @@
     <row r="4" spans="1:36" ht="18" customHeight="1">
       <c r="A4" s="52"/>
       <c r="B4" s="52"/>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="72"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="73"/>
       <c r="AE4" s="62"/>
       <c r="AF4" s="62"/>
       <c r="AG4" s="62"/>
@@ -5175,56 +5422,56 @@
       <c r="W1" s="7"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="111" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="103" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="88" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="104" t="s">
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="107" t="s">
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="110" t="s">
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="95" t="s">
         <v>276</v>
       </c>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="113" t="s">
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="98" t="s">
         <v>277</v>
       </c>
-      <c r="AC2" s="114"/>
-      <c r="AD2" s="114"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="115"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="99"/>
+      <c r="AG2" s="100"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="90"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="92"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
       <c r="D3" s="2" t="s">
         <v>278</v>
       </c>
@@ -5240,7 +5487,7 @@
       <c r="H3" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I3" s="97"/>
+      <c r="I3" s="103"/>
       <c r="J3" s="8" t="s">
         <v>281</v>
       </c>
@@ -5315,26 +5562,26 @@
       </c>
     </row>
     <row r="4" spans="1:33">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="101" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="101" t="s">
         <v>283</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="101" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="98">
+      <c r="D4" s="104">
         <v>1</v>
       </c>
-      <c r="E4" s="98">
+      <c r="E4" s="104">
         <v>0</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="98">
+      <c r="G4" s="104">
         <v>8800</v>
       </c>
-      <c r="H4" s="98">
+      <c r="H4" s="104">
         <v>20</v>
       </c>
       <c r="I4" s="10" t="s">
@@ -5370,22 +5617,22 @@
       <c r="Y4" s="18"/>
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
-      <c r="AB4" s="93">
+      <c r="AB4" s="108">
         <v>40</v>
       </c>
-      <c r="AC4" s="93">
+      <c r="AC4" s="108">
         <v>40</v>
       </c>
-      <c r="AD4" s="93">
+      <c r="AD4" s="108">
         <v>78000</v>
       </c>
-      <c r="AE4" s="93">
+      <c r="AE4" s="108">
         <v>0</v>
       </c>
-      <c r="AF4" s="93">
+      <c r="AF4" s="108">
         <v>3</v>
       </c>
-      <c r="AG4" s="93">
+      <c r="AG4" s="108">
         <v>216</v>
       </c>
     </row>
@@ -5393,11 +5640,11 @@
       <c r="A5" s="102"/>
       <c r="B5" s="102"/>
       <c r="C5" s="102"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
       <c r="I5" s="10" t="s">
         <v>292</v>
       </c>
@@ -5431,22 +5678,22 @@
       <c r="Y5" s="18"/>
       <c r="Z5" s="17"/>
       <c r="AA5" s="17"/>
-      <c r="AB5" s="94"/>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="94"/>
-      <c r="AE5" s="94"/>
-      <c r="AF5" s="94"/>
-      <c r="AG5" s="94"/>
+      <c r="AB5" s="109"/>
+      <c r="AC5" s="109"/>
+      <c r="AD5" s="109"/>
+      <c r="AE5" s="109"/>
+      <c r="AF5" s="109"/>
+      <c r="AG5" s="109"/>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="102"/>
       <c r="B6" s="102"/>
       <c r="C6" s="102"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
       <c r="I6" s="10" t="s">
         <v>293</v>
       </c>
@@ -5484,30 +5731,30 @@
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
-      <c r="AB6" s="95"/>
-      <c r="AC6" s="95"/>
-      <c r="AD6" s="95"/>
-      <c r="AE6" s="95"/>
-      <c r="AF6" s="95"/>
-      <c r="AG6" s="95"/>
+      <c r="AB6" s="110"/>
+      <c r="AC6" s="110"/>
+      <c r="AD6" s="110"/>
+      <c r="AE6" s="110"/>
+      <c r="AF6" s="110"/>
+      <c r="AG6" s="110"/>
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="102"/>
       <c r="B7" s="102"/>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="101" t="s">
         <v>294</v>
       </c>
-      <c r="D7" s="98">
+      <c r="D7" s="104">
         <v>2</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="104" t="s">
         <v>241</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="98">
+      <c r="G7" s="104">
         <v>18100</v>
       </c>
-      <c r="H7" s="98">
+      <c r="H7" s="104">
         <v>30</v>
       </c>
       <c r="I7" s="10" t="s">
@@ -5553,22 +5800,22 @@
       <c r="AA7" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="AB7" s="93">
+      <c r="AB7" s="108">
         <v>140</v>
       </c>
-      <c r="AC7" s="93">
+      <c r="AC7" s="108">
         <v>140</v>
       </c>
-      <c r="AD7" s="93">
+      <c r="AD7" s="108">
         <v>848000</v>
       </c>
-      <c r="AE7" s="93">
+      <c r="AE7" s="108">
         <v>36</v>
       </c>
-      <c r="AF7" s="93">
+      <c r="AF7" s="108">
         <v>8</v>
       </c>
-      <c r="AG7" s="93">
+      <c r="AG7" s="108">
         <v>468</v>
       </c>
     </row>
@@ -5576,11 +5823,11 @@
       <c r="A8" s="102"/>
       <c r="B8" s="102"/>
       <c r="C8" s="102"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
       <c r="I8" s="10" t="s">
         <v>306</v>
       </c>
@@ -5624,22 +5871,22 @@
       <c r="AA8" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="AB8" s="94"/>
-      <c r="AC8" s="94"/>
-      <c r="AD8" s="94"/>
-      <c r="AE8" s="94"/>
-      <c r="AF8" s="94"/>
-      <c r="AG8" s="94"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="109"/>
+      <c r="AE8" s="109"/>
+      <c r="AF8" s="109"/>
+      <c r="AG8" s="109"/>
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="102"/>
       <c r="B9" s="102"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
       <c r="I9" s="10" t="s">
         <v>293</v>
       </c>
@@ -5685,32 +5932,32 @@
       <c r="AA9" s="17">
         <v>42</v>
       </c>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="95"/>
-      <c r="AE9" s="95"/>
-      <c r="AF9" s="95"/>
-      <c r="AG9" s="95"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="110"/>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="102"/>
       <c r="B10" s="102"/>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="101" t="s">
         <v>307</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="104">
         <v>4</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="104" t="s">
         <v>308</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="104">
         <v>30</v>
       </c>
-      <c r="G10" s="98">
+      <c r="G10" s="104">
         <v>39500</v>
       </c>
-      <c r="H10" s="98">
+      <c r="H10" s="104">
         <v>48</v>
       </c>
       <c r="I10" s="10" t="s">
@@ -5758,22 +6005,22 @@
       <c r="AA10" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="AB10" s="93">
+      <c r="AB10" s="108">
         <v>495</v>
       </c>
-      <c r="AC10" s="93">
+      <c r="AC10" s="108">
         <v>495</v>
       </c>
-      <c r="AD10" s="93">
+      <c r="AD10" s="108">
         <v>8630000</v>
       </c>
-      <c r="AE10" s="93">
+      <c r="AE10" s="108">
         <v>348</v>
       </c>
-      <c r="AF10" s="93">
+      <c r="AF10" s="108">
         <v>16</v>
       </c>
-      <c r="AG10" s="93">
+      <c r="AG10" s="108">
         <v>810</v>
       </c>
     </row>
@@ -5781,11 +6028,11 @@
       <c r="A11" s="102"/>
       <c r="B11" s="102"/>
       <c r="C11" s="102"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
       <c r="I11" s="10" t="s">
         <v>285</v>
       </c>
@@ -5831,22 +6078,22 @@
       <c r="AA11" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="AB11" s="94"/>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="94"/>
-      <c r="AE11" s="94"/>
-      <c r="AF11" s="94"/>
-      <c r="AG11" s="94"/>
+      <c r="AB11" s="109"/>
+      <c r="AC11" s="109"/>
+      <c r="AD11" s="109"/>
+      <c r="AE11" s="109"/>
+      <c r="AF11" s="109"/>
+      <c r="AG11" s="109"/>
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="102"/>
       <c r="B12" s="102"/>
       <c r="C12" s="102"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
       <c r="I12" s="10" t="s">
         <v>293</v>
       </c>
@@ -5892,30 +6139,30 @@
       <c r="AA12" s="17">
         <v>80</v>
       </c>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="95"/>
+      <c r="AB12" s="110"/>
+      <c r="AC12" s="110"/>
+      <c r="AD12" s="110"/>
+      <c r="AE12" s="110"/>
+      <c r="AF12" s="110"/>
+      <c r="AG12" s="110"/>
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="102"/>
       <c r="B13" s="102"/>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="101" t="s">
         <v>319</v>
       </c>
-      <c r="D13" s="98">
+      <c r="D13" s="104">
         <v>2</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="104" t="s">
         <v>241</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="98">
+      <c r="G13" s="104">
         <v>18100</v>
       </c>
-      <c r="H13" s="98">
+      <c r="H13" s="104">
         <v>30</v>
       </c>
       <c r="I13" s="10" t="s">
@@ -5961,22 +6208,22 @@
       <c r="AA13" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="AB13" s="93">
+      <c r="AB13" s="108">
         <v>140</v>
       </c>
-      <c r="AC13" s="93">
+      <c r="AC13" s="108">
         <v>140</v>
       </c>
-      <c r="AD13" s="93">
+      <c r="AD13" s="108">
         <v>848000</v>
       </c>
-      <c r="AE13" s="93">
+      <c r="AE13" s="108">
         <v>36</v>
       </c>
-      <c r="AF13" s="93">
+      <c r="AF13" s="108">
         <v>8</v>
       </c>
-      <c r="AG13" s="93">
+      <c r="AG13" s="108">
         <v>468</v>
       </c>
     </row>
@@ -5984,11 +6231,11 @@
       <c r="A14" s="102"/>
       <c r="B14" s="102"/>
       <c r="C14" s="102"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="10" t="s">
         <v>320</v>
       </c>
@@ -6032,22 +6279,22 @@
       <c r="AA14" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="AB14" s="94"/>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="94"/>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="94"/>
+      <c r="AB14" s="109"/>
+      <c r="AC14" s="109"/>
+      <c r="AD14" s="109"/>
+      <c r="AE14" s="109"/>
+      <c r="AF14" s="109"/>
+      <c r="AG14" s="109"/>
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="102"/>
       <c r="B15" s="102"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
       <c r="I15" s="10" t="s">
         <v>293</v>
       </c>
@@ -6093,32 +6340,32 @@
       <c r="AA15" s="17">
         <v>42</v>
       </c>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="95"/>
-      <c r="AF15" s="95"/>
-      <c r="AG15" s="95"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="110"/>
+      <c r="AD15" s="110"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="110"/>
+      <c r="AG15" s="110"/>
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="102"/>
       <c r="B16" s="102"/>
-      <c r="C16" s="96" t="s">
+      <c r="C16" s="101" t="s">
         <v>321</v>
       </c>
-      <c r="D16" s="98">
+      <c r="D16" s="104">
         <v>4</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="104" t="s">
         <v>308</v>
       </c>
-      <c r="F16" s="98">
+      <c r="F16" s="104">
         <v>30</v>
       </c>
-      <c r="G16" s="98">
+      <c r="G16" s="104">
         <v>39500</v>
       </c>
-      <c r="H16" s="98">
+      <c r="H16" s="104">
         <v>48</v>
       </c>
       <c r="I16" s="10" t="s">
@@ -6166,22 +6413,22 @@
       <c r="AA16" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="AB16" s="93">
+      <c r="AB16" s="108">
         <v>495</v>
       </c>
-      <c r="AC16" s="93">
+      <c r="AC16" s="108">
         <v>495</v>
       </c>
-      <c r="AD16" s="93">
+      <c r="AD16" s="108">
         <v>8630000</v>
       </c>
-      <c r="AE16" s="93">
+      <c r="AE16" s="108">
         <v>348</v>
       </c>
-      <c r="AF16" s="93">
+      <c r="AF16" s="108">
         <v>16</v>
       </c>
-      <c r="AG16" s="93">
+      <c r="AG16" s="108">
         <v>810</v>
       </c>
     </row>
@@ -6189,11 +6436,11 @@
       <c r="A17" s="102"/>
       <c r="B17" s="102"/>
       <c r="C17" s="102"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
       <c r="I17" s="10" t="s">
         <v>322</v>
       </c>
@@ -6239,22 +6486,22 @@
       <c r="AA17" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="AB17" s="94"/>
-      <c r="AC17" s="94"/>
-      <c r="AD17" s="94"/>
-      <c r="AE17" s="94"/>
-      <c r="AF17" s="94"/>
-      <c r="AG17" s="94"/>
+      <c r="AB17" s="109"/>
+      <c r="AC17" s="109"/>
+      <c r="AD17" s="109"/>
+      <c r="AE17" s="109"/>
+      <c r="AF17" s="109"/>
+      <c r="AG17" s="109"/>
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="102"/>
       <c r="B18" s="102"/>
       <c r="C18" s="102"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
       <c r="I18" s="10" t="s">
         <v>293</v>
       </c>
@@ -6300,32 +6547,32 @@
       <c r="AA18" s="17">
         <v>80</v>
       </c>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="95"/>
-      <c r="AF18" s="95"/>
-      <c r="AG18" s="95"/>
+      <c r="AB18" s="110"/>
+      <c r="AC18" s="110"/>
+      <c r="AD18" s="110"/>
+      <c r="AE18" s="110"/>
+      <c r="AF18" s="110"/>
+      <c r="AG18" s="110"/>
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="102"/>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="101" t="s">
         <v>324</v>
       </c>
-      <c r="D19" s="98">
+      <c r="D19" s="104">
         <v>1</v>
       </c>
-      <c r="E19" s="98" t="s">
+      <c r="E19" s="104" t="s">
         <v>325</v>
       </c>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98">
+      <c r="F19" s="104"/>
+      <c r="G19" s="104">
         <v>8800</v>
       </c>
-      <c r="H19" s="98">
+      <c r="H19" s="104">
         <v>20</v>
       </c>
       <c r="I19" s="10" t="s">
@@ -6361,22 +6608,22 @@
       <c r="Y19" s="18"/>
       <c r="Z19" s="17"/>
       <c r="AA19" s="17"/>
-      <c r="AB19" s="93">
+      <c r="AB19" s="108">
         <v>40</v>
       </c>
-      <c r="AC19" s="93">
+      <c r="AC19" s="108">
         <v>40</v>
       </c>
-      <c r="AD19" s="93">
+      <c r="AD19" s="108">
         <v>88000</v>
       </c>
-      <c r="AE19" s="93">
+      <c r="AE19" s="108">
         <v>0</v>
       </c>
-      <c r="AF19" s="93">
+      <c r="AF19" s="108">
         <v>3</v>
       </c>
-      <c r="AG19" s="93">
+      <c r="AG19" s="108">
         <v>216</v>
       </c>
     </row>
@@ -6384,11 +6631,11 @@
       <c r="A20" s="102"/>
       <c r="B20" s="102"/>
       <c r="C20" s="102"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
       <c r="I20" s="10" t="s">
         <v>327</v>
       </c>
@@ -6422,22 +6669,22 @@
       <c r="Y20" s="18"/>
       <c r="Z20" s="17"/>
       <c r="AA20" s="17"/>
-      <c r="AB20" s="94"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="94"/>
-      <c r="AE20" s="94"/>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="94"/>
+      <c r="AB20" s="109"/>
+      <c r="AC20" s="109"/>
+      <c r="AD20" s="109"/>
+      <c r="AE20" s="109"/>
+      <c r="AF20" s="109"/>
+      <c r="AG20" s="109"/>
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="102"/>
       <c r="B21" s="102"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
       <c r="I21" s="10" t="s">
         <v>293</v>
       </c>
@@ -6475,30 +6722,30 @@
       <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
       <c r="AA21" s="17"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="95"/>
-      <c r="AG21" s="95"/>
+      <c r="AB21" s="110"/>
+      <c r="AC21" s="110"/>
+      <c r="AD21" s="110"/>
+      <c r="AE21" s="110"/>
+      <c r="AF21" s="110"/>
+      <c r="AG21" s="110"/>
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="102"/>
       <c r="B22" s="102"/>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="101" t="s">
         <v>328</v>
       </c>
-      <c r="D22" s="98">
+      <c r="D22" s="104">
         <v>2</v>
       </c>
-      <c r="E22" s="98" t="s">
+      <c r="E22" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98">
+      <c r="F22" s="104"/>
+      <c r="G22" s="104">
         <v>18100</v>
       </c>
-      <c r="H22" s="98">
+      <c r="H22" s="104">
         <v>30</v>
       </c>
       <c r="I22" s="10" t="s">
@@ -6544,22 +6791,22 @@
       <c r="AA22" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="AB22" s="93">
+      <c r="AB22" s="108">
         <v>140</v>
       </c>
-      <c r="AC22" s="93">
+      <c r="AC22" s="108">
         <v>140</v>
       </c>
-      <c r="AD22" s="93">
+      <c r="AD22" s="108">
         <v>848000</v>
       </c>
-      <c r="AE22" s="93">
+      <c r="AE22" s="108">
         <v>36</v>
       </c>
-      <c r="AF22" s="93">
+      <c r="AF22" s="108">
         <v>8</v>
       </c>
-      <c r="AG22" s="93">
+      <c r="AG22" s="108">
         <v>468</v>
       </c>
     </row>
@@ -6567,11 +6814,11 @@
       <c r="A23" s="102"/>
       <c r="B23" s="102"/>
       <c r="C23" s="102"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
       <c r="I23" s="10" t="s">
         <v>327</v>
       </c>
@@ -6615,22 +6862,22 @@
       <c r="AA23" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="AB23" s="94"/>
-      <c r="AC23" s="94"/>
-      <c r="AD23" s="94"/>
-      <c r="AE23" s="94"/>
-      <c r="AF23" s="94"/>
-      <c r="AG23" s="94"/>
+      <c r="AB23" s="109"/>
+      <c r="AC23" s="109"/>
+      <c r="AD23" s="109"/>
+      <c r="AE23" s="109"/>
+      <c r="AF23" s="109"/>
+      <c r="AG23" s="109"/>
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="102"/>
       <c r="B24" s="102"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
       <c r="I24" s="10" t="s">
         <v>293</v>
       </c>
@@ -6676,32 +6923,32 @@
       <c r="AA24" s="17">
         <v>42</v>
       </c>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="95"/>
-      <c r="AF24" s="95"/>
-      <c r="AG24" s="95"/>
+      <c r="AB24" s="110"/>
+      <c r="AC24" s="110"/>
+      <c r="AD24" s="110"/>
+      <c r="AE24" s="110"/>
+      <c r="AF24" s="110"/>
+      <c r="AG24" s="110"/>
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="102"/>
       <c r="B25" s="102"/>
-      <c r="C25" s="96" t="s">
+      <c r="C25" s="101" t="s">
         <v>329</v>
       </c>
-      <c r="D25" s="98">
+      <c r="D25" s="104">
         <v>4</v>
       </c>
-      <c r="E25" s="98" t="s">
+      <c r="E25" s="104" t="s">
         <v>308</v>
       </c>
-      <c r="F25" s="98">
+      <c r="F25" s="104">
         <v>30</v>
       </c>
-      <c r="G25" s="98">
+      <c r="G25" s="104">
         <v>39500</v>
       </c>
-      <c r="H25" s="98">
+      <c r="H25" s="104">
         <v>48</v>
       </c>
       <c r="I25" s="10" t="s">
@@ -6749,22 +6996,22 @@
       <c r="AA25" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="AB25" s="93">
+      <c r="AB25" s="108">
         <v>495</v>
       </c>
-      <c r="AC25" s="93">
+      <c r="AC25" s="108">
         <v>495</v>
       </c>
-      <c r="AD25" s="93">
+      <c r="AD25" s="108">
         <v>8630000</v>
       </c>
-      <c r="AE25" s="93">
+      <c r="AE25" s="108">
         <v>348</v>
       </c>
-      <c r="AF25" s="93">
+      <c r="AF25" s="108">
         <v>16</v>
       </c>
-      <c r="AG25" s="93">
+      <c r="AG25" s="108">
         <v>810</v>
       </c>
     </row>
@@ -6772,11 +7019,11 @@
       <c r="A26" s="102"/>
       <c r="B26" s="102"/>
       <c r="C26" s="102"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
       <c r="I26" s="10" t="s">
         <v>327</v>
       </c>
@@ -6822,22 +7069,22 @@
       <c r="AA26" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="AB26" s="94"/>
-      <c r="AC26" s="94"/>
-      <c r="AD26" s="94"/>
-      <c r="AE26" s="94"/>
-      <c r="AF26" s="94"/>
-      <c r="AG26" s="94"/>
+      <c r="AB26" s="109"/>
+      <c r="AC26" s="109"/>
+      <c r="AD26" s="109"/>
+      <c r="AE26" s="109"/>
+      <c r="AF26" s="109"/>
+      <c r="AG26" s="109"/>
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="102"/>
       <c r="B27" s="102"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
       <c r="I27" s="10" t="s">
         <v>293</v>
       </c>
@@ -6883,32 +7130,32 @@
       <c r="AA27" s="17">
         <v>80</v>
       </c>
-      <c r="AB27" s="95"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="95"/>
-      <c r="AF27" s="95"/>
-      <c r="AG27" s="95"/>
+      <c r="AB27" s="110"/>
+      <c r="AC27" s="110"/>
+      <c r="AD27" s="110"/>
+      <c r="AE27" s="110"/>
+      <c r="AF27" s="110"/>
+      <c r="AG27" s="110"/>
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="102"/>
       <c r="B28" s="102"/>
-      <c r="C28" s="96" t="s">
+      <c r="C28" s="101" t="s">
         <v>330</v>
       </c>
-      <c r="D28" s="98">
+      <c r="D28" s="104">
         <v>4</v>
       </c>
-      <c r="E28" s="98" t="s">
+      <c r="E28" s="104" t="s">
         <v>308</v>
       </c>
-      <c r="F28" s="98">
+      <c r="F28" s="104">
         <v>30</v>
       </c>
-      <c r="G28" s="98">
+      <c r="G28" s="104">
         <v>39500</v>
       </c>
-      <c r="H28" s="98">
+      <c r="H28" s="104">
         <v>48</v>
       </c>
       <c r="I28" s="10" t="s">
@@ -6956,22 +7203,22 @@
       <c r="AA28" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="AB28" s="93">
+      <c r="AB28" s="108">
         <v>495</v>
       </c>
-      <c r="AC28" s="93">
+      <c r="AC28" s="108">
         <v>495</v>
       </c>
-      <c r="AD28" s="93">
+      <c r="AD28" s="108">
         <v>8630000</v>
       </c>
-      <c r="AE28" s="93">
+      <c r="AE28" s="108">
         <v>348</v>
       </c>
-      <c r="AF28" s="93">
+      <c r="AF28" s="108">
         <v>16</v>
       </c>
-      <c r="AG28" s="93">
+      <c r="AG28" s="108">
         <v>810</v>
       </c>
     </row>
@@ -6979,11 +7226,11 @@
       <c r="A29" s="102"/>
       <c r="B29" s="102"/>
       <c r="C29" s="102"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
       <c r="I29" s="10" t="s">
         <v>327</v>
       </c>
@@ -7029,22 +7276,22 @@
       <c r="AA29" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="94"/>
-      <c r="AE29" s="94"/>
-      <c r="AF29" s="94"/>
-      <c r="AG29" s="94"/>
+      <c r="AB29" s="109"/>
+      <c r="AC29" s="109"/>
+      <c r="AD29" s="109"/>
+      <c r="AE29" s="109"/>
+      <c r="AF29" s="109"/>
+      <c r="AG29" s="109"/>
     </row>
     <row r="30" spans="1:33">
-      <c r="A30" s="97"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
+      <c r="A30" s="103"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
       <c r="I30" s="10" t="s">
         <v>293</v>
       </c>
@@ -7090,34 +7337,34 @@
       <c r="AA30" s="17">
         <v>80</v>
       </c>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="95"/>
-      <c r="AF30" s="95"/>
-      <c r="AG30" s="95"/>
+      <c r="AB30" s="110"/>
+      <c r="AC30" s="110"/>
+      <c r="AD30" s="110"/>
+      <c r="AE30" s="110"/>
+      <c r="AF30" s="110"/>
+      <c r="AG30" s="110"/>
     </row>
     <row r="31" spans="1:33">
-      <c r="A31" s="96" t="s">
+      <c r="A31" s="101" t="s">
         <v>331</v>
       </c>
-      <c r="B31" s="96" t="s">
+      <c r="B31" s="101" t="s">
         <v>332</v>
       </c>
-      <c r="C31" s="96" t="s">
+      <c r="C31" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="D31" s="98">
+      <c r="D31" s="104">
         <v>1</v>
       </c>
-      <c r="E31" s="98" t="s">
+      <c r="E31" s="104" t="s">
         <v>325</v>
       </c>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98">
+      <c r="F31" s="104"/>
+      <c r="G31" s="104">
         <v>33800</v>
       </c>
-      <c r="H31" s="98">
+      <c r="H31" s="104">
         <v>20</v>
       </c>
       <c r="I31" s="10" t="s">
@@ -7153,22 +7400,22 @@
       <c r="Y31" s="18"/>
       <c r="Z31" s="17"/>
       <c r="AA31" s="17"/>
-      <c r="AB31" s="93">
+      <c r="AB31" s="108">
         <v>40</v>
       </c>
-      <c r="AC31" s="93">
+      <c r="AC31" s="108">
         <v>40</v>
       </c>
-      <c r="AD31" s="93">
+      <c r="AD31" s="108">
         <v>88000</v>
       </c>
-      <c r="AE31" s="93">
+      <c r="AE31" s="108">
         <v>0</v>
       </c>
-      <c r="AF31" s="93">
+      <c r="AF31" s="108">
         <v>3</v>
       </c>
-      <c r="AG31" s="93">
+      <c r="AG31" s="108">
         <v>216</v>
       </c>
     </row>
@@ -7176,11 +7423,11 @@
       <c r="A32" s="102"/>
       <c r="B32" s="102"/>
       <c r="C32" s="102"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
       <c r="I32" s="10" t="s">
         <v>334</v>
       </c>
@@ -7214,22 +7461,22 @@
       <c r="Y32" s="18"/>
       <c r="Z32" s="17"/>
       <c r="AA32" s="17"/>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="94"/>
-      <c r="AE32" s="94"/>
-      <c r="AF32" s="94"/>
-      <c r="AG32" s="94"/>
+      <c r="AB32" s="109"/>
+      <c r="AC32" s="109"/>
+      <c r="AD32" s="109"/>
+      <c r="AE32" s="109"/>
+      <c r="AF32" s="109"/>
+      <c r="AG32" s="109"/>
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="102"/>
       <c r="B33" s="102"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
       <c r="I33" s="10" t="s">
         <v>293</v>
       </c>
@@ -7267,30 +7514,30 @@
       <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
       <c r="AA33" s="17"/>
-      <c r="AB33" s="95"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="95"/>
-      <c r="AF33" s="95"/>
-      <c r="AG33" s="95"/>
+      <c r="AB33" s="110"/>
+      <c r="AC33" s="110"/>
+      <c r="AD33" s="110"/>
+      <c r="AE33" s="110"/>
+      <c r="AF33" s="110"/>
+      <c r="AG33" s="110"/>
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="102"/>
       <c r="B34" s="102"/>
-      <c r="C34" s="96" t="s">
+      <c r="C34" s="101" t="s">
         <v>335</v>
       </c>
-      <c r="D34" s="98">
+      <c r="D34" s="104">
         <v>2</v>
       </c>
-      <c r="E34" s="98" t="s">
+      <c r="E34" s="104" t="s">
         <v>241</v>
       </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="98">
+      <c r="G34" s="104">
         <v>47100</v>
       </c>
-      <c r="H34" s="98">
+      <c r="H34" s="104">
         <v>30</v>
       </c>
       <c r="I34" s="10" t="s">
@@ -7336,22 +7583,22 @@
       <c r="AA34" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="AB34" s="93">
+      <c r="AB34" s="108">
         <v>140</v>
       </c>
-      <c r="AC34" s="93">
+      <c r="AC34" s="108">
         <v>140</v>
       </c>
-      <c r="AD34" s="93">
+      <c r="AD34" s="108">
         <v>848000</v>
       </c>
-      <c r="AE34" s="93">
+      <c r="AE34" s="108">
         <v>36</v>
       </c>
-      <c r="AF34" s="93">
+      <c r="AF34" s="108">
         <v>8</v>
       </c>
-      <c r="AG34" s="93">
+      <c r="AG34" s="108">
         <v>468</v>
       </c>
     </row>
@@ -7359,11 +7606,11 @@
       <c r="A35" s="102"/>
       <c r="B35" s="102"/>
       <c r="C35" s="102"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
       <c r="I35" s="10" t="s">
         <v>334</v>
       </c>
@@ -7407,22 +7654,22 @@
       <c r="AA35" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="AB35" s="94"/>
-      <c r="AC35" s="94"/>
-      <c r="AD35" s="94"/>
-      <c r="AE35" s="94"/>
-      <c r="AF35" s="94"/>
-      <c r="AG35" s="94"/>
+      <c r="AB35" s="109"/>
+      <c r="AC35" s="109"/>
+      <c r="AD35" s="109"/>
+      <c r="AE35" s="109"/>
+      <c r="AF35" s="109"/>
+      <c r="AG35" s="109"/>
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="102"/>
       <c r="B36" s="102"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
       <c r="I36" s="10" t="s">
         <v>293</v>
       </c>
@@ -7468,32 +7715,32 @@
       <c r="AA36" s="17">
         <v>42</v>
       </c>
-      <c r="AB36" s="95"/>
-      <c r="AC36" s="95"/>
-      <c r="AD36" s="95"/>
-      <c r="AE36" s="95"/>
-      <c r="AF36" s="95"/>
-      <c r="AG36" s="95"/>
+      <c r="AB36" s="110"/>
+      <c r="AC36" s="110"/>
+      <c r="AD36" s="110"/>
+      <c r="AE36" s="110"/>
+      <c r="AF36" s="110"/>
+      <c r="AG36" s="110"/>
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="102"/>
       <c r="B37" s="102"/>
-      <c r="C37" s="96" t="s">
+      <c r="C37" s="101" t="s">
         <v>336</v>
       </c>
-      <c r="D37" s="98">
+      <c r="D37" s="104">
         <v>4</v>
       </c>
-      <c r="E37" s="98" t="s">
+      <c r="E37" s="104" t="s">
         <v>308</v>
       </c>
-      <c r="F37" s="98">
+      <c r="F37" s="104">
         <v>30</v>
       </c>
-      <c r="G37" s="98">
+      <c r="G37" s="104">
         <v>78380</v>
       </c>
-      <c r="H37" s="98">
+      <c r="H37" s="104">
         <v>48</v>
       </c>
       <c r="I37" s="10" t="s">
@@ -7541,22 +7788,22 @@
       <c r="AA37" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="AB37" s="93">
+      <c r="AB37" s="108">
         <v>495</v>
       </c>
-      <c r="AC37" s="93">
+      <c r="AC37" s="108">
         <v>495</v>
       </c>
-      <c r="AD37" s="93">
+      <c r="AD37" s="108">
         <v>8630000</v>
       </c>
-      <c r="AE37" s="93">
+      <c r="AE37" s="108">
         <v>348</v>
       </c>
-      <c r="AF37" s="93">
+      <c r="AF37" s="108">
         <v>16</v>
       </c>
-      <c r="AG37" s="93">
+      <c r="AG37" s="108">
         <v>810</v>
       </c>
     </row>
@@ -7564,11 +7811,11 @@
       <c r="A38" s="102"/>
       <c r="B38" s="102"/>
       <c r="C38" s="102"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
       <c r="I38" s="10" t="s">
         <v>334</v>
       </c>
@@ -7614,22 +7861,22 @@
       <c r="AA38" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="AB38" s="94"/>
-      <c r="AC38" s="94"/>
-      <c r="AD38" s="94"/>
-      <c r="AE38" s="94"/>
-      <c r="AF38" s="94"/>
-      <c r="AG38" s="94"/>
+      <c r="AB38" s="109"/>
+      <c r="AC38" s="109"/>
+      <c r="AD38" s="109"/>
+      <c r="AE38" s="109"/>
+      <c r="AF38" s="109"/>
+      <c r="AG38" s="109"/>
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="102"/>
       <c r="B39" s="102"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="99"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="105"/>
       <c r="I39" s="10" t="s">
         <v>293</v>
       </c>
@@ -7675,32 +7922,32 @@
       <c r="AA39" s="17">
         <v>80</v>
       </c>
-      <c r="AB39" s="95"/>
-      <c r="AC39" s="95"/>
-      <c r="AD39" s="95"/>
-      <c r="AE39" s="95"/>
-      <c r="AF39" s="95"/>
-      <c r="AG39" s="95"/>
+      <c r="AB39" s="110"/>
+      <c r="AC39" s="110"/>
+      <c r="AD39" s="110"/>
+      <c r="AE39" s="110"/>
+      <c r="AF39" s="110"/>
+      <c r="AG39" s="110"/>
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="102"/>
       <c r="B40" s="102"/>
-      <c r="C40" s="96" t="s">
+      <c r="C40" s="101" t="s">
         <v>337</v>
       </c>
-      <c r="D40" s="98">
+      <c r="D40" s="104">
         <v>4</v>
       </c>
-      <c r="E40" s="98" t="s">
+      <c r="E40" s="104" t="s">
         <v>308</v>
       </c>
-      <c r="F40" s="98">
+      <c r="F40" s="104">
         <v>30</v>
       </c>
-      <c r="G40" s="98">
+      <c r="G40" s="104">
         <v>78380</v>
       </c>
-      <c r="H40" s="98">
+      <c r="H40" s="104">
         <v>48</v>
       </c>
       <c r="I40" s="10" t="s">
@@ -7748,22 +7995,22 @@
       <c r="AA40" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="AB40" s="93">
+      <c r="AB40" s="108">
         <v>495</v>
       </c>
-      <c r="AC40" s="93">
+      <c r="AC40" s="108">
         <v>495</v>
       </c>
-      <c r="AD40" s="93">
+      <c r="AD40" s="108">
         <v>8630000</v>
       </c>
-      <c r="AE40" s="93">
+      <c r="AE40" s="108">
         <v>348</v>
       </c>
-      <c r="AF40" s="93">
+      <c r="AF40" s="108">
         <v>16</v>
       </c>
-      <c r="AG40" s="93">
+      <c r="AG40" s="108">
         <v>810</v>
       </c>
     </row>
@@ -7771,11 +8018,11 @@
       <c r="A41" s="102"/>
       <c r="B41" s="102"/>
       <c r="C41" s="102"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
       <c r="I41" s="10" t="s">
         <v>334</v>
       </c>
@@ -7821,22 +8068,22 @@
       <c r="AA41" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="AB41" s="94"/>
-      <c r="AC41" s="94"/>
-      <c r="AD41" s="94"/>
-      <c r="AE41" s="94"/>
-      <c r="AF41" s="94"/>
-      <c r="AG41" s="94"/>
+      <c r="AB41" s="109"/>
+      <c r="AC41" s="109"/>
+      <c r="AD41" s="109"/>
+      <c r="AE41" s="109"/>
+      <c r="AF41" s="109"/>
+      <c r="AG41" s="109"/>
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="102"/>
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="99"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="105"/>
       <c r="I42" s="10" t="s">
         <v>293</v>
       </c>
@@ -7882,32 +8129,32 @@
       <c r="AA42" s="17">
         <v>80</v>
       </c>
-      <c r="AB42" s="95"/>
-      <c r="AC42" s="95"/>
-      <c r="AD42" s="95"/>
-      <c r="AE42" s="95"/>
-      <c r="AF42" s="95"/>
-      <c r="AG42" s="95"/>
+      <c r="AB42" s="110"/>
+      <c r="AC42" s="110"/>
+      <c r="AD42" s="110"/>
+      <c r="AE42" s="110"/>
+      <c r="AF42" s="110"/>
+      <c r="AG42" s="110"/>
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="102"/>
-      <c r="B43" s="96" t="s">
+      <c r="B43" s="101" t="s">
         <v>331</v>
       </c>
-      <c r="C43" s="96" t="s">
+      <c r="C43" s="101" t="s">
         <v>338</v>
       </c>
-      <c r="D43" s="98">
+      <c r="D43" s="104">
         <v>1</v>
       </c>
-      <c r="E43" s="98" t="s">
+      <c r="E43" s="104" t="s">
         <v>325</v>
       </c>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98">
+      <c r="F43" s="104"/>
+      <c r="G43" s="104">
         <v>33800</v>
       </c>
-      <c r="H43" s="98">
+      <c r="H43" s="104">
         <v>20</v>
       </c>
       <c r="I43" s="10" t="s">
@@ -7943,22 +8190,22 @@
       <c r="Y43" s="18"/>
       <c r="Z43" s="17"/>
       <c r="AA43" s="17"/>
-      <c r="AB43" s="93">
+      <c r="AB43" s="108">
         <v>40</v>
       </c>
-      <c r="AC43" s="93">
+      <c r="AC43" s="108">
         <v>40</v>
       </c>
-      <c r="AD43" s="93">
+      <c r="AD43" s="108">
         <v>88000</v>
       </c>
-      <c r="AE43" s="93">
+      <c r="AE43" s="108">
         <v>0</v>
       </c>
-      <c r="AF43" s="93">
+      <c r="AF43" s="108">
         <v>3</v>
       </c>
-      <c r="AG43" s="93">
+      <c r="AG43" s="108">
         <v>216</v>
       </c>
     </row>
@@ -7966,11 +8213,11 @@
       <c r="A44" s="102"/>
       <c r="B44" s="102"/>
       <c r="C44" s="102"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
       <c r="I44" s="10" t="s">
         <v>334</v>
       </c>
@@ -8004,22 +8251,22 @@
       <c r="Y44" s="18"/>
       <c r="Z44" s="17"/>
       <c r="AA44" s="17"/>
-      <c r="AB44" s="94"/>
-      <c r="AC44" s="94"/>
-      <c r="AD44" s="94"/>
-      <c r="AE44" s="94"/>
-      <c r="AF44" s="94"/>
-      <c r="AG44" s="94"/>
+      <c r="AB44" s="109"/>
+      <c r="AC44" s="109"/>
+      <c r="AD44" s="109"/>
+      <c r="AE44" s="109"/>
+      <c r="AF44" s="109"/>
+      <c r="AG44" s="109"/>
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="102"/>
       <c r="B45" s="102"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="100"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="100"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
       <c r="I45" s="10" t="s">
         <v>293</v>
       </c>
@@ -8057,30 +8304,30 @@
       <c r="Y45" s="17"/>
       <c r="Z45" s="17"/>
       <c r="AA45" s="17"/>
-      <c r="AB45" s="95"/>
-      <c r="AC45" s="95"/>
-      <c r="AD45" s="95"/>
-      <c r="AE45" s="95"/>
-      <c r="AF45" s="95"/>
-      <c r="AG45" s="95"/>
+      <c r="AB45" s="110"/>
+      <c r="AC45" s="110"/>
+      <c r="AD45" s="110"/>
+      <c r="AE45" s="110"/>
+      <c r="AF45" s="110"/>
+      <c r="AG45" s="110"/>
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="102"/>
       <c r="B46" s="102"/>
-      <c r="C46" s="96" t="s">
+      <c r="C46" s="101" t="s">
         <v>339</v>
       </c>
-      <c r="D46" s="98">
+      <c r="D46" s="104">
         <v>2</v>
       </c>
-      <c r="E46" s="98" t="s">
+      <c r="E46" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98">
+      <c r="F46" s="104"/>
+      <c r="G46" s="104">
         <v>47100</v>
       </c>
-      <c r="H46" s="98">
+      <c r="H46" s="104">
         <v>30</v>
       </c>
       <c r="I46" s="10" t="s">
@@ -8126,22 +8373,22 @@
       <c r="AA46" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="AB46" s="93">
+      <c r="AB46" s="108">
         <v>140</v>
       </c>
-      <c r="AC46" s="93">
+      <c r="AC46" s="108">
         <v>140</v>
       </c>
-      <c r="AD46" s="93">
+      <c r="AD46" s="108">
         <v>848000</v>
       </c>
-      <c r="AE46" s="93">
+      <c r="AE46" s="108">
         <v>36</v>
       </c>
-      <c r="AF46" s="93">
+      <c r="AF46" s="108">
         <v>8</v>
       </c>
-      <c r="AG46" s="93">
+      <c r="AG46" s="108">
         <v>468</v>
       </c>
     </row>
@@ -8149,11 +8396,11 @@
       <c r="A47" s="102"/>
       <c r="B47" s="102"/>
       <c r="C47" s="102"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="99"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
       <c r="I47" s="10" t="s">
         <v>320</v>
       </c>
@@ -8197,22 +8444,22 @@
       <c r="AA47" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="AB47" s="94"/>
-      <c r="AC47" s="94"/>
-      <c r="AD47" s="94"/>
-      <c r="AE47" s="94"/>
-      <c r="AF47" s="94"/>
-      <c r="AG47" s="94"/>
+      <c r="AB47" s="109"/>
+      <c r="AC47" s="109"/>
+      <c r="AD47" s="109"/>
+      <c r="AE47" s="109"/>
+      <c r="AF47" s="109"/>
+      <c r="AG47" s="109"/>
     </row>
     <row r="48" spans="1:33">
       <c r="A48" s="102"/>
       <c r="B48" s="102"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="106"/>
       <c r="I48" s="10" t="s">
         <v>293</v>
       </c>
@@ -8258,32 +8505,32 @@
       <c r="AA48" s="17">
         <v>42</v>
       </c>
-      <c r="AB48" s="95"/>
-      <c r="AC48" s="95"/>
-      <c r="AD48" s="95"/>
-      <c r="AE48" s="95"/>
-      <c r="AF48" s="95"/>
-      <c r="AG48" s="95"/>
+      <c r="AB48" s="110"/>
+      <c r="AC48" s="110"/>
+      <c r="AD48" s="110"/>
+      <c r="AE48" s="110"/>
+      <c r="AF48" s="110"/>
+      <c r="AG48" s="110"/>
     </row>
     <row r="49" spans="1:33">
       <c r="A49" s="102"/>
       <c r="B49" s="102"/>
-      <c r="C49" s="96" t="s">
+      <c r="C49" s="101" t="s">
         <v>340</v>
       </c>
-      <c r="D49" s="98">
+      <c r="D49" s="104">
         <v>4</v>
       </c>
-      <c r="E49" s="98" t="s">
+      <c r="E49" s="104" t="s">
         <v>308</v>
       </c>
-      <c r="F49" s="98">
+      <c r="F49" s="104">
         <v>30</v>
       </c>
-      <c r="G49" s="98">
+      <c r="G49" s="104">
         <v>78380</v>
       </c>
-      <c r="H49" s="98">
+      <c r="H49" s="104">
         <v>48</v>
       </c>
       <c r="I49" s="10" t="s">
@@ -8331,22 +8578,22 @@
       <c r="AA49" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="AB49" s="93">
+      <c r="AB49" s="108">
         <v>495</v>
       </c>
-      <c r="AC49" s="93">
+      <c r="AC49" s="108">
         <v>495</v>
       </c>
-      <c r="AD49" s="93">
+      <c r="AD49" s="108">
         <v>8630000</v>
       </c>
-      <c r="AE49" s="93">
+      <c r="AE49" s="108">
         <v>348</v>
       </c>
-      <c r="AF49" s="93">
+      <c r="AF49" s="108">
         <v>16</v>
       </c>
-      <c r="AG49" s="93">
+      <c r="AG49" s="108">
         <v>810</v>
       </c>
     </row>
@@ -8354,11 +8601,11 @@
       <c r="A50" s="102"/>
       <c r="B50" s="102"/>
       <c r="C50" s="102"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="99"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
       <c r="I50" s="10" t="s">
         <v>285</v>
       </c>
@@ -8404,22 +8651,22 @@
       <c r="AA50" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="AB50" s="94"/>
-      <c r="AC50" s="94"/>
-      <c r="AD50" s="94"/>
-      <c r="AE50" s="94"/>
-      <c r="AF50" s="94"/>
-      <c r="AG50" s="94"/>
+      <c r="AB50" s="109"/>
+      <c r="AC50" s="109"/>
+      <c r="AD50" s="109"/>
+      <c r="AE50" s="109"/>
+      <c r="AF50" s="109"/>
+      <c r="AG50" s="109"/>
     </row>
     <row r="51" spans="1:33">
       <c r="A51" s="102"/>
       <c r="B51" s="102"/>
       <c r="C51" s="102"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="99"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="105"/>
       <c r="I51" s="10" t="s">
         <v>293</v>
       </c>
@@ -8465,30 +8712,30 @@
       <c r="AA51" s="17">
         <v>80</v>
       </c>
-      <c r="AB51" s="95"/>
-      <c r="AC51" s="95"/>
-      <c r="AD51" s="95"/>
-      <c r="AE51" s="95"/>
-      <c r="AF51" s="95"/>
-      <c r="AG51" s="95"/>
+      <c r="AB51" s="110"/>
+      <c r="AC51" s="110"/>
+      <c r="AD51" s="110"/>
+      <c r="AE51" s="110"/>
+      <c r="AF51" s="110"/>
+      <c r="AG51" s="110"/>
     </row>
     <row r="52" spans="1:33">
       <c r="A52" s="102"/>
       <c r="B52" s="102"/>
-      <c r="C52" s="96" t="s">
+      <c r="C52" s="101" t="s">
         <v>341</v>
       </c>
-      <c r="D52" s="98">
+      <c r="D52" s="104">
         <v>2</v>
       </c>
-      <c r="E52" s="98" t="s">
+      <c r="E52" s="104" t="s">
         <v>241</v>
       </c>
       <c r="F52" s="3"/>
-      <c r="G52" s="98">
+      <c r="G52" s="104">
         <v>47100</v>
       </c>
-      <c r="H52" s="98">
+      <c r="H52" s="104">
         <v>30</v>
       </c>
       <c r="I52" s="10" t="s">
@@ -8534,22 +8781,22 @@
       <c r="AA52" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="AB52" s="93">
+      <c r="AB52" s="108">
         <v>140</v>
       </c>
-      <c r="AC52" s="93">
+      <c r="AC52" s="108">
         <v>140</v>
       </c>
-      <c r="AD52" s="93">
+      <c r="AD52" s="108">
         <v>848000</v>
       </c>
-      <c r="AE52" s="93">
+      <c r="AE52" s="108">
         <v>36</v>
       </c>
-      <c r="AF52" s="93">
+      <c r="AF52" s="108">
         <v>8</v>
       </c>
-      <c r="AG52" s="93">
+      <c r="AG52" s="108">
         <v>468</v>
       </c>
     </row>
@@ -8557,11 +8804,11 @@
       <c r="A53" s="102"/>
       <c r="B53" s="102"/>
       <c r="C53" s="102"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="99"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
       <c r="I53" s="10" t="s">
         <v>334</v>
       </c>
@@ -8605,22 +8852,22 @@
       <c r="AA53" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="AB53" s="94"/>
-      <c r="AC53" s="94"/>
-      <c r="AD53" s="94"/>
-      <c r="AE53" s="94"/>
-      <c r="AF53" s="94"/>
-      <c r="AG53" s="94"/>
+      <c r="AB53" s="109"/>
+      <c r="AC53" s="109"/>
+      <c r="AD53" s="109"/>
+      <c r="AE53" s="109"/>
+      <c r="AF53" s="109"/>
+      <c r="AG53" s="109"/>
     </row>
     <row r="54" spans="1:33">
       <c r="A54" s="102"/>
       <c r="B54" s="102"/>
-      <c r="C54" s="97"/>
-      <c r="D54" s="100"/>
-      <c r="E54" s="100"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="106"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="106"/>
       <c r="I54" s="10" t="s">
         <v>293</v>
       </c>
@@ -8666,12 +8913,12 @@
       <c r="AA54" s="17">
         <v>42</v>
       </c>
-      <c r="AB54" s="95"/>
-      <c r="AC54" s="95"/>
-      <c r="AD54" s="95"/>
-      <c r="AE54" s="95"/>
-      <c r="AF54" s="95"/>
-      <c r="AG54" s="95"/>
+      <c r="AB54" s="110"/>
+      <c r="AC54" s="110"/>
+      <c r="AD54" s="110"/>
+      <c r="AE54" s="110"/>
+      <c r="AF54" s="110"/>
+      <c r="AG54" s="110"/>
     </row>
     <row r="55" spans="1:33">
       <c r="A55" s="102"/>
@@ -8679,19 +8926,19 @@
       <c r="C55" s="102" t="s">
         <v>342</v>
       </c>
-      <c r="D55" s="98">
+      <c r="D55" s="104">
         <v>4</v>
       </c>
-      <c r="E55" s="101" t="s">
+      <c r="E55" s="107" t="s">
         <v>308</v>
       </c>
-      <c r="F55" s="101">
+      <c r="F55" s="107">
         <v>30</v>
       </c>
-      <c r="G55" s="101">
+      <c r="G55" s="107">
         <v>78380</v>
       </c>
-      <c r="H55" s="101">
+      <c r="H55" s="107">
         <v>48</v>
       </c>
       <c r="I55" s="10" t="s">
@@ -8739,22 +8986,22 @@
       <c r="AA55" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="AB55" s="93">
+      <c r="AB55" s="108">
         <v>495</v>
       </c>
-      <c r="AC55" s="93">
+      <c r="AC55" s="108">
         <v>495</v>
       </c>
-      <c r="AD55" s="93">
+      <c r="AD55" s="108">
         <v>8630000</v>
       </c>
-      <c r="AE55" s="93">
+      <c r="AE55" s="108">
         <v>348</v>
       </c>
-      <c r="AF55" s="93">
+      <c r="AF55" s="108">
         <v>16</v>
       </c>
-      <c r="AG55" s="93">
+      <c r="AG55" s="108">
         <v>810</v>
       </c>
     </row>
@@ -8762,11 +9009,11 @@
       <c r="A56" s="102"/>
       <c r="B56" s="102"/>
       <c r="C56" s="102"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="101"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="107"/>
+      <c r="G56" s="107"/>
+      <c r="H56" s="107"/>
       <c r="I56" s="10" t="s">
         <v>334</v>
       </c>
@@ -8812,22 +9059,22 @@
       <c r="AA56" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="AB56" s="94"/>
-      <c r="AC56" s="94"/>
-      <c r="AD56" s="94"/>
-      <c r="AE56" s="94"/>
-      <c r="AF56" s="94"/>
-      <c r="AG56" s="94"/>
+      <c r="AB56" s="109"/>
+      <c r="AC56" s="109"/>
+      <c r="AD56" s="109"/>
+      <c r="AE56" s="109"/>
+      <c r="AF56" s="109"/>
+      <c r="AG56" s="109"/>
     </row>
     <row r="57" spans="1:33">
-      <c r="A57" s="97"/>
-      <c r="B57" s="97"/>
-      <c r="C57" s="97"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="101"/>
-      <c r="H57" s="101"/>
+      <c r="A57" s="103"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="107"/>
+      <c r="H57" s="107"/>
       <c r="I57" s="10" t="s">
         <v>293</v>
       </c>
@@ -8873,12 +9120,12 @@
       <c r="AA57" s="17">
         <v>80</v>
       </c>
-      <c r="AB57" s="95"/>
-      <c r="AC57" s="95"/>
-      <c r="AD57" s="95"/>
-      <c r="AE57" s="95"/>
-      <c r="AF57" s="95"/>
-      <c r="AG57" s="95"/>
+      <c r="AB57" s="110"/>
+      <c r="AC57" s="110"/>
+      <c r="AD57" s="110"/>
+      <c r="AE57" s="110"/>
+      <c r="AF57" s="110"/>
+      <c r="AG57" s="110"/>
     </row>
     <row r="58" spans="1:33" ht="18" customHeight="1">
       <c r="AB58" s="20">
@@ -8902,6 +9149,206 @@
     </row>
   </sheetData>
   <mergeCells count="224">
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="AG31:AG33"/>
+    <mergeCell ref="AG34:AG36"/>
+    <mergeCell ref="AG37:AG39"/>
+    <mergeCell ref="AG40:AG42"/>
+    <mergeCell ref="AG43:AG45"/>
+    <mergeCell ref="AG46:AG48"/>
+    <mergeCell ref="AG49:AG51"/>
+    <mergeCell ref="AG52:AG54"/>
+    <mergeCell ref="AF31:AF33"/>
+    <mergeCell ref="AF34:AF36"/>
+    <mergeCell ref="AF37:AF39"/>
+    <mergeCell ref="AF40:AF42"/>
+    <mergeCell ref="AF43:AF45"/>
+    <mergeCell ref="AF46:AF48"/>
+    <mergeCell ref="AF49:AF51"/>
+    <mergeCell ref="AF52:AF54"/>
+    <mergeCell ref="AE31:AE33"/>
+    <mergeCell ref="AE34:AE36"/>
+    <mergeCell ref="AE37:AE39"/>
+    <mergeCell ref="AE40:AE42"/>
+    <mergeCell ref="AE43:AE45"/>
+    <mergeCell ref="AE46:AE48"/>
+    <mergeCell ref="AE49:AE51"/>
+    <mergeCell ref="AG55:AG57"/>
+    <mergeCell ref="AG4:AG6"/>
+    <mergeCell ref="AG7:AG9"/>
+    <mergeCell ref="AG10:AG12"/>
+    <mergeCell ref="AG13:AG15"/>
+    <mergeCell ref="AG16:AG18"/>
+    <mergeCell ref="AG19:AG21"/>
+    <mergeCell ref="AG22:AG24"/>
+    <mergeCell ref="AG25:AG27"/>
+    <mergeCell ref="AG28:AG30"/>
+    <mergeCell ref="AF55:AF57"/>
+    <mergeCell ref="AF4:AF6"/>
+    <mergeCell ref="AF7:AF9"/>
+    <mergeCell ref="AF10:AF12"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="AF25:AF27"/>
+    <mergeCell ref="AF28:AF30"/>
+    <mergeCell ref="AE52:AE54"/>
+    <mergeCell ref="AE55:AE57"/>
+    <mergeCell ref="AE4:AE6"/>
+    <mergeCell ref="AE7:AE9"/>
+    <mergeCell ref="AE10:AE12"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AE25:AE27"/>
+    <mergeCell ref="AE28:AE30"/>
+    <mergeCell ref="AD31:AD33"/>
+    <mergeCell ref="AD34:AD36"/>
+    <mergeCell ref="AD37:AD39"/>
+    <mergeCell ref="AD40:AD42"/>
+    <mergeCell ref="AD43:AD45"/>
+    <mergeCell ref="AD46:AD48"/>
+    <mergeCell ref="AD49:AD51"/>
+    <mergeCell ref="AD52:AD54"/>
+    <mergeCell ref="AD55:AD57"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="AD7:AD9"/>
+    <mergeCell ref="AD10:AD12"/>
+    <mergeCell ref="AD13:AD15"/>
+    <mergeCell ref="AD16:AD18"/>
+    <mergeCell ref="AD19:AD21"/>
+    <mergeCell ref="AD22:AD24"/>
+    <mergeCell ref="AD25:AD27"/>
+    <mergeCell ref="AD28:AD30"/>
+    <mergeCell ref="AB55:AB57"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AC7:AC9"/>
+    <mergeCell ref="AC10:AC12"/>
+    <mergeCell ref="AC13:AC15"/>
+    <mergeCell ref="AC16:AC18"/>
+    <mergeCell ref="AC19:AC21"/>
+    <mergeCell ref="AC22:AC24"/>
+    <mergeCell ref="AC25:AC27"/>
+    <mergeCell ref="AC28:AC30"/>
+    <mergeCell ref="AC31:AC33"/>
+    <mergeCell ref="AC34:AC36"/>
+    <mergeCell ref="AC37:AC39"/>
+    <mergeCell ref="AC40:AC42"/>
+    <mergeCell ref="AC43:AC45"/>
+    <mergeCell ref="AC46:AC48"/>
+    <mergeCell ref="AC49:AC51"/>
+    <mergeCell ref="AC52:AC54"/>
+    <mergeCell ref="AC55:AC57"/>
+    <mergeCell ref="AB28:AB30"/>
+    <mergeCell ref="AB31:AB33"/>
+    <mergeCell ref="AB34:AB36"/>
+    <mergeCell ref="AB37:AB39"/>
+    <mergeCell ref="AB40:AB42"/>
+    <mergeCell ref="AB43:AB45"/>
+    <mergeCell ref="AB46:AB48"/>
+    <mergeCell ref="AB49:AB51"/>
+    <mergeCell ref="AB52:AB54"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="AB7:AB9"/>
+    <mergeCell ref="AB10:AB12"/>
+    <mergeCell ref="AB13:AB15"/>
+    <mergeCell ref="AB16:AB18"/>
+    <mergeCell ref="AB19:AB21"/>
+    <mergeCell ref="AB22:AB24"/>
+    <mergeCell ref="AB25:AB27"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D57"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="P2:U2"/>
@@ -8926,206 +9373,6 @@
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="H49:H51"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="AB43:AB45"/>
-    <mergeCell ref="AB46:AB48"/>
-    <mergeCell ref="AB49:AB51"/>
-    <mergeCell ref="AB52:AB54"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="AB4:AB6"/>
-    <mergeCell ref="AB7:AB9"/>
-    <mergeCell ref="AB10:AB12"/>
-    <mergeCell ref="AB13:AB15"/>
-    <mergeCell ref="AB16:AB18"/>
-    <mergeCell ref="AB19:AB21"/>
-    <mergeCell ref="AB22:AB24"/>
-    <mergeCell ref="AB25:AB27"/>
-    <mergeCell ref="AB55:AB57"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="AC7:AC9"/>
-    <mergeCell ref="AC10:AC12"/>
-    <mergeCell ref="AC13:AC15"/>
-    <mergeCell ref="AC16:AC18"/>
-    <mergeCell ref="AC19:AC21"/>
-    <mergeCell ref="AC22:AC24"/>
-    <mergeCell ref="AC25:AC27"/>
-    <mergeCell ref="AC28:AC30"/>
-    <mergeCell ref="AC31:AC33"/>
-    <mergeCell ref="AC34:AC36"/>
-    <mergeCell ref="AC37:AC39"/>
-    <mergeCell ref="AC40:AC42"/>
-    <mergeCell ref="AC43:AC45"/>
-    <mergeCell ref="AC46:AC48"/>
-    <mergeCell ref="AC49:AC51"/>
-    <mergeCell ref="AC52:AC54"/>
-    <mergeCell ref="AC55:AC57"/>
-    <mergeCell ref="AB28:AB30"/>
-    <mergeCell ref="AB31:AB33"/>
-    <mergeCell ref="AB34:AB36"/>
-    <mergeCell ref="AB37:AB39"/>
-    <mergeCell ref="AB40:AB42"/>
-    <mergeCell ref="AD4:AD6"/>
-    <mergeCell ref="AD7:AD9"/>
-    <mergeCell ref="AD10:AD12"/>
-    <mergeCell ref="AD13:AD15"/>
-    <mergeCell ref="AD16:AD18"/>
-    <mergeCell ref="AD19:AD21"/>
-    <mergeCell ref="AD22:AD24"/>
-    <mergeCell ref="AD25:AD27"/>
-    <mergeCell ref="AD28:AD30"/>
-    <mergeCell ref="AD31:AD33"/>
-    <mergeCell ref="AD34:AD36"/>
-    <mergeCell ref="AD37:AD39"/>
-    <mergeCell ref="AD40:AD42"/>
-    <mergeCell ref="AD43:AD45"/>
-    <mergeCell ref="AD46:AD48"/>
-    <mergeCell ref="AD49:AD51"/>
-    <mergeCell ref="AD52:AD54"/>
-    <mergeCell ref="AD55:AD57"/>
-    <mergeCell ref="AE52:AE54"/>
-    <mergeCell ref="AE55:AE57"/>
-    <mergeCell ref="AE4:AE6"/>
-    <mergeCell ref="AE7:AE9"/>
-    <mergeCell ref="AE10:AE12"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="AE28:AE30"/>
-    <mergeCell ref="AF55:AF57"/>
-    <mergeCell ref="AF4:AF6"/>
-    <mergeCell ref="AF7:AF9"/>
-    <mergeCell ref="AF10:AF12"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="AF22:AF24"/>
-    <mergeCell ref="AF25:AF27"/>
-    <mergeCell ref="AF28:AF30"/>
-    <mergeCell ref="AG55:AG57"/>
-    <mergeCell ref="AG4:AG6"/>
-    <mergeCell ref="AG7:AG9"/>
-    <mergeCell ref="AG10:AG12"/>
-    <mergeCell ref="AG13:AG15"/>
-    <mergeCell ref="AG16:AG18"/>
-    <mergeCell ref="AG19:AG21"/>
-    <mergeCell ref="AG22:AG24"/>
-    <mergeCell ref="AG25:AG27"/>
-    <mergeCell ref="AG28:AG30"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="AG31:AG33"/>
-    <mergeCell ref="AG34:AG36"/>
-    <mergeCell ref="AG37:AG39"/>
-    <mergeCell ref="AG40:AG42"/>
-    <mergeCell ref="AG43:AG45"/>
-    <mergeCell ref="AG46:AG48"/>
-    <mergeCell ref="AG49:AG51"/>
-    <mergeCell ref="AG52:AG54"/>
-    <mergeCell ref="AF31:AF33"/>
-    <mergeCell ref="AF34:AF36"/>
-    <mergeCell ref="AF37:AF39"/>
-    <mergeCell ref="AF40:AF42"/>
-    <mergeCell ref="AF43:AF45"/>
-    <mergeCell ref="AF46:AF48"/>
-    <mergeCell ref="AF49:AF51"/>
-    <mergeCell ref="AF52:AF54"/>
-    <mergeCell ref="AE31:AE33"/>
-    <mergeCell ref="AE34:AE36"/>
-    <mergeCell ref="AE37:AE39"/>
-    <mergeCell ref="AE40:AE42"/>
-    <mergeCell ref="AE43:AE45"/>
-    <mergeCell ref="AE46:AE48"/>
-    <mergeCell ref="AE49:AE51"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9134,12 +9381,267 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="120" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" s="120" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="120" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1" s="120" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25">
+      <c r="A2" s="121" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" s="117"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="122" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" s="123">
+        <v>500</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+    </row>
+    <row r="4" spans="1:4" ht="14.25">
+      <c r="A4" s="121" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" s="117"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="119"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.25">
+      <c r="A5" s="122" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" s="123" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="123">
+        <v>190</v>
+      </c>
+      <c r="D5" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25">
+      <c r="A6" s="121" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" s="117"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="119"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.25">
+      <c r="A7" s="122" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="123" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="123">
+        <v>820</v>
+      </c>
+      <c r="D7" s="124" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25">
+      <c r="A8" s="121" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="119"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.25">
+      <c r="A9" s="122" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9" s="123" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="123">
+        <v>1780</v>
+      </c>
+      <c r="D9" s="124" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25">
+      <c r="A10" s="121" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" s="117"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="119"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.25">
+      <c r="A11" s="122" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" s="123" t="s">
+        <v>353</v>
+      </c>
+      <c r="C11" s="123">
+        <v>3460</v>
+      </c>
+      <c r="D11" s="124" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25">
+      <c r="A12" s="121" t="s">
+        <v>359</v>
+      </c>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="A13" s="122" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" s="123" t="s">
+        <v>353</v>
+      </c>
+      <c r="C13" s="123">
+        <v>5950</v>
+      </c>
+      <c r="D13" s="124" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25">
+      <c r="A14" s="121" t="s">
+        <v>361</v>
+      </c>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.25">
+      <c r="A15" s="122" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" s="123" t="s">
+        <v>353</v>
+      </c>
+      <c r="C15" s="123">
+        <v>9410</v>
+      </c>
+      <c r="D15" s="124" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.25">
+      <c r="A16" s="121" t="s">
+        <v>363</v>
+      </c>
+      <c r="B16" s="117"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="119"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25">
+      <c r="A17" s="122" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" s="123" t="s">
+        <v>353</v>
+      </c>
+      <c r="C17" s="123">
+        <v>13260</v>
+      </c>
+      <c r="D17" s="124" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25">
+      <c r="A18" s="121" t="s">
+        <v>365</v>
+      </c>
+      <c r="B18" s="117"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="119"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25">
+      <c r="A19" s="122" t="s">
+        <v>351</v>
+      </c>
+      <c r="B19" s="123" t="s">
+        <v>353</v>
+      </c>
+      <c r="C19" s="123">
+        <v>21950</v>
+      </c>
+      <c r="D19" s="124" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25">
+      <c r="A20" s="121" t="s">
+        <v>367</v>
+      </c>
+      <c r="B20" s="117"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="119"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25">
+      <c r="A21" s="122" t="s">
+        <v>351</v>
+      </c>
+      <c r="B21" s="123" t="s">
+        <v>353</v>
+      </c>
+      <c r="C21" s="123">
+        <v>32100</v>
+      </c>
+      <c r="D21" s="124" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25">
+      <c r="A22" s="121" t="s">
+        <v>368</v>
+      </c>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9439,36 +9941,36 @@
     <row r="4" spans="1:37" ht="18" customHeight="1">
       <c r="A4" s="52"/>
       <c r="B4" s="52"/>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="72"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="73"/>
       <c r="AE4" s="62"/>
       <c r="AF4" s="62"/>
       <c r="AG4" s="62"/>
@@ -10239,36 +10741,36 @@
     <row r="4" spans="1:37" ht="18" customHeight="1">
       <c r="A4" s="52"/>
       <c r="B4" s="52"/>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="72"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="73"/>
       <c r="AE4" s="62"/>
       <c r="AF4" s="62"/>
       <c r="AG4" s="62"/>
@@ -11124,7 +11626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -11143,22 +11645,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="10"/>
@@ -11261,20 +11763,20 @@
       <c r="R3" s="22"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="75" t="s">
         <v>128</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="75">
         <v>10</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74" t="s">
+      <c r="E4" s="75"/>
+      <c r="F4" s="75" t="s">
         <v>131</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -11297,14 +11799,14 @@
       <c r="R4" s="39"/>
     </row>
     <row r="5" spans="1:18" ht="54" customHeight="1">
-      <c r="A5" s="74"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
       <c r="G5" s="6" t="s">
         <v>125</v>
       </c>
@@ -11325,14 +11827,14 @@
       <c r="R5" s="39"/>
     </row>
     <row r="6" spans="1:18" ht="54" customHeight="1">
-      <c r="A6" s="74"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
       <c r="G6" s="22"/>
       <c r="H6" s="6" t="s">
         <v>125</v>
@@ -11353,14 +11855,14 @@
       <c r="R6" s="39"/>
     </row>
     <row r="7" spans="1:18" ht="36" customHeight="1">
-      <c r="A7" s="74"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="6" t="s">
@@ -11381,14 +11883,14 @@
       <c r="R7" s="39"/>
     </row>
     <row r="8" spans="1:18" ht="18" customHeight="1">
-      <c r="A8" s="74"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="6" t="s">
         <v>125</v>
       </c>
@@ -11409,14 +11911,14 @@
       <c r="R8" s="39"/>
     </row>
     <row r="9" spans="1:18" ht="18" customHeight="1">
-      <c r="A9" s="74"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
       <c r="G9" s="6" t="s">
         <v>125</v>
       </c>
@@ -11437,14 +11939,14 @@
       <c r="R9" s="39"/>
     </row>
     <row r="10" spans="1:18" ht="18" customHeight="1">
-      <c r="A10" s="74"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
       <c r="G10" s="6" t="s">
         <v>125</v>
       </c>
@@ -11465,14 +11967,14 @@
       <c r="R10" s="39"/>
     </row>
     <row r="11" spans="1:18" ht="18" customHeight="1">
-      <c r="A11" s="74"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="27"/>
       <c r="H11" s="6" t="s">
         <v>125</v>
@@ -11493,20 +11995,20 @@
       <c r="R11" s="39"/>
     </row>
     <row r="12" spans="1:18" ht="72" customHeight="1">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="76" t="s">
         <v>139</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="80">
         <v>5</v>
       </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79" t="s">
+      <c r="E12" s="80"/>
+      <c r="F12" s="80" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="37" t="s">
@@ -11527,21 +12029,21 @@
       <c r="R12" s="39"/>
     </row>
     <row r="13" spans="1:18" ht="25.5" customHeight="1">
-      <c r="A13" s="75"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
       <c r="G13" s="37" t="s">
         <v>142</v>
       </c>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
       <c r="J13" s="66"/>
-      <c r="K13" s="116"/>
+      <c r="K13" s="67"/>
       <c r="L13" s="66"/>
       <c r="M13" s="66"/>
       <c r="N13" s="40" t="s">
@@ -11553,14 +12055,14 @@
       <c r="R13" s="39"/>
     </row>
     <row r="14" spans="1:18" ht="104.25" customHeight="1">
-      <c r="A14" s="75"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
       <c r="G14" s="22"/>
       <c r="H14" s="37" t="s">
         <v>142</v>
@@ -11579,14 +12081,14 @@
       <c r="R14" s="39"/>
     </row>
     <row r="15" spans="1:18" ht="72" customHeight="1">
-      <c r="A15" s="75"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="37" t="s">
@@ -11605,14 +12107,14 @@
       <c r="R15" s="39"/>
     </row>
     <row r="16" spans="1:18" ht="72" customHeight="1">
-      <c r="A16" s="75"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -11668,509 +12170,509 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:361" ht="18" customHeight="1">
-      <c r="A1" s="84"/>
-      <c r="B1" s="86" t="s">
+      <c r="A1" s="87"/>
+      <c r="B1" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
     </row>
     <row r="2" spans="1:361" ht="60" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="86" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
     </row>
     <row r="3" spans="1:361">
       <c r="A3" s="24"/>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85" t="s">
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85" t="s">
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="85"/>
-      <c r="AO3" s="85"/>
-      <c r="AP3" s="85"/>
-      <c r="AQ3" s="85"/>
-      <c r="AR3" s="85"/>
-      <c r="AS3" s="85"/>
-      <c r="AT3" s="85"/>
-      <c r="AU3" s="85"/>
-      <c r="AV3" s="85"/>
-      <c r="AW3" s="85"/>
-      <c r="AX3" s="85" t="s">
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="83"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="83"/>
+      <c r="AS3" s="83"/>
+      <c r="AT3" s="83"/>
+      <c r="AU3" s="83"/>
+      <c r="AV3" s="83"/>
+      <c r="AW3" s="83"/>
+      <c r="AX3" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="AY3" s="85"/>
-      <c r="AZ3" s="85"/>
-      <c r="BA3" s="85"/>
-      <c r="BB3" s="85"/>
-      <c r="BC3" s="85"/>
-      <c r="BD3" s="85"/>
-      <c r="BE3" s="85"/>
-      <c r="BF3" s="85"/>
-      <c r="BG3" s="85"/>
-      <c r="BH3" s="85"/>
-      <c r="BI3" s="85"/>
-      <c r="BJ3" s="85" t="s">
+      <c r="AY3" s="83"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="83"/>
+      <c r="BB3" s="83"/>
+      <c r="BC3" s="83"/>
+      <c r="BD3" s="83"/>
+      <c r="BE3" s="83"/>
+      <c r="BF3" s="83"/>
+      <c r="BG3" s="83"/>
+      <c r="BH3" s="83"/>
+      <c r="BI3" s="83"/>
+      <c r="BJ3" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="BK3" s="85"/>
-      <c r="BL3" s="85"/>
-      <c r="BM3" s="85"/>
-      <c r="BN3" s="85"/>
-      <c r="BO3" s="85"/>
-      <c r="BP3" s="85"/>
-      <c r="BQ3" s="85"/>
-      <c r="BR3" s="85"/>
-      <c r="BS3" s="85"/>
-      <c r="BT3" s="85"/>
-      <c r="BU3" s="85"/>
-      <c r="BV3" s="85" t="s">
+      <c r="BK3" s="83"/>
+      <c r="BL3" s="83"/>
+      <c r="BM3" s="83"/>
+      <c r="BN3" s="83"/>
+      <c r="BO3" s="83"/>
+      <c r="BP3" s="83"/>
+      <c r="BQ3" s="83"/>
+      <c r="BR3" s="83"/>
+      <c r="BS3" s="83"/>
+      <c r="BT3" s="83"/>
+      <c r="BU3" s="83"/>
+      <c r="BV3" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="BW3" s="85"/>
-      <c r="BX3" s="85"/>
-      <c r="BY3" s="85"/>
-      <c r="BZ3" s="85"/>
-      <c r="CA3" s="85"/>
-      <c r="CB3" s="85"/>
-      <c r="CC3" s="85"/>
-      <c r="CD3" s="85"/>
-      <c r="CE3" s="85"/>
-      <c r="CF3" s="85"/>
-      <c r="CG3" s="85"/>
-      <c r="CH3" s="85" t="s">
+      <c r="BW3" s="83"/>
+      <c r="BX3" s="83"/>
+      <c r="BY3" s="83"/>
+      <c r="BZ3" s="83"/>
+      <c r="CA3" s="83"/>
+      <c r="CB3" s="83"/>
+      <c r="CC3" s="83"/>
+      <c r="CD3" s="83"/>
+      <c r="CE3" s="83"/>
+      <c r="CF3" s="83"/>
+      <c r="CG3" s="83"/>
+      <c r="CH3" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="CI3" s="85"/>
-      <c r="CJ3" s="85"/>
-      <c r="CK3" s="85"/>
-      <c r="CL3" s="85"/>
-      <c r="CM3" s="85"/>
-      <c r="CN3" s="85"/>
-      <c r="CO3" s="85"/>
-      <c r="CP3" s="85"/>
-      <c r="CQ3" s="85"/>
-      <c r="CR3" s="85"/>
-      <c r="CS3" s="85"/>
-      <c r="CT3" s="85" t="s">
+      <c r="CI3" s="83"/>
+      <c r="CJ3" s="83"/>
+      <c r="CK3" s="83"/>
+      <c r="CL3" s="83"/>
+      <c r="CM3" s="83"/>
+      <c r="CN3" s="83"/>
+      <c r="CO3" s="83"/>
+      <c r="CP3" s="83"/>
+      <c r="CQ3" s="83"/>
+      <c r="CR3" s="83"/>
+      <c r="CS3" s="83"/>
+      <c r="CT3" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="CU3" s="85"/>
-      <c r="CV3" s="85"/>
-      <c r="CW3" s="85"/>
-      <c r="CX3" s="85"/>
-      <c r="CY3" s="85"/>
-      <c r="CZ3" s="85"/>
-      <c r="DA3" s="85"/>
-      <c r="DB3" s="85"/>
-      <c r="DC3" s="85"/>
-      <c r="DD3" s="85"/>
-      <c r="DE3" s="85"/>
-      <c r="DF3" s="85" t="s">
+      <c r="CU3" s="83"/>
+      <c r="CV3" s="83"/>
+      <c r="CW3" s="83"/>
+      <c r="CX3" s="83"/>
+      <c r="CY3" s="83"/>
+      <c r="CZ3" s="83"/>
+      <c r="DA3" s="83"/>
+      <c r="DB3" s="83"/>
+      <c r="DC3" s="83"/>
+      <c r="DD3" s="83"/>
+      <c r="DE3" s="83"/>
+      <c r="DF3" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="DG3" s="85"/>
-      <c r="DH3" s="85"/>
-      <c r="DI3" s="85"/>
-      <c r="DJ3" s="85"/>
-      <c r="DK3" s="85"/>
-      <c r="DL3" s="85"/>
-      <c r="DM3" s="85"/>
-      <c r="DN3" s="85"/>
-      <c r="DO3" s="85"/>
-      <c r="DP3" s="85"/>
-      <c r="DQ3" s="85"/>
-      <c r="DR3" s="85" t="s">
+      <c r="DG3" s="83"/>
+      <c r="DH3" s="83"/>
+      <c r="DI3" s="83"/>
+      <c r="DJ3" s="83"/>
+      <c r="DK3" s="83"/>
+      <c r="DL3" s="83"/>
+      <c r="DM3" s="83"/>
+      <c r="DN3" s="83"/>
+      <c r="DO3" s="83"/>
+      <c r="DP3" s="83"/>
+      <c r="DQ3" s="83"/>
+      <c r="DR3" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="DS3" s="85"/>
-      <c r="DT3" s="85"/>
-      <c r="DU3" s="85"/>
-      <c r="DV3" s="85"/>
-      <c r="DW3" s="85"/>
-      <c r="DX3" s="85"/>
-      <c r="DY3" s="85"/>
-      <c r="DZ3" s="85"/>
-      <c r="EA3" s="85"/>
-      <c r="EB3" s="85"/>
-      <c r="EC3" s="85"/>
-      <c r="ED3" s="85" t="s">
+      <c r="DS3" s="83"/>
+      <c r="DT3" s="83"/>
+      <c r="DU3" s="83"/>
+      <c r="DV3" s="83"/>
+      <c r="DW3" s="83"/>
+      <c r="DX3" s="83"/>
+      <c r="DY3" s="83"/>
+      <c r="DZ3" s="83"/>
+      <c r="EA3" s="83"/>
+      <c r="EB3" s="83"/>
+      <c r="EC3" s="83"/>
+      <c r="ED3" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="EE3" s="85"/>
-      <c r="EF3" s="85"/>
-      <c r="EG3" s="85"/>
-      <c r="EH3" s="85"/>
-      <c r="EI3" s="85"/>
-      <c r="EJ3" s="85"/>
-      <c r="EK3" s="85"/>
-      <c r="EL3" s="85"/>
-      <c r="EM3" s="85"/>
-      <c r="EN3" s="85"/>
-      <c r="EO3" s="85"/>
-      <c r="EP3" s="85" t="s">
+      <c r="EE3" s="83"/>
+      <c r="EF3" s="83"/>
+      <c r="EG3" s="83"/>
+      <c r="EH3" s="83"/>
+      <c r="EI3" s="83"/>
+      <c r="EJ3" s="83"/>
+      <c r="EK3" s="83"/>
+      <c r="EL3" s="83"/>
+      <c r="EM3" s="83"/>
+      <c r="EN3" s="83"/>
+      <c r="EO3" s="83"/>
+      <c r="EP3" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="EQ3" s="85"/>
-      <c r="ER3" s="85"/>
-      <c r="ES3" s="85"/>
-      <c r="ET3" s="85"/>
-      <c r="EU3" s="85"/>
-      <c r="EV3" s="85"/>
-      <c r="EW3" s="85"/>
-      <c r="EX3" s="85"/>
-      <c r="EY3" s="85"/>
-      <c r="EZ3" s="85"/>
-      <c r="FA3" s="85"/>
-      <c r="FB3" s="85" t="s">
+      <c r="EQ3" s="83"/>
+      <c r="ER3" s="83"/>
+      <c r="ES3" s="83"/>
+      <c r="ET3" s="83"/>
+      <c r="EU3" s="83"/>
+      <c r="EV3" s="83"/>
+      <c r="EW3" s="83"/>
+      <c r="EX3" s="83"/>
+      <c r="EY3" s="83"/>
+      <c r="EZ3" s="83"/>
+      <c r="FA3" s="83"/>
+      <c r="FB3" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="FC3" s="85"/>
-      <c r="FD3" s="85"/>
-      <c r="FE3" s="85"/>
-      <c r="FF3" s="85"/>
-      <c r="FG3" s="85"/>
-      <c r="FH3" s="85"/>
-      <c r="FI3" s="85"/>
-      <c r="FJ3" s="85"/>
-      <c r="FK3" s="85"/>
-      <c r="FL3" s="85"/>
-      <c r="FM3" s="85"/>
-      <c r="FN3" s="85" t="s">
+      <c r="FC3" s="83"/>
+      <c r="FD3" s="83"/>
+      <c r="FE3" s="83"/>
+      <c r="FF3" s="83"/>
+      <c r="FG3" s="83"/>
+      <c r="FH3" s="83"/>
+      <c r="FI3" s="83"/>
+      <c r="FJ3" s="83"/>
+      <c r="FK3" s="83"/>
+      <c r="FL3" s="83"/>
+      <c r="FM3" s="83"/>
+      <c r="FN3" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="FO3" s="85"/>
-      <c r="FP3" s="85"/>
-      <c r="FQ3" s="85"/>
-      <c r="FR3" s="85"/>
-      <c r="FS3" s="85"/>
-      <c r="FT3" s="85"/>
-      <c r="FU3" s="85"/>
-      <c r="FV3" s="85"/>
-      <c r="FW3" s="85"/>
-      <c r="FX3" s="85"/>
-      <c r="FY3" s="85"/>
-      <c r="FZ3" s="85" t="s">
+      <c r="FO3" s="83"/>
+      <c r="FP3" s="83"/>
+      <c r="FQ3" s="83"/>
+      <c r="FR3" s="83"/>
+      <c r="FS3" s="83"/>
+      <c r="FT3" s="83"/>
+      <c r="FU3" s="83"/>
+      <c r="FV3" s="83"/>
+      <c r="FW3" s="83"/>
+      <c r="FX3" s="83"/>
+      <c r="FY3" s="83"/>
+      <c r="FZ3" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="GA3" s="85"/>
-      <c r="GB3" s="85"/>
-      <c r="GC3" s="85"/>
-      <c r="GD3" s="85"/>
-      <c r="GE3" s="85"/>
-      <c r="GF3" s="85"/>
-      <c r="GG3" s="85"/>
-      <c r="GH3" s="85"/>
-      <c r="GI3" s="85"/>
-      <c r="GJ3" s="85"/>
-      <c r="GK3" s="85"/>
-      <c r="GL3" s="85" t="s">
+      <c r="GA3" s="83"/>
+      <c r="GB3" s="83"/>
+      <c r="GC3" s="83"/>
+      <c r="GD3" s="83"/>
+      <c r="GE3" s="83"/>
+      <c r="GF3" s="83"/>
+      <c r="GG3" s="83"/>
+      <c r="GH3" s="83"/>
+      <c r="GI3" s="83"/>
+      <c r="GJ3" s="83"/>
+      <c r="GK3" s="83"/>
+      <c r="GL3" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="GM3" s="85"/>
-      <c r="GN3" s="85"/>
-      <c r="GO3" s="85"/>
-      <c r="GP3" s="85"/>
-      <c r="GQ3" s="85"/>
-      <c r="GR3" s="85"/>
-      <c r="GS3" s="85"/>
-      <c r="GT3" s="85"/>
-      <c r="GU3" s="85"/>
-      <c r="GV3" s="85"/>
-      <c r="GW3" s="85"/>
-      <c r="GX3" s="85" t="s">
+      <c r="GM3" s="83"/>
+      <c r="GN3" s="83"/>
+      <c r="GO3" s="83"/>
+      <c r="GP3" s="83"/>
+      <c r="GQ3" s="83"/>
+      <c r="GR3" s="83"/>
+      <c r="GS3" s="83"/>
+      <c r="GT3" s="83"/>
+      <c r="GU3" s="83"/>
+      <c r="GV3" s="83"/>
+      <c r="GW3" s="83"/>
+      <c r="GX3" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="GY3" s="85"/>
-      <c r="GZ3" s="85"/>
-      <c r="HA3" s="85"/>
-      <c r="HB3" s="85"/>
-      <c r="HC3" s="85"/>
-      <c r="HD3" s="85"/>
-      <c r="HE3" s="85"/>
-      <c r="HF3" s="85"/>
-      <c r="HG3" s="85"/>
-      <c r="HH3" s="85"/>
-      <c r="HI3" s="85"/>
-      <c r="HJ3" s="85" t="s">
+      <c r="GY3" s="83"/>
+      <c r="GZ3" s="83"/>
+      <c r="HA3" s="83"/>
+      <c r="HB3" s="83"/>
+      <c r="HC3" s="83"/>
+      <c r="HD3" s="83"/>
+      <c r="HE3" s="83"/>
+      <c r="HF3" s="83"/>
+      <c r="HG3" s="83"/>
+      <c r="HH3" s="83"/>
+      <c r="HI3" s="83"/>
+      <c r="HJ3" s="83" t="s">
         <v>166</v>
       </c>
-      <c r="HK3" s="85"/>
-      <c r="HL3" s="85"/>
-      <c r="HM3" s="85"/>
-      <c r="HN3" s="85"/>
-      <c r="HO3" s="85"/>
-      <c r="HP3" s="85"/>
-      <c r="HQ3" s="85"/>
-      <c r="HR3" s="85"/>
-      <c r="HS3" s="85"/>
-      <c r="HT3" s="85"/>
-      <c r="HU3" s="85"/>
-      <c r="HV3" s="85" t="s">
+      <c r="HK3" s="83"/>
+      <c r="HL3" s="83"/>
+      <c r="HM3" s="83"/>
+      <c r="HN3" s="83"/>
+      <c r="HO3" s="83"/>
+      <c r="HP3" s="83"/>
+      <c r="HQ3" s="83"/>
+      <c r="HR3" s="83"/>
+      <c r="HS3" s="83"/>
+      <c r="HT3" s="83"/>
+      <c r="HU3" s="83"/>
+      <c r="HV3" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="HW3" s="85"/>
-      <c r="HX3" s="85"/>
-      <c r="HY3" s="85"/>
-      <c r="HZ3" s="85"/>
-      <c r="IA3" s="85"/>
-      <c r="IB3" s="85"/>
-      <c r="IC3" s="85"/>
-      <c r="ID3" s="85"/>
-      <c r="IE3" s="85"/>
-      <c r="IF3" s="85"/>
-      <c r="IG3" s="85"/>
-      <c r="IH3" s="85" t="s">
+      <c r="HW3" s="83"/>
+      <c r="HX3" s="83"/>
+      <c r="HY3" s="83"/>
+      <c r="HZ3" s="83"/>
+      <c r="IA3" s="83"/>
+      <c r="IB3" s="83"/>
+      <c r="IC3" s="83"/>
+      <c r="ID3" s="83"/>
+      <c r="IE3" s="83"/>
+      <c r="IF3" s="83"/>
+      <c r="IG3" s="83"/>
+      <c r="IH3" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="II3" s="85"/>
-      <c r="IJ3" s="85"/>
-      <c r="IK3" s="85"/>
-      <c r="IL3" s="85"/>
-      <c r="IM3" s="85"/>
-      <c r="IN3" s="85"/>
-      <c r="IO3" s="85"/>
-      <c r="IP3" s="85"/>
-      <c r="IQ3" s="85"/>
-      <c r="IR3" s="85"/>
-      <c r="IS3" s="85"/>
-      <c r="IT3" s="85" t="s">
+      <c r="II3" s="83"/>
+      <c r="IJ3" s="83"/>
+      <c r="IK3" s="83"/>
+      <c r="IL3" s="83"/>
+      <c r="IM3" s="83"/>
+      <c r="IN3" s="83"/>
+      <c r="IO3" s="83"/>
+      <c r="IP3" s="83"/>
+      <c r="IQ3" s="83"/>
+      <c r="IR3" s="83"/>
+      <c r="IS3" s="83"/>
+      <c r="IT3" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="IU3" s="85"/>
-      <c r="IV3" s="85"/>
-      <c r="IW3" s="85"/>
-      <c r="IX3" s="85"/>
-      <c r="IY3" s="85"/>
-      <c r="IZ3" s="85"/>
-      <c r="JA3" s="85"/>
-      <c r="JB3" s="85"/>
-      <c r="JC3" s="85"/>
-      <c r="JD3" s="85"/>
-      <c r="JE3" s="85"/>
-      <c r="JF3" s="85" t="s">
+      <c r="IU3" s="83"/>
+      <c r="IV3" s="83"/>
+      <c r="IW3" s="83"/>
+      <c r="IX3" s="83"/>
+      <c r="IY3" s="83"/>
+      <c r="IZ3" s="83"/>
+      <c r="JA3" s="83"/>
+      <c r="JB3" s="83"/>
+      <c r="JC3" s="83"/>
+      <c r="JD3" s="83"/>
+      <c r="JE3" s="83"/>
+      <c r="JF3" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="JG3" s="85"/>
-      <c r="JH3" s="85"/>
-      <c r="JI3" s="85"/>
-      <c r="JJ3" s="85"/>
-      <c r="JK3" s="85"/>
-      <c r="JL3" s="85"/>
-      <c r="JM3" s="85"/>
-      <c r="JN3" s="85"/>
-      <c r="JO3" s="85"/>
-      <c r="JP3" s="85"/>
-      <c r="JQ3" s="85"/>
-      <c r="JR3" s="85" t="s">
+      <c r="JG3" s="83"/>
+      <c r="JH3" s="83"/>
+      <c r="JI3" s="83"/>
+      <c r="JJ3" s="83"/>
+      <c r="JK3" s="83"/>
+      <c r="JL3" s="83"/>
+      <c r="JM3" s="83"/>
+      <c r="JN3" s="83"/>
+      <c r="JO3" s="83"/>
+      <c r="JP3" s="83"/>
+      <c r="JQ3" s="83"/>
+      <c r="JR3" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="JS3" s="85"/>
-      <c r="JT3" s="85"/>
-      <c r="JU3" s="85"/>
-      <c r="JV3" s="85"/>
-      <c r="JW3" s="85"/>
-      <c r="JX3" s="85"/>
-      <c r="JY3" s="85"/>
-      <c r="JZ3" s="85"/>
-      <c r="KA3" s="85"/>
-      <c r="KB3" s="85"/>
-      <c r="KC3" s="85"/>
-      <c r="KD3" s="85" t="s">
+      <c r="JS3" s="83"/>
+      <c r="JT3" s="83"/>
+      <c r="JU3" s="83"/>
+      <c r="JV3" s="83"/>
+      <c r="JW3" s="83"/>
+      <c r="JX3" s="83"/>
+      <c r="JY3" s="83"/>
+      <c r="JZ3" s="83"/>
+      <c r="KA3" s="83"/>
+      <c r="KB3" s="83"/>
+      <c r="KC3" s="83"/>
+      <c r="KD3" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="KE3" s="85"/>
-      <c r="KF3" s="85"/>
-      <c r="KG3" s="85"/>
-      <c r="KH3" s="85"/>
-      <c r="KI3" s="85"/>
-      <c r="KJ3" s="85"/>
-      <c r="KK3" s="85"/>
-      <c r="KL3" s="85"/>
-      <c r="KM3" s="85"/>
-      <c r="KN3" s="85"/>
-      <c r="KO3" s="85"/>
-      <c r="KP3" s="85" t="s">
+      <c r="KE3" s="83"/>
+      <c r="KF3" s="83"/>
+      <c r="KG3" s="83"/>
+      <c r="KH3" s="83"/>
+      <c r="KI3" s="83"/>
+      <c r="KJ3" s="83"/>
+      <c r="KK3" s="83"/>
+      <c r="KL3" s="83"/>
+      <c r="KM3" s="83"/>
+      <c r="KN3" s="83"/>
+      <c r="KO3" s="83"/>
+      <c r="KP3" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="KQ3" s="85"/>
-      <c r="KR3" s="85"/>
-      <c r="KS3" s="85"/>
-      <c r="KT3" s="85"/>
-      <c r="KU3" s="85"/>
-      <c r="KV3" s="85"/>
-      <c r="KW3" s="85"/>
-      <c r="KX3" s="85"/>
-      <c r="KY3" s="85"/>
-      <c r="KZ3" s="85"/>
-      <c r="LA3" s="85"/>
-      <c r="LB3" s="85" t="s">
+      <c r="KQ3" s="83"/>
+      <c r="KR3" s="83"/>
+      <c r="KS3" s="83"/>
+      <c r="KT3" s="83"/>
+      <c r="KU3" s="83"/>
+      <c r="KV3" s="83"/>
+      <c r="KW3" s="83"/>
+      <c r="KX3" s="83"/>
+      <c r="KY3" s="83"/>
+      <c r="KZ3" s="83"/>
+      <c r="LA3" s="83"/>
+      <c r="LB3" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="LC3" s="85"/>
-      <c r="LD3" s="85"/>
-      <c r="LE3" s="85"/>
-      <c r="LF3" s="85"/>
-      <c r="LG3" s="85"/>
-      <c r="LH3" s="85"/>
-      <c r="LI3" s="85"/>
-      <c r="LJ3" s="85"/>
-      <c r="LK3" s="85"/>
-      <c r="LL3" s="85"/>
-      <c r="LM3" s="85"/>
-      <c r="LN3" s="85" t="s">
+      <c r="LC3" s="83"/>
+      <c r="LD3" s="83"/>
+      <c r="LE3" s="83"/>
+      <c r="LF3" s="83"/>
+      <c r="LG3" s="83"/>
+      <c r="LH3" s="83"/>
+      <c r="LI3" s="83"/>
+      <c r="LJ3" s="83"/>
+      <c r="LK3" s="83"/>
+      <c r="LL3" s="83"/>
+      <c r="LM3" s="83"/>
+      <c r="LN3" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="LO3" s="85"/>
-      <c r="LP3" s="85"/>
-      <c r="LQ3" s="85"/>
-      <c r="LR3" s="85"/>
-      <c r="LS3" s="85"/>
-      <c r="LT3" s="85"/>
-      <c r="LU3" s="85"/>
-      <c r="LV3" s="85"/>
-      <c r="LW3" s="85"/>
-      <c r="LX3" s="85"/>
-      <c r="LY3" s="85"/>
-      <c r="LZ3" s="85" t="s">
+      <c r="LO3" s="83"/>
+      <c r="LP3" s="83"/>
+      <c r="LQ3" s="83"/>
+      <c r="LR3" s="83"/>
+      <c r="LS3" s="83"/>
+      <c r="LT3" s="83"/>
+      <c r="LU3" s="83"/>
+      <c r="LV3" s="83"/>
+      <c r="LW3" s="83"/>
+      <c r="LX3" s="83"/>
+      <c r="LY3" s="83"/>
+      <c r="LZ3" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="MA3" s="85"/>
-      <c r="MB3" s="85"/>
-      <c r="MC3" s="85"/>
-      <c r="MD3" s="85"/>
-      <c r="ME3" s="85"/>
-      <c r="MF3" s="85"/>
-      <c r="MG3" s="85"/>
-      <c r="MH3" s="85"/>
-      <c r="MI3" s="85"/>
-      <c r="MJ3" s="85"/>
-      <c r="MK3" s="85"/>
-      <c r="ML3" s="85" t="s">
+      <c r="MA3" s="83"/>
+      <c r="MB3" s="83"/>
+      <c r="MC3" s="83"/>
+      <c r="MD3" s="83"/>
+      <c r="ME3" s="83"/>
+      <c r="MF3" s="83"/>
+      <c r="MG3" s="83"/>
+      <c r="MH3" s="83"/>
+      <c r="MI3" s="83"/>
+      <c r="MJ3" s="83"/>
+      <c r="MK3" s="83"/>
+      <c r="ML3" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="MM3" s="85"/>
-      <c r="MN3" s="85"/>
-      <c r="MO3" s="85"/>
-      <c r="MP3" s="85"/>
-      <c r="MQ3" s="85"/>
-      <c r="MR3" s="85"/>
-      <c r="MS3" s="85"/>
-      <c r="MT3" s="85"/>
-      <c r="MU3" s="85"/>
-      <c r="MV3" s="85"/>
-      <c r="MW3" s="85"/>
+      <c r="MM3" s="83"/>
+      <c r="MN3" s="83"/>
+      <c r="MO3" s="83"/>
+      <c r="MP3" s="83"/>
+      <c r="MQ3" s="83"/>
+      <c r="MR3" s="83"/>
+      <c r="MS3" s="83"/>
+      <c r="MT3" s="83"/>
+      <c r="MU3" s="83"/>
+      <c r="MV3" s="83"/>
+      <c r="MW3" s="83"/>
     </row>
     <row r="4" spans="1:361">
       <c r="A4" s="24" t="s">
@@ -16545,366 +17047,366 @@
       <c r="A14" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="82"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="83"/>
-      <c r="Z14" s="81"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="82"/>
-      <c r="AH14" s="82"/>
-      <c r="AI14" s="82"/>
-      <c r="AJ14" s="82"/>
-      <c r="AK14" s="83"/>
-      <c r="AL14" s="81"/>
-      <c r="AM14" s="82"/>
-      <c r="AN14" s="82"/>
-      <c r="AO14" s="82"/>
-      <c r="AP14" s="82"/>
-      <c r="AQ14" s="82"/>
-      <c r="AR14" s="82"/>
-      <c r="AS14" s="82"/>
-      <c r="AT14" s="82"/>
-      <c r="AU14" s="82"/>
-      <c r="AV14" s="82"/>
-      <c r="AW14" s="83"/>
-      <c r="AX14" s="81"/>
-      <c r="AY14" s="82"/>
-      <c r="AZ14" s="82"/>
-      <c r="BA14" s="82"/>
-      <c r="BB14" s="82"/>
-      <c r="BC14" s="82"/>
-      <c r="BD14" s="82"/>
-      <c r="BE14" s="82"/>
-      <c r="BF14" s="82"/>
-      <c r="BG14" s="82"/>
-      <c r="BH14" s="82"/>
-      <c r="BI14" s="83"/>
-      <c r="BJ14" s="81"/>
-      <c r="BK14" s="82"/>
-      <c r="BL14" s="82"/>
-      <c r="BM14" s="82"/>
-      <c r="BN14" s="82"/>
-      <c r="BO14" s="82"/>
-      <c r="BP14" s="82"/>
-      <c r="BQ14" s="82"/>
-      <c r="BR14" s="82"/>
-      <c r="BS14" s="82"/>
-      <c r="BT14" s="82"/>
-      <c r="BU14" s="83"/>
-      <c r="BV14" s="81"/>
-      <c r="BW14" s="82"/>
-      <c r="BX14" s="82"/>
-      <c r="BY14" s="82"/>
-      <c r="BZ14" s="82"/>
-      <c r="CA14" s="82"/>
-      <c r="CB14" s="82"/>
-      <c r="CC14" s="82"/>
-      <c r="CD14" s="82"/>
-      <c r="CE14" s="82"/>
-      <c r="CF14" s="82"/>
-      <c r="CG14" s="83"/>
-      <c r="CH14" s="81"/>
-      <c r="CI14" s="82"/>
-      <c r="CJ14" s="82"/>
-      <c r="CK14" s="82"/>
-      <c r="CL14" s="82"/>
-      <c r="CM14" s="82"/>
-      <c r="CN14" s="82"/>
-      <c r="CO14" s="82"/>
-      <c r="CP14" s="82"/>
-      <c r="CQ14" s="82"/>
-      <c r="CR14" s="82"/>
-      <c r="CS14" s="83"/>
-      <c r="CT14" s="81"/>
-      <c r="CU14" s="82"/>
-      <c r="CV14" s="82"/>
-      <c r="CW14" s="82"/>
-      <c r="CX14" s="82"/>
-      <c r="CY14" s="82"/>
-      <c r="CZ14" s="82"/>
-      <c r="DA14" s="82"/>
-      <c r="DB14" s="82"/>
-      <c r="DC14" s="82"/>
-      <c r="DD14" s="82"/>
-      <c r="DE14" s="83"/>
-      <c r="DF14" s="81"/>
-      <c r="DG14" s="82"/>
-      <c r="DH14" s="82"/>
-      <c r="DI14" s="82"/>
-      <c r="DJ14" s="82"/>
-      <c r="DK14" s="82"/>
-      <c r="DL14" s="82"/>
-      <c r="DM14" s="82"/>
-      <c r="DN14" s="82"/>
-      <c r="DO14" s="82"/>
-      <c r="DP14" s="82"/>
-      <c r="DQ14" s="83"/>
-      <c r="DR14" s="81"/>
-      <c r="DS14" s="82"/>
-      <c r="DT14" s="82"/>
-      <c r="DU14" s="82"/>
-      <c r="DV14" s="82"/>
-      <c r="DW14" s="82"/>
-      <c r="DX14" s="82"/>
-      <c r="DY14" s="82"/>
-      <c r="DZ14" s="82"/>
-      <c r="EA14" s="82"/>
-      <c r="EB14" s="82"/>
-      <c r="EC14" s="83"/>
-      <c r="ED14" s="81"/>
-      <c r="EE14" s="82"/>
-      <c r="EF14" s="82"/>
-      <c r="EG14" s="82"/>
-      <c r="EH14" s="82"/>
-      <c r="EI14" s="82"/>
-      <c r="EJ14" s="82"/>
-      <c r="EK14" s="82"/>
-      <c r="EL14" s="82"/>
-      <c r="EM14" s="82"/>
-      <c r="EN14" s="82"/>
-      <c r="EO14" s="83"/>
-      <c r="EP14" s="81"/>
-      <c r="EQ14" s="82"/>
-      <c r="ER14" s="82"/>
-      <c r="ES14" s="82"/>
-      <c r="ET14" s="82"/>
-      <c r="EU14" s="82"/>
-      <c r="EV14" s="82"/>
-      <c r="EW14" s="82"/>
-      <c r="EX14" s="82"/>
-      <c r="EY14" s="82"/>
-      <c r="EZ14" s="82"/>
-      <c r="FA14" s="83"/>
-      <c r="FB14" s="81"/>
-      <c r="FC14" s="82"/>
-      <c r="FD14" s="82"/>
-      <c r="FE14" s="82"/>
-      <c r="FF14" s="82"/>
-      <c r="FG14" s="82"/>
-      <c r="FH14" s="82"/>
-      <c r="FI14" s="82"/>
-      <c r="FJ14" s="82"/>
-      <c r="FK14" s="82"/>
-      <c r="FL14" s="82"/>
-      <c r="FM14" s="83"/>
-      <c r="FN14" s="81"/>
-      <c r="FO14" s="82"/>
-      <c r="FP14" s="82"/>
-      <c r="FQ14" s="82"/>
-      <c r="FR14" s="82"/>
-      <c r="FS14" s="82"/>
-      <c r="FT14" s="82"/>
-      <c r="FU14" s="82"/>
-      <c r="FV14" s="82"/>
-      <c r="FW14" s="82"/>
-      <c r="FX14" s="82"/>
-      <c r="FY14" s="83"/>
-      <c r="FZ14" s="81"/>
-      <c r="GA14" s="82"/>
-      <c r="GB14" s="82"/>
-      <c r="GC14" s="82"/>
-      <c r="GD14" s="82"/>
-      <c r="GE14" s="82"/>
-      <c r="GF14" s="82"/>
-      <c r="GG14" s="82"/>
-      <c r="GH14" s="82"/>
-      <c r="GI14" s="82"/>
-      <c r="GJ14" s="82"/>
-      <c r="GK14" s="83"/>
-      <c r="GL14" s="81"/>
-      <c r="GM14" s="82"/>
-      <c r="GN14" s="82"/>
-      <c r="GO14" s="82"/>
-      <c r="GP14" s="82"/>
-      <c r="GQ14" s="82"/>
-      <c r="GR14" s="82"/>
-      <c r="GS14" s="82"/>
-      <c r="GT14" s="82"/>
-      <c r="GU14" s="82"/>
-      <c r="GV14" s="82"/>
-      <c r="GW14" s="83"/>
-      <c r="GX14" s="81"/>
-      <c r="GY14" s="82"/>
-      <c r="GZ14" s="82"/>
-      <c r="HA14" s="82"/>
-      <c r="HB14" s="82"/>
-      <c r="HC14" s="82"/>
-      <c r="HD14" s="82"/>
-      <c r="HE14" s="82"/>
-      <c r="HF14" s="82"/>
-      <c r="HG14" s="82"/>
-      <c r="HH14" s="82"/>
-      <c r="HI14" s="83"/>
-      <c r="HJ14" s="81"/>
-      <c r="HK14" s="82"/>
-      <c r="HL14" s="82"/>
-      <c r="HM14" s="82"/>
-      <c r="HN14" s="82"/>
-      <c r="HO14" s="82"/>
-      <c r="HP14" s="82"/>
-      <c r="HQ14" s="82"/>
-      <c r="HR14" s="82"/>
-      <c r="HS14" s="82"/>
-      <c r="HT14" s="82"/>
-      <c r="HU14" s="83"/>
-      <c r="HV14" s="81"/>
-      <c r="HW14" s="82"/>
-      <c r="HX14" s="82"/>
-      <c r="HY14" s="82"/>
-      <c r="HZ14" s="82"/>
-      <c r="IA14" s="82"/>
-      <c r="IB14" s="82"/>
-      <c r="IC14" s="82"/>
-      <c r="ID14" s="82"/>
-      <c r="IE14" s="82"/>
-      <c r="IF14" s="82"/>
-      <c r="IG14" s="83"/>
-      <c r="IH14" s="81"/>
-      <c r="II14" s="82"/>
-      <c r="IJ14" s="82"/>
-      <c r="IK14" s="82"/>
-      <c r="IL14" s="82"/>
-      <c r="IM14" s="82"/>
-      <c r="IN14" s="82"/>
-      <c r="IO14" s="82"/>
-      <c r="IP14" s="82"/>
-      <c r="IQ14" s="82"/>
-      <c r="IR14" s="82"/>
-      <c r="IS14" s="83"/>
-      <c r="IT14" s="81"/>
-      <c r="IU14" s="82"/>
-      <c r="IV14" s="82"/>
-      <c r="IW14" s="82"/>
-      <c r="IX14" s="82"/>
-      <c r="IY14" s="82"/>
-      <c r="IZ14" s="82"/>
-      <c r="JA14" s="82"/>
-      <c r="JB14" s="82"/>
-      <c r="JC14" s="82"/>
-      <c r="JD14" s="82"/>
-      <c r="JE14" s="83"/>
-      <c r="JF14" s="81"/>
-      <c r="JG14" s="82"/>
-      <c r="JH14" s="82"/>
-      <c r="JI14" s="82"/>
-      <c r="JJ14" s="82"/>
-      <c r="JK14" s="82"/>
-      <c r="JL14" s="82"/>
-      <c r="JM14" s="82"/>
-      <c r="JN14" s="82"/>
-      <c r="JO14" s="82"/>
-      <c r="JP14" s="82"/>
-      <c r="JQ14" s="83"/>
-      <c r="JR14" s="81"/>
-      <c r="JS14" s="82"/>
-      <c r="JT14" s="82"/>
-      <c r="JU14" s="82"/>
-      <c r="JV14" s="82"/>
-      <c r="JW14" s="82"/>
-      <c r="JX14" s="82"/>
-      <c r="JY14" s="82"/>
-      <c r="JZ14" s="82"/>
-      <c r="KA14" s="82"/>
-      <c r="KB14" s="82"/>
-      <c r="KC14" s="83"/>
-      <c r="KD14" s="81"/>
-      <c r="KE14" s="82"/>
-      <c r="KF14" s="82"/>
-      <c r="KG14" s="82"/>
-      <c r="KH14" s="82"/>
-      <c r="KI14" s="82"/>
-      <c r="KJ14" s="82"/>
-      <c r="KK14" s="82"/>
-      <c r="KL14" s="82"/>
-      <c r="KM14" s="82"/>
-      <c r="KN14" s="82"/>
-      <c r="KO14" s="83"/>
-      <c r="KP14" s="81"/>
-      <c r="KQ14" s="82"/>
-      <c r="KR14" s="82"/>
-      <c r="KS14" s="82"/>
-      <c r="KT14" s="82"/>
-      <c r="KU14" s="82"/>
-      <c r="KV14" s="82"/>
-      <c r="KW14" s="82"/>
-      <c r="KX14" s="82"/>
-      <c r="KY14" s="82"/>
-      <c r="KZ14" s="82"/>
-      <c r="LA14" s="83"/>
-      <c r="LB14" s="81"/>
-      <c r="LC14" s="82"/>
-      <c r="LD14" s="82"/>
-      <c r="LE14" s="82"/>
-      <c r="LF14" s="82"/>
-      <c r="LG14" s="82"/>
-      <c r="LH14" s="82"/>
-      <c r="LI14" s="82"/>
-      <c r="LJ14" s="82"/>
-      <c r="LK14" s="82"/>
-      <c r="LL14" s="82"/>
-      <c r="LM14" s="83"/>
-      <c r="LN14" s="81"/>
-      <c r="LO14" s="82"/>
-      <c r="LP14" s="82"/>
-      <c r="LQ14" s="82"/>
-      <c r="LR14" s="82"/>
-      <c r="LS14" s="82"/>
-      <c r="LT14" s="82"/>
-      <c r="LU14" s="82"/>
-      <c r="LV14" s="82"/>
-      <c r="LW14" s="82"/>
-      <c r="LX14" s="82"/>
-      <c r="LY14" s="83"/>
-      <c r="LZ14" s="81"/>
-      <c r="MA14" s="82"/>
-      <c r="MB14" s="82"/>
-      <c r="MC14" s="82"/>
-      <c r="MD14" s="82"/>
-      <c r="ME14" s="82"/>
-      <c r="MF14" s="82"/>
-      <c r="MG14" s="82"/>
-      <c r="MH14" s="82"/>
-      <c r="MI14" s="82"/>
-      <c r="MJ14" s="82"/>
-      <c r="MK14" s="83"/>
-      <c r="ML14" s="81"/>
-      <c r="MM14" s="82"/>
-      <c r="MN14" s="82"/>
-      <c r="MO14" s="82"/>
-      <c r="MP14" s="82"/>
-      <c r="MQ14" s="82"/>
-      <c r="MR14" s="82"/>
-      <c r="MS14" s="82"/>
-      <c r="MT14" s="82"/>
-      <c r="MU14" s="82"/>
-      <c r="MV14" s="82"/>
-      <c r="MW14" s="83"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="85"/>
+      <c r="AC14" s="85"/>
+      <c r="AD14" s="85"/>
+      <c r="AE14" s="85"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="85"/>
+      <c r="AH14" s="85"/>
+      <c r="AI14" s="85"/>
+      <c r="AJ14" s="85"/>
+      <c r="AK14" s="86"/>
+      <c r="AL14" s="84"/>
+      <c r="AM14" s="85"/>
+      <c r="AN14" s="85"/>
+      <c r="AO14" s="85"/>
+      <c r="AP14" s="85"/>
+      <c r="AQ14" s="85"/>
+      <c r="AR14" s="85"/>
+      <c r="AS14" s="85"/>
+      <c r="AT14" s="85"/>
+      <c r="AU14" s="85"/>
+      <c r="AV14" s="85"/>
+      <c r="AW14" s="86"/>
+      <c r="AX14" s="84"/>
+      <c r="AY14" s="85"/>
+      <c r="AZ14" s="85"/>
+      <c r="BA14" s="85"/>
+      <c r="BB14" s="85"/>
+      <c r="BC14" s="85"/>
+      <c r="BD14" s="85"/>
+      <c r="BE14" s="85"/>
+      <c r="BF14" s="85"/>
+      <c r="BG14" s="85"/>
+      <c r="BH14" s="85"/>
+      <c r="BI14" s="86"/>
+      <c r="BJ14" s="84"/>
+      <c r="BK14" s="85"/>
+      <c r="BL14" s="85"/>
+      <c r="BM14" s="85"/>
+      <c r="BN14" s="85"/>
+      <c r="BO14" s="85"/>
+      <c r="BP14" s="85"/>
+      <c r="BQ14" s="85"/>
+      <c r="BR14" s="85"/>
+      <c r="BS14" s="85"/>
+      <c r="BT14" s="85"/>
+      <c r="BU14" s="86"/>
+      <c r="BV14" s="84"/>
+      <c r="BW14" s="85"/>
+      <c r="BX14" s="85"/>
+      <c r="BY14" s="85"/>
+      <c r="BZ14" s="85"/>
+      <c r="CA14" s="85"/>
+      <c r="CB14" s="85"/>
+      <c r="CC14" s="85"/>
+      <c r="CD14" s="85"/>
+      <c r="CE14" s="85"/>
+      <c r="CF14" s="85"/>
+      <c r="CG14" s="86"/>
+      <c r="CH14" s="84"/>
+      <c r="CI14" s="85"/>
+      <c r="CJ14" s="85"/>
+      <c r="CK14" s="85"/>
+      <c r="CL14" s="85"/>
+      <c r="CM14" s="85"/>
+      <c r="CN14" s="85"/>
+      <c r="CO14" s="85"/>
+      <c r="CP14" s="85"/>
+      <c r="CQ14" s="85"/>
+      <c r="CR14" s="85"/>
+      <c r="CS14" s="86"/>
+      <c r="CT14" s="84"/>
+      <c r="CU14" s="85"/>
+      <c r="CV14" s="85"/>
+      <c r="CW14" s="85"/>
+      <c r="CX14" s="85"/>
+      <c r="CY14" s="85"/>
+      <c r="CZ14" s="85"/>
+      <c r="DA14" s="85"/>
+      <c r="DB14" s="85"/>
+      <c r="DC14" s="85"/>
+      <c r="DD14" s="85"/>
+      <c r="DE14" s="86"/>
+      <c r="DF14" s="84"/>
+      <c r="DG14" s="85"/>
+      <c r="DH14" s="85"/>
+      <c r="DI14" s="85"/>
+      <c r="DJ14" s="85"/>
+      <c r="DK14" s="85"/>
+      <c r="DL14" s="85"/>
+      <c r="DM14" s="85"/>
+      <c r="DN14" s="85"/>
+      <c r="DO14" s="85"/>
+      <c r="DP14" s="85"/>
+      <c r="DQ14" s="86"/>
+      <c r="DR14" s="84"/>
+      <c r="DS14" s="85"/>
+      <c r="DT14" s="85"/>
+      <c r="DU14" s="85"/>
+      <c r="DV14" s="85"/>
+      <c r="DW14" s="85"/>
+      <c r="DX14" s="85"/>
+      <c r="DY14" s="85"/>
+      <c r="DZ14" s="85"/>
+      <c r="EA14" s="85"/>
+      <c r="EB14" s="85"/>
+      <c r="EC14" s="86"/>
+      <c r="ED14" s="84"/>
+      <c r="EE14" s="85"/>
+      <c r="EF14" s="85"/>
+      <c r="EG14" s="85"/>
+      <c r="EH14" s="85"/>
+      <c r="EI14" s="85"/>
+      <c r="EJ14" s="85"/>
+      <c r="EK14" s="85"/>
+      <c r="EL14" s="85"/>
+      <c r="EM14" s="85"/>
+      <c r="EN14" s="85"/>
+      <c r="EO14" s="86"/>
+      <c r="EP14" s="84"/>
+      <c r="EQ14" s="85"/>
+      <c r="ER14" s="85"/>
+      <c r="ES14" s="85"/>
+      <c r="ET14" s="85"/>
+      <c r="EU14" s="85"/>
+      <c r="EV14" s="85"/>
+      <c r="EW14" s="85"/>
+      <c r="EX14" s="85"/>
+      <c r="EY14" s="85"/>
+      <c r="EZ14" s="85"/>
+      <c r="FA14" s="86"/>
+      <c r="FB14" s="84"/>
+      <c r="FC14" s="85"/>
+      <c r="FD14" s="85"/>
+      <c r="FE14" s="85"/>
+      <c r="FF14" s="85"/>
+      <c r="FG14" s="85"/>
+      <c r="FH14" s="85"/>
+      <c r="FI14" s="85"/>
+      <c r="FJ14" s="85"/>
+      <c r="FK14" s="85"/>
+      <c r="FL14" s="85"/>
+      <c r="FM14" s="86"/>
+      <c r="FN14" s="84"/>
+      <c r="FO14" s="85"/>
+      <c r="FP14" s="85"/>
+      <c r="FQ14" s="85"/>
+      <c r="FR14" s="85"/>
+      <c r="FS14" s="85"/>
+      <c r="FT14" s="85"/>
+      <c r="FU14" s="85"/>
+      <c r="FV14" s="85"/>
+      <c r="FW14" s="85"/>
+      <c r="FX14" s="85"/>
+      <c r="FY14" s="86"/>
+      <c r="FZ14" s="84"/>
+      <c r="GA14" s="85"/>
+      <c r="GB14" s="85"/>
+      <c r="GC14" s="85"/>
+      <c r="GD14" s="85"/>
+      <c r="GE14" s="85"/>
+      <c r="GF14" s="85"/>
+      <c r="GG14" s="85"/>
+      <c r="GH14" s="85"/>
+      <c r="GI14" s="85"/>
+      <c r="GJ14" s="85"/>
+      <c r="GK14" s="86"/>
+      <c r="GL14" s="84"/>
+      <c r="GM14" s="85"/>
+      <c r="GN14" s="85"/>
+      <c r="GO14" s="85"/>
+      <c r="GP14" s="85"/>
+      <c r="GQ14" s="85"/>
+      <c r="GR14" s="85"/>
+      <c r="GS14" s="85"/>
+      <c r="GT14" s="85"/>
+      <c r="GU14" s="85"/>
+      <c r="GV14" s="85"/>
+      <c r="GW14" s="86"/>
+      <c r="GX14" s="84"/>
+      <c r="GY14" s="85"/>
+      <c r="GZ14" s="85"/>
+      <c r="HA14" s="85"/>
+      <c r="HB14" s="85"/>
+      <c r="HC14" s="85"/>
+      <c r="HD14" s="85"/>
+      <c r="HE14" s="85"/>
+      <c r="HF14" s="85"/>
+      <c r="HG14" s="85"/>
+      <c r="HH14" s="85"/>
+      <c r="HI14" s="86"/>
+      <c r="HJ14" s="84"/>
+      <c r="HK14" s="85"/>
+      <c r="HL14" s="85"/>
+      <c r="HM14" s="85"/>
+      <c r="HN14" s="85"/>
+      <c r="HO14" s="85"/>
+      <c r="HP14" s="85"/>
+      <c r="HQ14" s="85"/>
+      <c r="HR14" s="85"/>
+      <c r="HS14" s="85"/>
+      <c r="HT14" s="85"/>
+      <c r="HU14" s="86"/>
+      <c r="HV14" s="84"/>
+      <c r="HW14" s="85"/>
+      <c r="HX14" s="85"/>
+      <c r="HY14" s="85"/>
+      <c r="HZ14" s="85"/>
+      <c r="IA14" s="85"/>
+      <c r="IB14" s="85"/>
+      <c r="IC14" s="85"/>
+      <c r="ID14" s="85"/>
+      <c r="IE14" s="85"/>
+      <c r="IF14" s="85"/>
+      <c r="IG14" s="86"/>
+      <c r="IH14" s="84"/>
+      <c r="II14" s="85"/>
+      <c r="IJ14" s="85"/>
+      <c r="IK14" s="85"/>
+      <c r="IL14" s="85"/>
+      <c r="IM14" s="85"/>
+      <c r="IN14" s="85"/>
+      <c r="IO14" s="85"/>
+      <c r="IP14" s="85"/>
+      <c r="IQ14" s="85"/>
+      <c r="IR14" s="85"/>
+      <c r="IS14" s="86"/>
+      <c r="IT14" s="84"/>
+      <c r="IU14" s="85"/>
+      <c r="IV14" s="85"/>
+      <c r="IW14" s="85"/>
+      <c r="IX14" s="85"/>
+      <c r="IY14" s="85"/>
+      <c r="IZ14" s="85"/>
+      <c r="JA14" s="85"/>
+      <c r="JB14" s="85"/>
+      <c r="JC14" s="85"/>
+      <c r="JD14" s="85"/>
+      <c r="JE14" s="86"/>
+      <c r="JF14" s="84"/>
+      <c r="JG14" s="85"/>
+      <c r="JH14" s="85"/>
+      <c r="JI14" s="85"/>
+      <c r="JJ14" s="85"/>
+      <c r="JK14" s="85"/>
+      <c r="JL14" s="85"/>
+      <c r="JM14" s="85"/>
+      <c r="JN14" s="85"/>
+      <c r="JO14" s="85"/>
+      <c r="JP14" s="85"/>
+      <c r="JQ14" s="86"/>
+      <c r="JR14" s="84"/>
+      <c r="JS14" s="85"/>
+      <c r="JT14" s="85"/>
+      <c r="JU14" s="85"/>
+      <c r="JV14" s="85"/>
+      <c r="JW14" s="85"/>
+      <c r="JX14" s="85"/>
+      <c r="JY14" s="85"/>
+      <c r="JZ14" s="85"/>
+      <c r="KA14" s="85"/>
+      <c r="KB14" s="85"/>
+      <c r="KC14" s="86"/>
+      <c r="KD14" s="84"/>
+      <c r="KE14" s="85"/>
+      <c r="KF14" s="85"/>
+      <c r="KG14" s="85"/>
+      <c r="KH14" s="85"/>
+      <c r="KI14" s="85"/>
+      <c r="KJ14" s="85"/>
+      <c r="KK14" s="85"/>
+      <c r="KL14" s="85"/>
+      <c r="KM14" s="85"/>
+      <c r="KN14" s="85"/>
+      <c r="KO14" s="86"/>
+      <c r="KP14" s="84"/>
+      <c r="KQ14" s="85"/>
+      <c r="KR14" s="85"/>
+      <c r="KS14" s="85"/>
+      <c r="KT14" s="85"/>
+      <c r="KU14" s="85"/>
+      <c r="KV14" s="85"/>
+      <c r="KW14" s="85"/>
+      <c r="KX14" s="85"/>
+      <c r="KY14" s="85"/>
+      <c r="KZ14" s="85"/>
+      <c r="LA14" s="86"/>
+      <c r="LB14" s="84"/>
+      <c r="LC14" s="85"/>
+      <c r="LD14" s="85"/>
+      <c r="LE14" s="85"/>
+      <c r="LF14" s="85"/>
+      <c r="LG14" s="85"/>
+      <c r="LH14" s="85"/>
+      <c r="LI14" s="85"/>
+      <c r="LJ14" s="85"/>
+      <c r="LK14" s="85"/>
+      <c r="LL14" s="85"/>
+      <c r="LM14" s="86"/>
+      <c r="LN14" s="84"/>
+      <c r="LO14" s="85"/>
+      <c r="LP14" s="85"/>
+      <c r="LQ14" s="85"/>
+      <c r="LR14" s="85"/>
+      <c r="LS14" s="85"/>
+      <c r="LT14" s="85"/>
+      <c r="LU14" s="85"/>
+      <c r="LV14" s="85"/>
+      <c r="LW14" s="85"/>
+      <c r="LX14" s="85"/>
+      <c r="LY14" s="86"/>
+      <c r="LZ14" s="84"/>
+      <c r="MA14" s="85"/>
+      <c r="MB14" s="85"/>
+      <c r="MC14" s="85"/>
+      <c r="MD14" s="85"/>
+      <c r="ME14" s="85"/>
+      <c r="MF14" s="85"/>
+      <c r="MG14" s="85"/>
+      <c r="MH14" s="85"/>
+      <c r="MI14" s="85"/>
+      <c r="MJ14" s="85"/>
+      <c r="MK14" s="86"/>
+      <c r="ML14" s="84"/>
+      <c r="MM14" s="85"/>
+      <c r="MN14" s="85"/>
+      <c r="MO14" s="85"/>
+      <c r="MP14" s="85"/>
+      <c r="MQ14" s="85"/>
+      <c r="MR14" s="85"/>
+      <c r="MS14" s="85"/>
+      <c r="MT14" s="85"/>
+      <c r="MU14" s="85"/>
+      <c r="MV14" s="85"/>
+      <c r="MW14" s="86"/>
     </row>
     <row r="15" spans="1:361">
       <c r="A15" s="25" t="s">
@@ -24234,38 +24736,21 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B1:AK1"/>
-    <mergeCell ref="B2:AK2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="N3:Y3"/>
-    <mergeCell ref="Z3:AK3"/>
-    <mergeCell ref="AL3:AW3"/>
-    <mergeCell ref="AX3:BI3"/>
-    <mergeCell ref="BJ3:BU3"/>
-    <mergeCell ref="BV3:CG3"/>
-    <mergeCell ref="CH3:CS3"/>
-    <mergeCell ref="CT3:DE3"/>
-    <mergeCell ref="DF3:DQ3"/>
-    <mergeCell ref="DR3:EC3"/>
-    <mergeCell ref="ED3:EO3"/>
-    <mergeCell ref="EP3:FA3"/>
-    <mergeCell ref="LN3:LY3"/>
-    <mergeCell ref="HJ3:HU3"/>
-    <mergeCell ref="HV3:IG3"/>
-    <mergeCell ref="IH3:IS3"/>
-    <mergeCell ref="IT3:JE3"/>
-    <mergeCell ref="JF3:JQ3"/>
-    <mergeCell ref="FB14:FM14"/>
-    <mergeCell ref="JR3:KC3"/>
-    <mergeCell ref="KD3:KO3"/>
-    <mergeCell ref="KP3:LA3"/>
-    <mergeCell ref="LB3:LM3"/>
-    <mergeCell ref="FB3:FM3"/>
-    <mergeCell ref="FN3:FY3"/>
-    <mergeCell ref="FZ3:GK3"/>
-    <mergeCell ref="GL3:GW3"/>
-    <mergeCell ref="GX3:HI3"/>
-    <mergeCell ref="HJ14:HU14"/>
+    <mergeCell ref="LZ14:MK14"/>
+    <mergeCell ref="HV14:IG14"/>
+    <mergeCell ref="IH14:IS14"/>
+    <mergeCell ref="IT14:JE14"/>
+    <mergeCell ref="JF14:JQ14"/>
+    <mergeCell ref="JR14:KC14"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="KD14:KO14"/>
+    <mergeCell ref="KP14:LA14"/>
+    <mergeCell ref="LB14:LM14"/>
+    <mergeCell ref="LN14:LY14"/>
+    <mergeCell ref="FN14:FY14"/>
+    <mergeCell ref="FZ14:GK14"/>
+    <mergeCell ref="GL14:GW14"/>
+    <mergeCell ref="GX14:HI14"/>
     <mergeCell ref="LZ3:MK3"/>
     <mergeCell ref="ML3:MW3"/>
     <mergeCell ref="B14:M14"/>
@@ -24282,21 +24767,38 @@
     <mergeCell ref="ED14:EO14"/>
     <mergeCell ref="EP14:FA14"/>
     <mergeCell ref="ML14:MW14"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="KD14:KO14"/>
-    <mergeCell ref="KP14:LA14"/>
-    <mergeCell ref="LB14:LM14"/>
-    <mergeCell ref="LN14:LY14"/>
-    <mergeCell ref="LZ14:MK14"/>
-    <mergeCell ref="HV14:IG14"/>
-    <mergeCell ref="IH14:IS14"/>
-    <mergeCell ref="IT14:JE14"/>
-    <mergeCell ref="JF14:JQ14"/>
-    <mergeCell ref="JR14:KC14"/>
-    <mergeCell ref="FN14:FY14"/>
-    <mergeCell ref="FZ14:GK14"/>
-    <mergeCell ref="GL14:GW14"/>
-    <mergeCell ref="GX14:HI14"/>
+    <mergeCell ref="FB14:FM14"/>
+    <mergeCell ref="JR3:KC3"/>
+    <mergeCell ref="KD3:KO3"/>
+    <mergeCell ref="KP3:LA3"/>
+    <mergeCell ref="LB3:LM3"/>
+    <mergeCell ref="FB3:FM3"/>
+    <mergeCell ref="FN3:FY3"/>
+    <mergeCell ref="FZ3:GK3"/>
+    <mergeCell ref="GL3:GW3"/>
+    <mergeCell ref="GX3:HI3"/>
+    <mergeCell ref="HJ14:HU14"/>
+    <mergeCell ref="LN3:LY3"/>
+    <mergeCell ref="HJ3:HU3"/>
+    <mergeCell ref="HV3:IG3"/>
+    <mergeCell ref="IH3:IS3"/>
+    <mergeCell ref="IT3:JE3"/>
+    <mergeCell ref="JF3:JQ3"/>
+    <mergeCell ref="CT3:DE3"/>
+    <mergeCell ref="DF3:DQ3"/>
+    <mergeCell ref="DR3:EC3"/>
+    <mergeCell ref="ED3:EO3"/>
+    <mergeCell ref="EP3:FA3"/>
+    <mergeCell ref="AL3:AW3"/>
+    <mergeCell ref="AX3:BI3"/>
+    <mergeCell ref="BJ3:BU3"/>
+    <mergeCell ref="BV3:CG3"/>
+    <mergeCell ref="CH3:CS3"/>
+    <mergeCell ref="B1:AK1"/>
+    <mergeCell ref="B2:AK2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="N3:Y3"/>
+    <mergeCell ref="Z3:AK3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/excel/result_temp2.xlsx
+++ b/src/main/resources/excel/result_temp2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25035" windowHeight="8925" tabRatio="806" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25035" windowHeight="8925" tabRatio="806"/>
   </bookViews>
   <sheets>
     <sheet name="虚战力简表" sheetId="13" r:id="rId1"/>
@@ -1326,13 +1326,6 @@
     <t>10/10/10</t>
   </si>
   <si>
-    <t>龙驹马云禄
-驱虎荀彧
-伶歌卞夫人
-奇谋法正
-汉寿亭候云长</t>
-  </si>
-  <si>
     <t>郡主孙尚香
 鬼谋郭嘉
 斩锋高顺
@@ -2155,6 +2148,15 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>龙驹马云禄
+驱虎荀彧
+伶歌卞夫人
+奇谋法正
+汉寿亭候云长
+白马公孙瓒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2705,6 +2707,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2747,12 +2764,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2764,6 +2775,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2804,54 +2869,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2860,21 +2877,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3176,11 +3178,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3465,36 +3467,36 @@
     <row r="4" spans="1:36" ht="18" customHeight="1">
       <c r="A4" s="52"/>
       <c r="B4" s="52"/>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="78"/>
       <c r="AE4" s="62"/>
       <c r="AF4" s="62"/>
       <c r="AG4" s="62"/>
@@ -3724,99 +3726,99 @@
   <sheetData>
     <row r="1" spans="1:31" ht="18" customHeight="1">
       <c r="B1" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="W1" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="X1" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Z1" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AA1" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AB1" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AC1" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AD1" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AE1" s="21" t="s">
         <v>236</v>
-      </c>
-      <c r="AE1" s="21" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="18" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="22">
         <v>1</v>
@@ -3911,7 +3913,7 @@
     </row>
     <row r="3" spans="1:31" ht="18" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" s="22">
         <v>20</v>
@@ -4006,102 +4008,102 @@
     </row>
     <row r="4" spans="1:31" ht="18" customHeight="1">
       <c r="A4" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>241</v>
-      </c>
       <c r="C4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Z4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AB4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AD4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AE4" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="18" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -4160,7 +4162,7 @@
     </row>
     <row r="6" spans="1:31" ht="18" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B6" s="22">
         <v>1</v>
@@ -4262,7 +4264,7 @@
     </row>
     <row r="8" spans="1:31" ht="18" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -4313,39 +4315,39 @@
       </c>
       <c r="U8" s="22"/>
       <c r="V8" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W8" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X8" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Y8" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Z8" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AA8" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB8" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AC8" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AD8" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AE8" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="18" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -4388,7 +4390,7 @@
     </row>
     <row r="10" spans="1:31" ht="18" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B10" s="22">
         <v>1</v>
@@ -4435,7 +4437,7 @@
     </row>
     <row r="11" spans="1:31" ht="18" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -4476,7 +4478,7 @@
     </row>
     <row r="12" spans="1:31" ht="18" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -4515,7 +4517,7 @@
     </row>
     <row r="13" spans="1:31" ht="18" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -4554,7 +4556,7 @@
     </row>
     <row r="14" spans="1:31" ht="18" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -4595,7 +4597,7 @@
     </row>
     <row r="15" spans="1:31" ht="18" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -4634,7 +4636,7 @@
     </row>
     <row r="16" spans="1:31" ht="18" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -4673,7 +4675,7 @@
     </row>
     <row r="17" spans="1:31" ht="18" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -4714,7 +4716,7 @@
     </row>
     <row r="18" spans="1:31" ht="18" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -4753,7 +4755,7 @@
     </row>
     <row r="19" spans="1:31" ht="18" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -4792,7 +4794,7 @@
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -4833,7 +4835,7 @@
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -4872,7 +4874,7 @@
     </row>
     <row r="22" spans="1:31" ht="18" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -4911,7 +4913,7 @@
     </row>
     <row r="23" spans="1:31" ht="18" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -4948,7 +4950,7 @@
     </row>
     <row r="24" spans="1:31" ht="18" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -4987,7 +4989,7 @@
     </row>
     <row r="25" spans="1:31" ht="18" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22">
@@ -5024,7 +5026,7 @@
     </row>
     <row r="26" spans="1:31" ht="18" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -5061,7 +5063,7 @@
     </row>
     <row r="27" spans="1:31" ht="18" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -5100,7 +5102,7 @@
     </row>
     <row r="28" spans="1:31" ht="18" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22">
@@ -5137,7 +5139,7 @@
     </row>
     <row r="29" spans="1:31" ht="18" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -5174,7 +5176,7 @@
     </row>
     <row r="30" spans="1:31" ht="18" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -5213,7 +5215,7 @@
     </row>
     <row r="31" spans="1:31" ht="18" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B31" s="22">
         <v>1</v>
@@ -5250,7 +5252,7 @@
     </row>
     <row r="32" spans="1:31" ht="18" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -5287,7 +5289,7 @@
     </row>
     <row r="33" spans="1:31" ht="18" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -5326,7 +5328,7 @@
     </row>
     <row r="34" spans="1:31" ht="18" customHeight="1">
       <c r="A34" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B34" s="22">
         <v>1</v>
@@ -5422,154 +5424,154 @@
       <c r="W1" s="7"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="93" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="94"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="109" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="88" t="s">
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="110" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="89" t="s">
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="113" t="s">
         <v>274</v>
       </c>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="92" t="s">
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="116" t="s">
         <v>275</v>
       </c>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="95" t="s">
+      <c r="W2" s="117"/>
+      <c r="X2" s="117"/>
+      <c r="Y2" s="117"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="119" t="s">
         <v>276</v>
       </c>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="98" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="99"/>
-      <c r="AG2" s="100"/>
+      <c r="AC2" s="120"/>
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="120"/>
+      <c r="AG2" s="121"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="I3" s="103"/>
       <c r="J3" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>282</v>
-      </c>
       <c r="L3" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O3" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="Q3" s="9" t="s">
-        <v>282</v>
-      </c>
       <c r="R3" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U3" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="V3" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="W3" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="W3" s="15" t="s">
-        <v>282</v>
-      </c>
       <c r="X3" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y3" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Z3" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA3" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB3" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AC3" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="AC3" s="19" t="s">
-        <v>282</v>
-      </c>
       <c r="AD3" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AE3" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF3" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG3" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:33">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="102" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="102" t="s">
         <v>283</v>
-      </c>
-      <c r="B4" s="101" t="s">
-        <v>283</v>
-      </c>
-      <c r="C4" s="101" t="s">
-        <v>284</v>
       </c>
       <c r="D4" s="104">
         <v>1</v>
@@ -5585,31 +5587,31 @@
         <v>20</v>
       </c>
       <c r="I4" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>285</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>286</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="P4" s="13" t="s">
         <v>288</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>289</v>
       </c>
       <c r="Q4" s="13"/>
       <c r="R4" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S4" s="16"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V4" s="17"/>
       <c r="W4" s="17"/>
@@ -5617,60 +5619,60 @@
       <c r="Y4" s="18"/>
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
-      <c r="AB4" s="108">
+      <c r="AB4" s="99">
         <v>40</v>
       </c>
-      <c r="AC4" s="108">
+      <c r="AC4" s="99">
         <v>40</v>
       </c>
-      <c r="AD4" s="108">
+      <c r="AD4" s="99">
         <v>78000</v>
       </c>
-      <c r="AE4" s="108">
+      <c r="AE4" s="99">
         <v>0</v>
       </c>
-      <c r="AF4" s="108">
+      <c r="AF4" s="99">
         <v>3</v>
       </c>
-      <c r="AG4" s="108">
+      <c r="AG4" s="99">
         <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:33">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="105"/>
       <c r="E5" s="105"/>
       <c r="F5" s="4"/>
       <c r="G5" s="105"/>
       <c r="H5" s="105"/>
       <c r="I5" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>286</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>287</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P5" s="13"/>
       <c r="Q5" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="R5" s="16" t="s">
         <v>289</v>
-      </c>
-      <c r="R5" s="16" t="s">
-        <v>290</v>
       </c>
       <c r="S5" s="16"/>
       <c r="T5" s="13"/>
       <c r="U5" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V5" s="17"/>
       <c r="W5" s="17"/>
@@ -5678,24 +5680,24 @@
       <c r="Y5" s="18"/>
       <c r="Z5" s="17"/>
       <c r="AA5" s="17"/>
-      <c r="AB5" s="109"/>
-      <c r="AC5" s="109"/>
-      <c r="AD5" s="109"/>
-      <c r="AE5" s="109"/>
-      <c r="AF5" s="109"/>
-      <c r="AG5" s="109"/>
+      <c r="AB5" s="100"/>
+      <c r="AC5" s="100"/>
+      <c r="AD5" s="100"/>
+      <c r="AE5" s="100"/>
+      <c r="AF5" s="100"/>
+      <c r="AG5" s="100"/>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
       <c r="D6" s="106"/>
       <c r="E6" s="106"/>
       <c r="F6" s="5"/>
       <c r="G6" s="106"/>
       <c r="H6" s="106"/>
       <c r="I6" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J6" s="12">
         <v>3</v>
@@ -5731,24 +5733,24 @@
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
-      <c r="AB6" s="110"/>
-      <c r="AC6" s="110"/>
-      <c r="AD6" s="110"/>
-      <c r="AE6" s="110"/>
-      <c r="AF6" s="110"/>
-      <c r="AG6" s="110"/>
+      <c r="AB6" s="101"/>
+      <c r="AC6" s="101"/>
+      <c r="AD6" s="101"/>
+      <c r="AE6" s="101"/>
+      <c r="AF6" s="101"/>
+      <c r="AG6" s="101"/>
     </row>
     <row r="7" spans="1:33">
-      <c r="A7" s="102"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="101" t="s">
-        <v>294</v>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="102" t="s">
+        <v>293</v>
       </c>
       <c r="D7" s="104">
         <v>2</v>
       </c>
       <c r="E7" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="104">
@@ -5758,129 +5760,129 @@
         <v>30</v>
       </c>
       <c r="I7" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>295</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>296</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="P7" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>299</v>
       </c>
       <c r="Q7" s="13"/>
       <c r="R7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="S7" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="T7" s="13"/>
       <c r="U7" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W7" s="17"/>
       <c r="X7" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y7" s="17" t="s">
         <v>303</v>
-      </c>
-      <c r="Y7" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="Z7" s="17"/>
       <c r="AA7" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB7" s="108">
+        <v>304</v>
+      </c>
+      <c r="AB7" s="99">
         <v>140</v>
       </c>
-      <c r="AC7" s="108">
+      <c r="AC7" s="99">
         <v>140</v>
       </c>
-      <c r="AD7" s="108">
+      <c r="AD7" s="99">
         <v>848000</v>
       </c>
-      <c r="AE7" s="108">
+      <c r="AE7" s="99">
         <v>36</v>
       </c>
-      <c r="AF7" s="108">
+      <c r="AF7" s="99">
         <v>8</v>
       </c>
-      <c r="AG7" s="108">
+      <c r="AG7" s="99">
         <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:33">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="105"/>
       <c r="E8" s="105"/>
       <c r="F8" s="4"/>
       <c r="G8" s="105"/>
       <c r="H8" s="105"/>
       <c r="I8" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>296</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>297</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="R8" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="S8" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="T8" s="13"/>
       <c r="U8" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V8" s="17"/>
       <c r="W8" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="X8" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="X8" s="17" t="s">
+      <c r="Y8" s="17" t="s">
         <v>303</v>
-      </c>
-      <c r="Y8" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="Z8" s="17"/>
       <c r="AA8" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB8" s="109"/>
-      <c r="AC8" s="109"/>
-      <c r="AD8" s="109"/>
-      <c r="AE8" s="109"/>
-      <c r="AF8" s="109"/>
-      <c r="AG8" s="109"/>
+        <v>304</v>
+      </c>
+      <c r="AB8" s="100"/>
+      <c r="AC8" s="100"/>
+      <c r="AD8" s="100"/>
+      <c r="AE8" s="100"/>
+      <c r="AF8" s="100"/>
+      <c r="AG8" s="100"/>
     </row>
     <row r="9" spans="1:33">
-      <c r="A9" s="102"/>
-      <c r="B9" s="102"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="103"/>
       <c r="D9" s="106"/>
       <c r="E9" s="106"/>
@@ -5888,7 +5890,7 @@
       <c r="G9" s="106"/>
       <c r="H9" s="106"/>
       <c r="I9" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J9" s="12">
         <v>6</v>
@@ -5932,24 +5934,24 @@
       <c r="AA9" s="17">
         <v>42</v>
       </c>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
-      <c r="AF9" s="110"/>
-      <c r="AG9" s="110"/>
+      <c r="AB9" s="101"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="101"/>
+      <c r="AF9" s="101"/>
+      <c r="AG9" s="101"/>
     </row>
     <row r="10" spans="1:33">
-      <c r="A10" s="102"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="101" t="s">
-        <v>307</v>
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="102" t="s">
+        <v>306</v>
       </c>
       <c r="D10" s="104">
         <v>4</v>
       </c>
       <c r="E10" s="104" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F10" s="104">
         <v>30</v>
@@ -5961,141 +5963,141 @@
         <v>48</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="P10" s="13" t="s">
         <v>311</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>312</v>
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="S10" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="S10" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="T10" s="13"/>
       <c r="U10" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="V10" s="17" t="s">
         <v>315</v>
-      </c>
-      <c r="V10" s="17" t="s">
-        <v>316</v>
       </c>
       <c r="W10" s="17"/>
       <c r="X10" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y10" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z10" s="17"/>
       <c r="AA10" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB10" s="108">
+        <v>317</v>
+      </c>
+      <c r="AB10" s="99">
         <v>495</v>
       </c>
-      <c r="AC10" s="108">
+      <c r="AC10" s="99">
         <v>495</v>
       </c>
-      <c r="AD10" s="108">
+      <c r="AD10" s="99">
         <v>8630000</v>
       </c>
-      <c r="AE10" s="108">
+      <c r="AE10" s="99">
         <v>348</v>
       </c>
-      <c r="AF10" s="108">
+      <c r="AF10" s="99">
         <v>16</v>
       </c>
-      <c r="AG10" s="108">
+      <c r="AG10" s="99">
         <v>810</v>
       </c>
     </row>
     <row r="11" spans="1:33">
-      <c r="A11" s="102"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="105"/>
       <c r="E11" s="105"/>
       <c r="F11" s="105"/>
       <c r="G11" s="105"/>
       <c r="H11" s="105"/>
       <c r="I11" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>310</v>
-      </c>
       <c r="M11" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P11" s="13"/>
       <c r="Q11" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="R11" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="S11" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="T11" s="13"/>
       <c r="U11" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V11" s="17"/>
       <c r="W11" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="X11" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="X11" s="17" t="s">
-        <v>317</v>
-      </c>
       <c r="Y11" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z11" s="17"/>
       <c r="AA11" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB11" s="109"/>
-      <c r="AC11" s="109"/>
-      <c r="AD11" s="109"/>
-      <c r="AE11" s="109"/>
-      <c r="AF11" s="109"/>
-      <c r="AG11" s="109"/>
+        <v>317</v>
+      </c>
+      <c r="AB11" s="100"/>
+      <c r="AC11" s="100"/>
+      <c r="AD11" s="100"/>
+      <c r="AE11" s="100"/>
+      <c r="AF11" s="100"/>
+      <c r="AG11" s="100"/>
     </row>
     <row r="12" spans="1:33">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="105"/>
       <c r="E12" s="105"/>
       <c r="F12" s="105"/>
       <c r="G12" s="105"/>
       <c r="H12" s="105"/>
       <c r="I12" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J12" s="12">
         <v>20</v>
@@ -6139,24 +6141,24 @@
       <c r="AA12" s="17">
         <v>80</v>
       </c>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="110"/>
-      <c r="AD12" s="110"/>
-      <c r="AE12" s="110"/>
-      <c r="AF12" s="110"/>
-      <c r="AG12" s="110"/>
+      <c r="AB12" s="101"/>
+      <c r="AC12" s="101"/>
+      <c r="AD12" s="101"/>
+      <c r="AE12" s="101"/>
+      <c r="AF12" s="101"/>
+      <c r="AG12" s="101"/>
     </row>
     <row r="13" spans="1:33">
-      <c r="A13" s="102"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="101" t="s">
-        <v>319</v>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="102" t="s">
+        <v>318</v>
       </c>
       <c r="D13" s="104">
         <v>2</v>
       </c>
       <c r="E13" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="104">
@@ -6166,129 +6168,129 @@
         <v>30</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="P13" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>299</v>
       </c>
       <c r="Q13" s="13"/>
       <c r="R13" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="S13" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="S13" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="T13" s="13"/>
       <c r="U13" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W13" s="17"/>
       <c r="X13" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y13" s="17" t="s">
         <v>303</v>
-      </c>
-      <c r="Y13" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="Z13" s="17"/>
       <c r="AA13" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB13" s="108">
+        <v>304</v>
+      </c>
+      <c r="AB13" s="99">
         <v>140</v>
       </c>
-      <c r="AC13" s="108">
+      <c r="AC13" s="99">
         <v>140</v>
       </c>
-      <c r="AD13" s="108">
+      <c r="AD13" s="99">
         <v>848000</v>
       </c>
-      <c r="AE13" s="108">
+      <c r="AE13" s="99">
         <v>36</v>
       </c>
-      <c r="AF13" s="108">
+      <c r="AF13" s="99">
         <v>8</v>
       </c>
-      <c r="AG13" s="108">
+      <c r="AG13" s="99">
         <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:33">
-      <c r="A14" s="102"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
       <c r="D14" s="105"/>
       <c r="E14" s="105"/>
       <c r="F14" s="4"/>
       <c r="G14" s="105"/>
       <c r="H14" s="105"/>
       <c r="I14" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>296</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>297</v>
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P14" s="13"/>
       <c r="Q14" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="R14" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="R14" s="13" t="s">
+      <c r="S14" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="S14" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="T14" s="13"/>
       <c r="U14" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V14" s="17"/>
       <c r="W14" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="X14" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="X14" s="17" t="s">
+      <c r="Y14" s="17" t="s">
         <v>303</v>
-      </c>
-      <c r="Y14" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="Z14" s="17"/>
       <c r="AA14" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB14" s="109"/>
-      <c r="AC14" s="109"/>
-      <c r="AD14" s="109"/>
-      <c r="AE14" s="109"/>
-      <c r="AF14" s="109"/>
-      <c r="AG14" s="109"/>
+        <v>304</v>
+      </c>
+      <c r="AB14" s="100"/>
+      <c r="AC14" s="100"/>
+      <c r="AD14" s="100"/>
+      <c r="AE14" s="100"/>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="100"/>
     </row>
     <row r="15" spans="1:33">
-      <c r="A15" s="102"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="103"/>
       <c r="D15" s="106"/>
       <c r="E15" s="106"/>
@@ -6296,7 +6298,7 @@
       <c r="G15" s="106"/>
       <c r="H15" s="106"/>
       <c r="I15" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J15" s="12">
         <v>6</v>
@@ -6340,24 +6342,24 @@
       <c r="AA15" s="17">
         <v>42</v>
       </c>
-      <c r="AB15" s="110"/>
-      <c r="AC15" s="110"/>
-      <c r="AD15" s="110"/>
-      <c r="AE15" s="110"/>
-      <c r="AF15" s="110"/>
-      <c r="AG15" s="110"/>
+      <c r="AB15" s="101"/>
+      <c r="AC15" s="101"/>
+      <c r="AD15" s="101"/>
+      <c r="AE15" s="101"/>
+      <c r="AF15" s="101"/>
+      <c r="AG15" s="101"/>
     </row>
     <row r="16" spans="1:33">
-      <c r="A16" s="102"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="101" t="s">
-        <v>321</v>
+      <c r="A16" s="108"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="102" t="s">
+        <v>320</v>
       </c>
       <c r="D16" s="104">
         <v>4</v>
       </c>
       <c r="E16" s="104" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F16" s="104">
         <v>30</v>
@@ -6369,141 +6371,141 @@
         <v>48</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="P16" s="13" t="s">
         <v>311</v>
-      </c>
-      <c r="P16" s="13" t="s">
-        <v>312</v>
       </c>
       <c r="Q16" s="13"/>
       <c r="R16" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="S16" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="S16" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="T16" s="13"/>
       <c r="U16" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="V16" s="17" t="s">
         <v>315</v>
-      </c>
-      <c r="V16" s="17" t="s">
-        <v>316</v>
       </c>
       <c r="W16" s="17"/>
       <c r="X16" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y16" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z16" s="17"/>
       <c r="AA16" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB16" s="108">
+        <v>317</v>
+      </c>
+      <c r="AB16" s="99">
         <v>495</v>
       </c>
-      <c r="AC16" s="108">
+      <c r="AC16" s="99">
         <v>495</v>
       </c>
-      <c r="AD16" s="108">
+      <c r="AD16" s="99">
         <v>8630000</v>
       </c>
-      <c r="AE16" s="108">
+      <c r="AE16" s="99">
         <v>348</v>
       </c>
-      <c r="AF16" s="108">
+      <c r="AF16" s="99">
         <v>16</v>
       </c>
-      <c r="AG16" s="108">
+      <c r="AG16" s="99">
         <v>810</v>
       </c>
     </row>
     <row r="17" spans="1:33">
-      <c r="A17" s="102"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="105"/>
       <c r="E17" s="105"/>
       <c r="F17" s="105"/>
       <c r="G17" s="105"/>
       <c r="H17" s="105"/>
       <c r="I17" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="L17" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="L17" s="12" t="s">
-        <v>310</v>
-      </c>
       <c r="M17" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P17" s="13"/>
       <c r="Q17" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="R17" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="R17" s="13" t="s">
+      <c r="S17" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="T17" s="13"/>
       <c r="U17" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V17" s="17"/>
       <c r="W17" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="X17" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="X17" s="17" t="s">
-        <v>317</v>
-      </c>
       <c r="Y17" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z17" s="17"/>
       <c r="AA17" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB17" s="109"/>
-      <c r="AC17" s="109"/>
-      <c r="AD17" s="109"/>
-      <c r="AE17" s="109"/>
-      <c r="AF17" s="109"/>
-      <c r="AG17" s="109"/>
+        <v>317</v>
+      </c>
+      <c r="AB17" s="100"/>
+      <c r="AC17" s="100"/>
+      <c r="AD17" s="100"/>
+      <c r="AE17" s="100"/>
+      <c r="AF17" s="100"/>
+      <c r="AG17" s="100"/>
     </row>
     <row r="18" spans="1:33">
-      <c r="A18" s="102"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
       <c r="D18" s="105"/>
       <c r="E18" s="105"/>
       <c r="F18" s="105"/>
       <c r="G18" s="105"/>
       <c r="H18" s="105"/>
       <c r="I18" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J18" s="12">
         <v>20</v>
@@ -6547,26 +6549,26 @@
       <c r="AA18" s="17">
         <v>80</v>
       </c>
-      <c r="AB18" s="110"/>
-      <c r="AC18" s="110"/>
-      <c r="AD18" s="110"/>
-      <c r="AE18" s="110"/>
-      <c r="AF18" s="110"/>
-      <c r="AG18" s="110"/>
+      <c r="AB18" s="101"/>
+      <c r="AC18" s="101"/>
+      <c r="AD18" s="101"/>
+      <c r="AE18" s="101"/>
+      <c r="AF18" s="101"/>
+      <c r="AG18" s="101"/>
     </row>
     <row r="19" spans="1:33">
-      <c r="A19" s="102"/>
-      <c r="B19" s="101" t="s">
+      <c r="A19" s="108"/>
+      <c r="B19" s="102" t="s">
+        <v>322</v>
+      </c>
+      <c r="C19" s="102" t="s">
         <v>323</v>
-      </c>
-      <c r="C19" s="101" t="s">
-        <v>324</v>
       </c>
       <c r="D19" s="104">
         <v>1</v>
       </c>
       <c r="E19" s="104" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F19" s="104"/>
       <c r="G19" s="104">
@@ -6576,31 +6578,31 @@
         <v>20</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="P19" s="13" t="s">
         <v>288</v>
-      </c>
-      <c r="P19" s="13" t="s">
-        <v>289</v>
       </c>
       <c r="Q19" s="13"/>
       <c r="R19" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S19" s="16"/>
       <c r="T19" s="13"/>
       <c r="U19" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
@@ -6608,60 +6610,60 @@
       <c r="Y19" s="18"/>
       <c r="Z19" s="17"/>
       <c r="AA19" s="17"/>
-      <c r="AB19" s="108">
+      <c r="AB19" s="99">
         <v>40</v>
       </c>
-      <c r="AC19" s="108">
+      <c r="AC19" s="99">
         <v>40</v>
       </c>
-      <c r="AD19" s="108">
+      <c r="AD19" s="99">
         <v>88000</v>
       </c>
-      <c r="AE19" s="108">
+      <c r="AE19" s="99">
         <v>0</v>
       </c>
-      <c r="AF19" s="108">
+      <c r="AF19" s="99">
         <v>3</v>
       </c>
-      <c r="AG19" s="108">
+      <c r="AG19" s="99">
         <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:33">
-      <c r="A20" s="102"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="105"/>
       <c r="E20" s="105"/>
       <c r="F20" s="105"/>
       <c r="G20" s="105"/>
       <c r="H20" s="105"/>
       <c r="I20" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>286</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>287</v>
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P20" s="13"/>
       <c r="Q20" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="R20" s="16" t="s">
         <v>289</v>
-      </c>
-      <c r="R20" s="16" t="s">
-        <v>290</v>
       </c>
       <c r="S20" s="16"/>
       <c r="T20" s="13"/>
       <c r="U20" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
@@ -6669,16 +6671,16 @@
       <c r="Y20" s="18"/>
       <c r="Z20" s="17"/>
       <c r="AA20" s="17"/>
-      <c r="AB20" s="109"/>
-      <c r="AC20" s="109"/>
-      <c r="AD20" s="109"/>
-      <c r="AE20" s="109"/>
-      <c r="AF20" s="109"/>
-      <c r="AG20" s="109"/>
+      <c r="AB20" s="100"/>
+      <c r="AC20" s="100"/>
+      <c r="AD20" s="100"/>
+      <c r="AE20" s="100"/>
+      <c r="AF20" s="100"/>
+      <c r="AG20" s="100"/>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="102"/>
-      <c r="B21" s="102"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="103"/>
       <c r="D21" s="106"/>
       <c r="E21" s="106"/>
@@ -6686,7 +6688,7 @@
       <c r="G21" s="106"/>
       <c r="H21" s="106"/>
       <c r="I21" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J21" s="12">
         <v>3</v>
@@ -6722,24 +6724,24 @@
       <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
       <c r="AA21" s="17"/>
-      <c r="AB21" s="110"/>
-      <c r="AC21" s="110"/>
-      <c r="AD21" s="110"/>
-      <c r="AE21" s="110"/>
-      <c r="AF21" s="110"/>
-      <c r="AG21" s="110"/>
+      <c r="AB21" s="101"/>
+      <c r="AC21" s="101"/>
+      <c r="AD21" s="101"/>
+      <c r="AE21" s="101"/>
+      <c r="AF21" s="101"/>
+      <c r="AG21" s="101"/>
     </row>
     <row r="22" spans="1:33">
-      <c r="A22" s="102"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="101" t="s">
-        <v>328</v>
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="102" t="s">
+        <v>327</v>
       </c>
       <c r="D22" s="104">
         <v>2</v>
       </c>
       <c r="E22" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F22" s="104"/>
       <c r="G22" s="104">
@@ -6749,129 +6751,129 @@
         <v>30</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="P22" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="P22" s="13" t="s">
-        <v>299</v>
       </c>
       <c r="Q22" s="13"/>
       <c r="R22" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="S22" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="S22" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="T22" s="13"/>
       <c r="U22" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W22" s="17"/>
       <c r="X22" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y22" s="17" t="s">
         <v>303</v>
-      </c>
-      <c r="Y22" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="Z22" s="17"/>
       <c r="AA22" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB22" s="108">
+        <v>304</v>
+      </c>
+      <c r="AB22" s="99">
         <v>140</v>
       </c>
-      <c r="AC22" s="108">
+      <c r="AC22" s="99">
         <v>140</v>
       </c>
-      <c r="AD22" s="108">
+      <c r="AD22" s="99">
         <v>848000</v>
       </c>
-      <c r="AE22" s="108">
+      <c r="AE22" s="99">
         <v>36</v>
       </c>
-      <c r="AF22" s="108">
+      <c r="AF22" s="99">
         <v>8</v>
       </c>
-      <c r="AG22" s="108">
+      <c r="AG22" s="99">
         <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="102"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="105"/>
       <c r="E23" s="105"/>
       <c r="F23" s="105"/>
       <c r="G23" s="105"/>
       <c r="H23" s="105"/>
       <c r="I23" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="L23" s="12" t="s">
         <v>296</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>297</v>
       </c>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P23" s="13"/>
       <c r="Q23" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="R23" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="R23" s="13" t="s">
+      <c r="S23" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="S23" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="T23" s="13"/>
       <c r="U23" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V23" s="17"/>
       <c r="W23" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="X23" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="X23" s="17" t="s">
+      <c r="Y23" s="17" t="s">
         <v>303</v>
-      </c>
-      <c r="Y23" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="Z23" s="17"/>
       <c r="AA23" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB23" s="109"/>
-      <c r="AC23" s="109"/>
-      <c r="AD23" s="109"/>
-      <c r="AE23" s="109"/>
-      <c r="AF23" s="109"/>
-      <c r="AG23" s="109"/>
+        <v>304</v>
+      </c>
+      <c r="AB23" s="100"/>
+      <c r="AC23" s="100"/>
+      <c r="AD23" s="100"/>
+      <c r="AE23" s="100"/>
+      <c r="AF23" s="100"/>
+      <c r="AG23" s="100"/>
     </row>
     <row r="24" spans="1:33">
-      <c r="A24" s="102"/>
-      <c r="B24" s="102"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="103"/>
       <c r="D24" s="106"/>
       <c r="E24" s="106"/>
@@ -6879,7 +6881,7 @@
       <c r="G24" s="106"/>
       <c r="H24" s="106"/>
       <c r="I24" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J24" s="12">
         <v>6</v>
@@ -6923,24 +6925,24 @@
       <c r="AA24" s="17">
         <v>42</v>
       </c>
-      <c r="AB24" s="110"/>
-      <c r="AC24" s="110"/>
-      <c r="AD24" s="110"/>
-      <c r="AE24" s="110"/>
-      <c r="AF24" s="110"/>
-      <c r="AG24" s="110"/>
+      <c r="AB24" s="101"/>
+      <c r="AC24" s="101"/>
+      <c r="AD24" s="101"/>
+      <c r="AE24" s="101"/>
+      <c r="AF24" s="101"/>
+      <c r="AG24" s="101"/>
     </row>
     <row r="25" spans="1:33">
-      <c r="A25" s="102"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="101" t="s">
-        <v>329</v>
+      <c r="A25" s="108"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="102" t="s">
+        <v>328</v>
       </c>
       <c r="D25" s="104">
         <v>4</v>
       </c>
       <c r="E25" s="104" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F25" s="104">
         <v>30</v>
@@ -6952,133 +6954,133 @@
         <v>48</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K25" s="12"/>
       <c r="L25" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N25" s="12"/>
       <c r="O25" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="P25" s="13" t="s">
         <v>311</v>
-      </c>
-      <c r="P25" s="13" t="s">
-        <v>312</v>
       </c>
       <c r="Q25" s="13"/>
       <c r="R25" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="S25" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="S25" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="T25" s="13"/>
       <c r="U25" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="V25" s="17" t="s">
         <v>315</v>
-      </c>
-      <c r="V25" s="17" t="s">
-        <v>316</v>
       </c>
       <c r="W25" s="17"/>
       <c r="X25" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y25" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z25" s="17"/>
       <c r="AA25" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB25" s="108">
+        <v>317</v>
+      </c>
+      <c r="AB25" s="99">
         <v>495</v>
       </c>
-      <c r="AC25" s="108">
+      <c r="AC25" s="99">
         <v>495</v>
       </c>
-      <c r="AD25" s="108">
+      <c r="AD25" s="99">
         <v>8630000</v>
       </c>
-      <c r="AE25" s="108">
+      <c r="AE25" s="99">
         <v>348</v>
       </c>
-      <c r="AF25" s="108">
+      <c r="AF25" s="99">
         <v>16</v>
       </c>
-      <c r="AG25" s="108">
+      <c r="AG25" s="99">
         <v>810</v>
       </c>
     </row>
     <row r="26" spans="1:33">
-      <c r="A26" s="102"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="105"/>
       <c r="E26" s="105"/>
       <c r="F26" s="105"/>
       <c r="G26" s="105"/>
       <c r="H26" s="105"/>
       <c r="I26" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="L26" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="L26" s="12" t="s">
-        <v>310</v>
-      </c>
       <c r="M26" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N26" s="12"/>
       <c r="O26" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="R26" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="R26" s="13" t="s">
+      <c r="S26" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="S26" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="T26" s="13"/>
       <c r="U26" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V26" s="17"/>
       <c r="W26" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="X26" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="X26" s="17" t="s">
-        <v>317</v>
-      </c>
       <c r="Y26" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z26" s="17"/>
       <c r="AA26" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB26" s="109"/>
-      <c r="AC26" s="109"/>
-      <c r="AD26" s="109"/>
-      <c r="AE26" s="109"/>
-      <c r="AF26" s="109"/>
-      <c r="AG26" s="109"/>
+        <v>317</v>
+      </c>
+      <c r="AB26" s="100"/>
+      <c r="AC26" s="100"/>
+      <c r="AD26" s="100"/>
+      <c r="AE26" s="100"/>
+      <c r="AF26" s="100"/>
+      <c r="AG26" s="100"/>
     </row>
     <row r="27" spans="1:33">
-      <c r="A27" s="102"/>
-      <c r="B27" s="102"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="108"/>
       <c r="C27" s="103"/>
       <c r="D27" s="105"/>
       <c r="E27" s="105"/>
@@ -7086,7 +7088,7 @@
       <c r="G27" s="105"/>
       <c r="H27" s="105"/>
       <c r="I27" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J27" s="12">
         <v>20</v>
@@ -7130,24 +7132,24 @@
       <c r="AA27" s="17">
         <v>80</v>
       </c>
-      <c r="AB27" s="110"/>
-      <c r="AC27" s="110"/>
-      <c r="AD27" s="110"/>
-      <c r="AE27" s="110"/>
-      <c r="AF27" s="110"/>
-      <c r="AG27" s="110"/>
+      <c r="AB27" s="101"/>
+      <c r="AC27" s="101"/>
+      <c r="AD27" s="101"/>
+      <c r="AE27" s="101"/>
+      <c r="AF27" s="101"/>
+      <c r="AG27" s="101"/>
     </row>
     <row r="28" spans="1:33">
-      <c r="A28" s="102"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="101" t="s">
-        <v>330</v>
+      <c r="A28" s="108"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="102" t="s">
+        <v>329</v>
       </c>
       <c r="D28" s="104">
         <v>4</v>
       </c>
       <c r="E28" s="104" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F28" s="104">
         <v>30</v>
@@ -7159,129 +7161,129 @@
         <v>48</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K28" s="12"/>
       <c r="L28" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N28" s="12"/>
       <c r="O28" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="P28" s="13" t="s">
         <v>311</v>
-      </c>
-      <c r="P28" s="13" t="s">
-        <v>312</v>
       </c>
       <c r="Q28" s="13"/>
       <c r="R28" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="S28" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="S28" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="T28" s="13"/>
       <c r="U28" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="V28" s="17" t="s">
         <v>315</v>
-      </c>
-      <c r="V28" s="17" t="s">
-        <v>316</v>
       </c>
       <c r="W28" s="17"/>
       <c r="X28" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y28" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z28" s="17"/>
       <c r="AA28" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB28" s="108">
+        <v>317</v>
+      </c>
+      <c r="AB28" s="99">
         <v>495</v>
       </c>
-      <c r="AC28" s="108">
+      <c r="AC28" s="99">
         <v>495</v>
       </c>
-      <c r="AD28" s="108">
+      <c r="AD28" s="99">
         <v>8630000</v>
       </c>
-      <c r="AE28" s="108">
+      <c r="AE28" s="99">
         <v>348</v>
       </c>
-      <c r="AF28" s="108">
+      <c r="AF28" s="99">
         <v>16</v>
       </c>
-      <c r="AG28" s="108">
+      <c r="AG28" s="99">
         <v>810</v>
       </c>
     </row>
     <row r="29" spans="1:33">
-      <c r="A29" s="102"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
       <c r="D29" s="105"/>
       <c r="E29" s="105"/>
       <c r="F29" s="105"/>
       <c r="G29" s="105"/>
       <c r="H29" s="105"/>
       <c r="I29" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="L29" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="L29" s="12" t="s">
-        <v>310</v>
-      </c>
       <c r="M29" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N29" s="12"/>
       <c r="O29" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P29" s="13"/>
       <c r="Q29" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="R29" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="R29" s="13" t="s">
+      <c r="S29" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="S29" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="T29" s="13"/>
       <c r="U29" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V29" s="17"/>
       <c r="W29" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="X29" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="X29" s="17" t="s">
-        <v>317</v>
-      </c>
       <c r="Y29" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z29" s="17"/>
       <c r="AA29" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB29" s="109"/>
-      <c r="AC29" s="109"/>
-      <c r="AD29" s="109"/>
-      <c r="AE29" s="109"/>
-      <c r="AF29" s="109"/>
-      <c r="AG29" s="109"/>
+        <v>317</v>
+      </c>
+      <c r="AB29" s="100"/>
+      <c r="AC29" s="100"/>
+      <c r="AD29" s="100"/>
+      <c r="AE29" s="100"/>
+      <c r="AF29" s="100"/>
+      <c r="AG29" s="100"/>
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="103"/>
@@ -7293,7 +7295,7 @@
       <c r="G30" s="105"/>
       <c r="H30" s="105"/>
       <c r="I30" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J30" s="12">
         <v>20</v>
@@ -7337,28 +7339,28 @@
       <c r="AA30" s="17">
         <v>80</v>
       </c>
-      <c r="AB30" s="110"/>
-      <c r="AC30" s="110"/>
-      <c r="AD30" s="110"/>
-      <c r="AE30" s="110"/>
-      <c r="AF30" s="110"/>
-      <c r="AG30" s="110"/>
+      <c r="AB30" s="101"/>
+      <c r="AC30" s="101"/>
+      <c r="AD30" s="101"/>
+      <c r="AE30" s="101"/>
+      <c r="AF30" s="101"/>
+      <c r="AG30" s="101"/>
     </row>
     <row r="31" spans="1:33">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="102" t="s">
+        <v>330</v>
+      </c>
+      <c r="B31" s="102" t="s">
         <v>331</v>
       </c>
-      <c r="B31" s="101" t="s">
+      <c r="C31" s="102" t="s">
         <v>332</v>
-      </c>
-      <c r="C31" s="101" t="s">
-        <v>333</v>
       </c>
       <c r="D31" s="104">
         <v>1</v>
       </c>
       <c r="E31" s="104" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F31" s="104"/>
       <c r="G31" s="104">
@@ -7368,31 +7370,31 @@
         <v>20</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="P31" s="13" t="s">
         <v>288</v>
-      </c>
-      <c r="P31" s="13" t="s">
-        <v>289</v>
       </c>
       <c r="Q31" s="13"/>
       <c r="R31" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S31" s="16"/>
       <c r="T31" s="13"/>
       <c r="U31" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V31" s="17"/>
       <c r="W31" s="17"/>
@@ -7400,60 +7402,60 @@
       <c r="Y31" s="18"/>
       <c r="Z31" s="17"/>
       <c r="AA31" s="17"/>
-      <c r="AB31" s="108">
+      <c r="AB31" s="99">
         <v>40</v>
       </c>
-      <c r="AC31" s="108">
+      <c r="AC31" s="99">
         <v>40</v>
       </c>
-      <c r="AD31" s="108">
+      <c r="AD31" s="99">
         <v>88000</v>
       </c>
-      <c r="AE31" s="108">
+      <c r="AE31" s="99">
         <v>0</v>
       </c>
-      <c r="AF31" s="108">
+      <c r="AF31" s="99">
         <v>3</v>
       </c>
-      <c r="AG31" s="108">
+      <c r="AG31" s="99">
         <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:33">
-      <c r="A32" s="102"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
       <c r="D32" s="105"/>
       <c r="E32" s="105"/>
       <c r="F32" s="105"/>
       <c r="G32" s="105"/>
       <c r="H32" s="105"/>
       <c r="I32" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="L32" s="12" t="s">
         <v>286</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>287</v>
       </c>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
       <c r="O32" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P32" s="13"/>
       <c r="Q32" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="R32" s="16" t="s">
         <v>289</v>
-      </c>
-      <c r="R32" s="16" t="s">
-        <v>290</v>
       </c>
       <c r="S32" s="16"/>
       <c r="T32" s="13"/>
       <c r="U32" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V32" s="17"/>
       <c r="W32" s="17"/>
@@ -7461,16 +7463,16 @@
       <c r="Y32" s="18"/>
       <c r="Z32" s="17"/>
       <c r="AA32" s="17"/>
-      <c r="AB32" s="109"/>
-      <c r="AC32" s="109"/>
-      <c r="AD32" s="109"/>
-      <c r="AE32" s="109"/>
-      <c r="AF32" s="109"/>
-      <c r="AG32" s="109"/>
+      <c r="AB32" s="100"/>
+      <c r="AC32" s="100"/>
+      <c r="AD32" s="100"/>
+      <c r="AE32" s="100"/>
+      <c r="AF32" s="100"/>
+      <c r="AG32" s="100"/>
     </row>
     <row r="33" spans="1:33">
-      <c r="A33" s="102"/>
-      <c r="B33" s="102"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="108"/>
       <c r="C33" s="103"/>
       <c r="D33" s="106"/>
       <c r="E33" s="106"/>
@@ -7478,7 +7480,7 @@
       <c r="G33" s="106"/>
       <c r="H33" s="106"/>
       <c r="I33" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J33" s="12">
         <v>3</v>
@@ -7514,24 +7516,24 @@
       <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
       <c r="AA33" s="17"/>
-      <c r="AB33" s="110"/>
-      <c r="AC33" s="110"/>
-      <c r="AD33" s="110"/>
-      <c r="AE33" s="110"/>
-      <c r="AF33" s="110"/>
-      <c r="AG33" s="110"/>
+      <c r="AB33" s="101"/>
+      <c r="AC33" s="101"/>
+      <c r="AD33" s="101"/>
+      <c r="AE33" s="101"/>
+      <c r="AF33" s="101"/>
+      <c r="AG33" s="101"/>
     </row>
     <row r="34" spans="1:33">
-      <c r="A34" s="102"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="101" t="s">
-        <v>335</v>
+      <c r="A34" s="108"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="102" t="s">
+        <v>334</v>
       </c>
       <c r="D34" s="104">
         <v>2</v>
       </c>
       <c r="E34" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="104">
@@ -7541,129 +7543,129 @@
         <v>30</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K34" s="12"/>
       <c r="L34" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="P34" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="P34" s="13" t="s">
-        <v>299</v>
       </c>
       <c r="Q34" s="13"/>
       <c r="R34" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="S34" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="S34" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="T34" s="13"/>
       <c r="U34" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V34" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W34" s="17"/>
       <c r="X34" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y34" s="17" t="s">
         <v>303</v>
-      </c>
-      <c r="Y34" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="Z34" s="17"/>
       <c r="AA34" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB34" s="108">
+        <v>304</v>
+      </c>
+      <c r="AB34" s="99">
         <v>140</v>
       </c>
-      <c r="AC34" s="108">
+      <c r="AC34" s="99">
         <v>140</v>
       </c>
-      <c r="AD34" s="108">
+      <c r="AD34" s="99">
         <v>848000</v>
       </c>
-      <c r="AE34" s="108">
+      <c r="AE34" s="99">
         <v>36</v>
       </c>
-      <c r="AF34" s="108">
+      <c r="AF34" s="99">
         <v>8</v>
       </c>
-      <c r="AG34" s="108">
+      <c r="AG34" s="99">
         <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:33">
-      <c r="A35" s="102"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="102"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
       <c r="D35" s="105"/>
       <c r="E35" s="105"/>
       <c r="F35" s="4"/>
       <c r="G35" s="105"/>
       <c r="H35" s="105"/>
       <c r="I35" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J35" s="12"/>
       <c r="K35" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="L35" s="12" t="s">
         <v>296</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>297</v>
       </c>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P35" s="13"/>
       <c r="Q35" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="R35" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="R35" s="13" t="s">
+      <c r="S35" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="S35" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="T35" s="13"/>
       <c r="U35" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V35" s="17"/>
       <c r="W35" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="X35" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="X35" s="17" t="s">
+      <c r="Y35" s="17" t="s">
         <v>303</v>
-      </c>
-      <c r="Y35" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="Z35" s="17"/>
       <c r="AA35" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB35" s="109"/>
-      <c r="AC35" s="109"/>
-      <c r="AD35" s="109"/>
-      <c r="AE35" s="109"/>
-      <c r="AF35" s="109"/>
-      <c r="AG35" s="109"/>
+        <v>304</v>
+      </c>
+      <c r="AB35" s="100"/>
+      <c r="AC35" s="100"/>
+      <c r="AD35" s="100"/>
+      <c r="AE35" s="100"/>
+      <c r="AF35" s="100"/>
+      <c r="AG35" s="100"/>
     </row>
     <row r="36" spans="1:33">
-      <c r="A36" s="102"/>
-      <c r="B36" s="102"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="108"/>
       <c r="C36" s="103"/>
       <c r="D36" s="106"/>
       <c r="E36" s="106"/>
@@ -7671,7 +7673,7 @@
       <c r="G36" s="106"/>
       <c r="H36" s="106"/>
       <c r="I36" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J36" s="12">
         <v>6</v>
@@ -7715,24 +7717,24 @@
       <c r="AA36" s="17">
         <v>42</v>
       </c>
-      <c r="AB36" s="110"/>
-      <c r="AC36" s="110"/>
-      <c r="AD36" s="110"/>
-      <c r="AE36" s="110"/>
-      <c r="AF36" s="110"/>
-      <c r="AG36" s="110"/>
+      <c r="AB36" s="101"/>
+      <c r="AC36" s="101"/>
+      <c r="AD36" s="101"/>
+      <c r="AE36" s="101"/>
+      <c r="AF36" s="101"/>
+      <c r="AG36" s="101"/>
     </row>
     <row r="37" spans="1:33">
-      <c r="A37" s="102"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="101" t="s">
-        <v>336</v>
+      <c r="A37" s="108"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="102" t="s">
+        <v>335</v>
       </c>
       <c r="D37" s="104">
         <v>4</v>
       </c>
       <c r="E37" s="104" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F37" s="104">
         <v>30</v>
@@ -7744,133 +7746,133 @@
         <v>48</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K37" s="12"/>
       <c r="L37" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="P37" s="13" t="s">
         <v>311</v>
-      </c>
-      <c r="P37" s="13" t="s">
-        <v>312</v>
       </c>
       <c r="Q37" s="13"/>
       <c r="R37" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="S37" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="S37" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="T37" s="13"/>
       <c r="U37" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="V37" s="17" t="s">
         <v>315</v>
-      </c>
-      <c r="V37" s="17" t="s">
-        <v>316</v>
       </c>
       <c r="W37" s="17"/>
       <c r="X37" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y37" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z37" s="17"/>
       <c r="AA37" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB37" s="108">
+        <v>317</v>
+      </c>
+      <c r="AB37" s="99">
         <v>495</v>
       </c>
-      <c r="AC37" s="108">
+      <c r="AC37" s="99">
         <v>495</v>
       </c>
-      <c r="AD37" s="108">
+      <c r="AD37" s="99">
         <v>8630000</v>
       </c>
-      <c r="AE37" s="108">
+      <c r="AE37" s="99">
         <v>348</v>
       </c>
-      <c r="AF37" s="108">
+      <c r="AF37" s="99">
         <v>16</v>
       </c>
-      <c r="AG37" s="108">
+      <c r="AG37" s="99">
         <v>810</v>
       </c>
     </row>
     <row r="38" spans="1:33">
-      <c r="A38" s="102"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="102"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
       <c r="D38" s="105"/>
       <c r="E38" s="105"/>
       <c r="F38" s="105"/>
       <c r="G38" s="105"/>
       <c r="H38" s="105"/>
       <c r="I38" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J38" s="12"/>
       <c r="K38" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="L38" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="L38" s="12" t="s">
-        <v>310</v>
-      </c>
       <c r="M38" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N38" s="12"/>
       <c r="O38" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P38" s="13"/>
       <c r="Q38" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="R38" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="R38" s="13" t="s">
+      <c r="S38" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="S38" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="T38" s="13"/>
       <c r="U38" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V38" s="17"/>
       <c r="W38" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="X38" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="X38" s="17" t="s">
-        <v>317</v>
-      </c>
       <c r="Y38" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z38" s="17"/>
       <c r="AA38" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB38" s="109"/>
-      <c r="AC38" s="109"/>
-      <c r="AD38" s="109"/>
-      <c r="AE38" s="109"/>
-      <c r="AF38" s="109"/>
-      <c r="AG38" s="109"/>
+        <v>317</v>
+      </c>
+      <c r="AB38" s="100"/>
+      <c r="AC38" s="100"/>
+      <c r="AD38" s="100"/>
+      <c r="AE38" s="100"/>
+      <c r="AF38" s="100"/>
+      <c r="AG38" s="100"/>
     </row>
     <row r="39" spans="1:33">
-      <c r="A39" s="102"/>
-      <c r="B39" s="102"/>
+      <c r="A39" s="108"/>
+      <c r="B39" s="108"/>
       <c r="C39" s="103"/>
       <c r="D39" s="106"/>
       <c r="E39" s="105"/>
@@ -7878,7 +7880,7 @@
       <c r="G39" s="106"/>
       <c r="H39" s="105"/>
       <c r="I39" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J39" s="12">
         <v>20</v>
@@ -7922,24 +7924,24 @@
       <c r="AA39" s="17">
         <v>80</v>
       </c>
-      <c r="AB39" s="110"/>
-      <c r="AC39" s="110"/>
-      <c r="AD39" s="110"/>
-      <c r="AE39" s="110"/>
-      <c r="AF39" s="110"/>
-      <c r="AG39" s="110"/>
+      <c r="AB39" s="101"/>
+      <c r="AC39" s="101"/>
+      <c r="AD39" s="101"/>
+      <c r="AE39" s="101"/>
+      <c r="AF39" s="101"/>
+      <c r="AG39" s="101"/>
     </row>
     <row r="40" spans="1:33">
-      <c r="A40" s="102"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="101" t="s">
-        <v>337</v>
+      <c r="A40" s="108"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="102" t="s">
+        <v>336</v>
       </c>
       <c r="D40" s="104">
         <v>4</v>
       </c>
       <c r="E40" s="104" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F40" s="104">
         <v>30</v>
@@ -7951,132 +7953,132 @@
         <v>48</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K40" s="12"/>
       <c r="L40" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="P40" s="13" t="s">
         <v>311</v>
-      </c>
-      <c r="P40" s="13" t="s">
-        <v>312</v>
       </c>
       <c r="Q40" s="13"/>
       <c r="R40" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="S40" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="S40" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="T40" s="13"/>
       <c r="U40" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="V40" s="17" t="s">
         <v>315</v>
-      </c>
-      <c r="V40" s="17" t="s">
-        <v>316</v>
       </c>
       <c r="W40" s="17"/>
       <c r="X40" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y40" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z40" s="17"/>
       <c r="AA40" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB40" s="108">
+        <v>317</v>
+      </c>
+      <c r="AB40" s="99">
         <v>495</v>
       </c>
-      <c r="AC40" s="108">
+      <c r="AC40" s="99">
         <v>495</v>
       </c>
-      <c r="AD40" s="108">
+      <c r="AD40" s="99">
         <v>8630000</v>
       </c>
-      <c r="AE40" s="108">
+      <c r="AE40" s="99">
         <v>348</v>
       </c>
-      <c r="AF40" s="108">
+      <c r="AF40" s="99">
         <v>16</v>
       </c>
-      <c r="AG40" s="108">
+      <c r="AG40" s="99">
         <v>810</v>
       </c>
     </row>
     <row r="41" spans="1:33">
-      <c r="A41" s="102"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="102"/>
+      <c r="A41" s="108"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="108"/>
       <c r="D41" s="105"/>
       <c r="E41" s="105"/>
       <c r="F41" s="105"/>
       <c r="G41" s="105"/>
       <c r="H41" s="105"/>
       <c r="I41" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="L41" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="L41" s="12" t="s">
-        <v>310</v>
-      </c>
       <c r="M41" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N41" s="12"/>
       <c r="O41" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P41" s="13"/>
       <c r="Q41" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="R41" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="R41" s="13" t="s">
+      <c r="S41" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="S41" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="T41" s="13"/>
       <c r="U41" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V41" s="17"/>
       <c r="W41" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="X41" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="X41" s="17" t="s">
-        <v>317</v>
-      </c>
       <c r="Y41" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z41" s="17"/>
       <c r="AA41" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB41" s="109"/>
-      <c r="AC41" s="109"/>
-      <c r="AD41" s="109"/>
-      <c r="AE41" s="109"/>
-      <c r="AF41" s="109"/>
-      <c r="AG41" s="109"/>
+        <v>317</v>
+      </c>
+      <c r="AB41" s="100"/>
+      <c r="AC41" s="100"/>
+      <c r="AD41" s="100"/>
+      <c r="AE41" s="100"/>
+      <c r="AF41" s="100"/>
+      <c r="AG41" s="100"/>
     </row>
     <row r="42" spans="1:33">
-      <c r="A42" s="102"/>
+      <c r="A42" s="108"/>
       <c r="B42" s="103"/>
       <c r="C42" s="103"/>
       <c r="D42" s="106"/>
@@ -8085,7 +8087,7 @@
       <c r="G42" s="106"/>
       <c r="H42" s="105"/>
       <c r="I42" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J42" s="12">
         <v>20</v>
@@ -8129,26 +8131,26 @@
       <c r="AA42" s="17">
         <v>80</v>
       </c>
-      <c r="AB42" s="110"/>
-      <c r="AC42" s="110"/>
-      <c r="AD42" s="110"/>
-      <c r="AE42" s="110"/>
-      <c r="AF42" s="110"/>
-      <c r="AG42" s="110"/>
+      <c r="AB42" s="101"/>
+      <c r="AC42" s="101"/>
+      <c r="AD42" s="101"/>
+      <c r="AE42" s="101"/>
+      <c r="AF42" s="101"/>
+      <c r="AG42" s="101"/>
     </row>
     <row r="43" spans="1:33">
-      <c r="A43" s="102"/>
-      <c r="B43" s="101" t="s">
-        <v>331</v>
-      </c>
-      <c r="C43" s="101" t="s">
-        <v>338</v>
+      <c r="A43" s="108"/>
+      <c r="B43" s="102" t="s">
+        <v>330</v>
+      </c>
+      <c r="C43" s="102" t="s">
+        <v>337</v>
       </c>
       <c r="D43" s="104">
         <v>1</v>
       </c>
       <c r="E43" s="104" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F43" s="104"/>
       <c r="G43" s="104">
@@ -8158,31 +8160,31 @@
         <v>20</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K43" s="12"/>
       <c r="L43" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
       <c r="O43" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="P43" s="13" t="s">
         <v>288</v>
-      </c>
-      <c r="P43" s="13" t="s">
-        <v>289</v>
       </c>
       <c r="Q43" s="13"/>
       <c r="R43" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S43" s="16"/>
       <c r="T43" s="13"/>
       <c r="U43" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V43" s="17"/>
       <c r="W43" s="17"/>
@@ -8190,60 +8192,60 @@
       <c r="Y43" s="18"/>
       <c r="Z43" s="17"/>
       <c r="AA43" s="17"/>
-      <c r="AB43" s="108">
+      <c r="AB43" s="99">
         <v>40</v>
       </c>
-      <c r="AC43" s="108">
+      <c r="AC43" s="99">
         <v>40</v>
       </c>
-      <c r="AD43" s="108">
+      <c r="AD43" s="99">
         <v>88000</v>
       </c>
-      <c r="AE43" s="108">
+      <c r="AE43" s="99">
         <v>0</v>
       </c>
-      <c r="AF43" s="108">
+      <c r="AF43" s="99">
         <v>3</v>
       </c>
-      <c r="AG43" s="108">
+      <c r="AG43" s="99">
         <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:33">
-      <c r="A44" s="102"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="102"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
       <c r="D44" s="105"/>
       <c r="E44" s="105"/>
       <c r="F44" s="105"/>
       <c r="G44" s="105"/>
       <c r="H44" s="105"/>
       <c r="I44" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="L44" s="12" t="s">
         <v>286</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>287</v>
       </c>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
       <c r="O44" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P44" s="13"/>
       <c r="Q44" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="R44" s="16" t="s">
         <v>289</v>
-      </c>
-      <c r="R44" s="16" t="s">
-        <v>290</v>
       </c>
       <c r="S44" s="16"/>
       <c r="T44" s="13"/>
       <c r="U44" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V44" s="17"/>
       <c r="W44" s="17"/>
@@ -8251,16 +8253,16 @@
       <c r="Y44" s="18"/>
       <c r="Z44" s="17"/>
       <c r="AA44" s="17"/>
-      <c r="AB44" s="109"/>
-      <c r="AC44" s="109"/>
-      <c r="AD44" s="109"/>
-      <c r="AE44" s="109"/>
-      <c r="AF44" s="109"/>
-      <c r="AG44" s="109"/>
+      <c r="AB44" s="100"/>
+      <c r="AC44" s="100"/>
+      <c r="AD44" s="100"/>
+      <c r="AE44" s="100"/>
+      <c r="AF44" s="100"/>
+      <c r="AG44" s="100"/>
     </row>
     <row r="45" spans="1:33">
-      <c r="A45" s="102"/>
-      <c r="B45" s="102"/>
+      <c r="A45" s="108"/>
+      <c r="B45" s="108"/>
       <c r="C45" s="103"/>
       <c r="D45" s="106"/>
       <c r="E45" s="106"/>
@@ -8268,7 +8270,7 @@
       <c r="G45" s="106"/>
       <c r="H45" s="106"/>
       <c r="I45" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J45" s="12">
         <v>3</v>
@@ -8304,24 +8306,24 @@
       <c r="Y45" s="17"/>
       <c r="Z45" s="17"/>
       <c r="AA45" s="17"/>
-      <c r="AB45" s="110"/>
-      <c r="AC45" s="110"/>
-      <c r="AD45" s="110"/>
-      <c r="AE45" s="110"/>
-      <c r="AF45" s="110"/>
-      <c r="AG45" s="110"/>
+      <c r="AB45" s="101"/>
+      <c r="AC45" s="101"/>
+      <c r="AD45" s="101"/>
+      <c r="AE45" s="101"/>
+      <c r="AF45" s="101"/>
+      <c r="AG45" s="101"/>
     </row>
     <row r="46" spans="1:33">
-      <c r="A46" s="102"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="101" t="s">
-        <v>339</v>
+      <c r="A46" s="108"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="102" t="s">
+        <v>338</v>
       </c>
       <c r="D46" s="104">
         <v>2</v>
       </c>
       <c r="E46" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F46" s="104"/>
       <c r="G46" s="104">
@@ -8331,129 +8333,129 @@
         <v>30</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K46" s="12"/>
       <c r="L46" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
       <c r="O46" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="P46" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="P46" s="13" t="s">
-        <v>299</v>
       </c>
       <c r="Q46" s="13"/>
       <c r="R46" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="S46" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="S46" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="T46" s="13"/>
       <c r="U46" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V46" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W46" s="17"/>
       <c r="X46" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y46" s="17" t="s">
         <v>303</v>
-      </c>
-      <c r="Y46" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="Z46" s="17"/>
       <c r="AA46" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB46" s="108">
+        <v>304</v>
+      </c>
+      <c r="AB46" s="99">
         <v>140</v>
       </c>
-      <c r="AC46" s="108">
+      <c r="AC46" s="99">
         <v>140</v>
       </c>
-      <c r="AD46" s="108">
+      <c r="AD46" s="99">
         <v>848000</v>
       </c>
-      <c r="AE46" s="108">
+      <c r="AE46" s="99">
         <v>36</v>
       </c>
-      <c r="AF46" s="108">
+      <c r="AF46" s="99">
         <v>8</v>
       </c>
-      <c r="AG46" s="108">
+      <c r="AG46" s="99">
         <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:33">
-      <c r="A47" s="102"/>
-      <c r="B47" s="102"/>
-      <c r="C47" s="102"/>
+      <c r="A47" s="108"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="108"/>
       <c r="D47" s="105"/>
       <c r="E47" s="105"/>
       <c r="F47" s="105"/>
       <c r="G47" s="105"/>
       <c r="H47" s="105"/>
       <c r="I47" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J47" s="12"/>
       <c r="K47" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="L47" s="12" t="s">
         <v>296</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>297</v>
       </c>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P47" s="13"/>
       <c r="Q47" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="R47" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="R47" s="13" t="s">
+      <c r="S47" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="S47" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="T47" s="13"/>
       <c r="U47" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V47" s="17"/>
       <c r="W47" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="X47" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="X47" s="17" t="s">
+      <c r="Y47" s="17" t="s">
         <v>303</v>
-      </c>
-      <c r="Y47" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="Z47" s="17"/>
       <c r="AA47" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB47" s="109"/>
-      <c r="AC47" s="109"/>
-      <c r="AD47" s="109"/>
-      <c r="AE47" s="109"/>
-      <c r="AF47" s="109"/>
-      <c r="AG47" s="109"/>
+        <v>304</v>
+      </c>
+      <c r="AB47" s="100"/>
+      <c r="AC47" s="100"/>
+      <c r="AD47" s="100"/>
+      <c r="AE47" s="100"/>
+      <c r="AF47" s="100"/>
+      <c r="AG47" s="100"/>
     </row>
     <row r="48" spans="1:33">
-      <c r="A48" s="102"/>
-      <c r="B48" s="102"/>
+      <c r="A48" s="108"/>
+      <c r="B48" s="108"/>
       <c r="C48" s="103"/>
       <c r="D48" s="106"/>
       <c r="E48" s="106"/>
@@ -8461,7 +8463,7 @@
       <c r="G48" s="106"/>
       <c r="H48" s="106"/>
       <c r="I48" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J48" s="12">
         <v>6</v>
@@ -8505,24 +8507,24 @@
       <c r="AA48" s="17">
         <v>42</v>
       </c>
-      <c r="AB48" s="110"/>
-      <c r="AC48" s="110"/>
-      <c r="AD48" s="110"/>
-      <c r="AE48" s="110"/>
-      <c r="AF48" s="110"/>
-      <c r="AG48" s="110"/>
+      <c r="AB48" s="101"/>
+      <c r="AC48" s="101"/>
+      <c r="AD48" s="101"/>
+      <c r="AE48" s="101"/>
+      <c r="AF48" s="101"/>
+      <c r="AG48" s="101"/>
     </row>
     <row r="49" spans="1:33">
-      <c r="A49" s="102"/>
-      <c r="B49" s="102"/>
-      <c r="C49" s="101" t="s">
-        <v>340</v>
+      <c r="A49" s="108"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="102" t="s">
+        <v>339</v>
       </c>
       <c r="D49" s="104">
         <v>4</v>
       </c>
       <c r="E49" s="104" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F49" s="104">
         <v>30</v>
@@ -8534,141 +8536,141 @@
         <v>48</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K49" s="12"/>
       <c r="L49" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N49" s="12"/>
       <c r="O49" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="P49" s="13" t="s">
         <v>311</v>
-      </c>
-      <c r="P49" s="13" t="s">
-        <v>312</v>
       </c>
       <c r="Q49" s="13"/>
       <c r="R49" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="S49" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="S49" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="T49" s="13"/>
       <c r="U49" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="V49" s="17" t="s">
         <v>315</v>
-      </c>
-      <c r="V49" s="17" t="s">
-        <v>316</v>
       </c>
       <c r="W49" s="17"/>
       <c r="X49" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y49" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z49" s="17"/>
       <c r="AA49" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB49" s="108">
+        <v>317</v>
+      </c>
+      <c r="AB49" s="99">
         <v>495</v>
       </c>
-      <c r="AC49" s="108">
+      <c r="AC49" s="99">
         <v>495</v>
       </c>
-      <c r="AD49" s="108">
+      <c r="AD49" s="99">
         <v>8630000</v>
       </c>
-      <c r="AE49" s="108">
+      <c r="AE49" s="99">
         <v>348</v>
       </c>
-      <c r="AF49" s="108">
+      <c r="AF49" s="99">
         <v>16</v>
       </c>
-      <c r="AG49" s="108">
+      <c r="AG49" s="99">
         <v>810</v>
       </c>
     </row>
     <row r="50" spans="1:33">
-      <c r="A50" s="102"/>
-      <c r="B50" s="102"/>
-      <c r="C50" s="102"/>
+      <c r="A50" s="108"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="108"/>
       <c r="D50" s="105"/>
       <c r="E50" s="105"/>
       <c r="F50" s="105"/>
       <c r="G50" s="105"/>
       <c r="H50" s="105"/>
       <c r="I50" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="L50" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="L50" s="12" t="s">
-        <v>310</v>
-      </c>
       <c r="M50" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N50" s="12"/>
       <c r="O50" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P50" s="13"/>
       <c r="Q50" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="R50" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="R50" s="13" t="s">
+      <c r="S50" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="S50" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="T50" s="13"/>
       <c r="U50" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V50" s="17"/>
       <c r="W50" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="X50" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="X50" s="17" t="s">
-        <v>317</v>
-      </c>
       <c r="Y50" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z50" s="17"/>
       <c r="AA50" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB50" s="109"/>
-      <c r="AC50" s="109"/>
-      <c r="AD50" s="109"/>
-      <c r="AE50" s="109"/>
-      <c r="AF50" s="109"/>
-      <c r="AG50" s="109"/>
+        <v>317</v>
+      </c>
+      <c r="AB50" s="100"/>
+      <c r="AC50" s="100"/>
+      <c r="AD50" s="100"/>
+      <c r="AE50" s="100"/>
+      <c r="AF50" s="100"/>
+      <c r="AG50" s="100"/>
     </row>
     <row r="51" spans="1:33">
-      <c r="A51" s="102"/>
-      <c r="B51" s="102"/>
-      <c r="C51" s="102"/>
+      <c r="A51" s="108"/>
+      <c r="B51" s="108"/>
+      <c r="C51" s="108"/>
       <c r="D51" s="106"/>
       <c r="E51" s="105"/>
       <c r="F51" s="105"/>
       <c r="G51" s="106"/>
       <c r="H51" s="105"/>
       <c r="I51" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J51" s="12">
         <v>20</v>
@@ -8712,24 +8714,24 @@
       <c r="AA51" s="17">
         <v>80</v>
       </c>
-      <c r="AB51" s="110"/>
-      <c r="AC51" s="110"/>
-      <c r="AD51" s="110"/>
-      <c r="AE51" s="110"/>
-      <c r="AF51" s="110"/>
-      <c r="AG51" s="110"/>
+      <c r="AB51" s="101"/>
+      <c r="AC51" s="101"/>
+      <c r="AD51" s="101"/>
+      <c r="AE51" s="101"/>
+      <c r="AF51" s="101"/>
+      <c r="AG51" s="101"/>
     </row>
     <row r="52" spans="1:33">
-      <c r="A52" s="102"/>
-      <c r="B52" s="102"/>
-      <c r="C52" s="101" t="s">
-        <v>341</v>
+      <c r="A52" s="108"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="102" t="s">
+        <v>340</v>
       </c>
       <c r="D52" s="104">
         <v>2</v>
       </c>
       <c r="E52" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="104">
@@ -8739,129 +8741,129 @@
         <v>30</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K52" s="12"/>
       <c r="L52" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
       <c r="O52" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="P52" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="P52" s="13" t="s">
-        <v>299</v>
       </c>
       <c r="Q52" s="13"/>
       <c r="R52" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="S52" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="S52" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="T52" s="13"/>
       <c r="U52" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V52" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W52" s="17"/>
       <c r="X52" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y52" s="17" t="s">
         <v>303</v>
-      </c>
-      <c r="Y52" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="Z52" s="17"/>
       <c r="AA52" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB52" s="108">
+        <v>304</v>
+      </c>
+      <c r="AB52" s="99">
         <v>140</v>
       </c>
-      <c r="AC52" s="108">
+      <c r="AC52" s="99">
         <v>140</v>
       </c>
-      <c r="AD52" s="108">
+      <c r="AD52" s="99">
         <v>848000</v>
       </c>
-      <c r="AE52" s="108">
+      <c r="AE52" s="99">
         <v>36</v>
       </c>
-      <c r="AF52" s="108">
+      <c r="AF52" s="99">
         <v>8</v>
       </c>
-      <c r="AG52" s="108">
+      <c r="AG52" s="99">
         <v>468</v>
       </c>
     </row>
     <row r="53" spans="1:33">
-      <c r="A53" s="102"/>
-      <c r="B53" s="102"/>
-      <c r="C53" s="102"/>
+      <c r="A53" s="108"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="108"/>
       <c r="D53" s="105"/>
       <c r="E53" s="105"/>
       <c r="F53" s="4"/>
       <c r="G53" s="105"/>
       <c r="H53" s="105"/>
       <c r="I53" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J53" s="12"/>
       <c r="K53" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="L53" s="12" t="s">
         <v>296</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>297</v>
       </c>
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
       <c r="O53" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P53" s="13"/>
       <c r="Q53" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="R53" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="R53" s="13" t="s">
+      <c r="S53" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="S53" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="T53" s="13"/>
       <c r="U53" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V53" s="17"/>
       <c r="W53" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="X53" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="X53" s="17" t="s">
+      <c r="Y53" s="17" t="s">
         <v>303</v>
-      </c>
-      <c r="Y53" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="Z53" s="17"/>
       <c r="AA53" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB53" s="109"/>
-      <c r="AC53" s="109"/>
-      <c r="AD53" s="109"/>
-      <c r="AE53" s="109"/>
-      <c r="AF53" s="109"/>
-      <c r="AG53" s="109"/>
+        <v>304</v>
+      </c>
+      <c r="AB53" s="100"/>
+      <c r="AC53" s="100"/>
+      <c r="AD53" s="100"/>
+      <c r="AE53" s="100"/>
+      <c r="AF53" s="100"/>
+      <c r="AG53" s="100"/>
     </row>
     <row r="54" spans="1:33">
-      <c r="A54" s="102"/>
-      <c r="B54" s="102"/>
+      <c r="A54" s="108"/>
+      <c r="B54" s="108"/>
       <c r="C54" s="103"/>
       <c r="D54" s="106"/>
       <c r="E54" s="106"/>
@@ -8869,7 +8871,7 @@
       <c r="G54" s="106"/>
       <c r="H54" s="106"/>
       <c r="I54" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J54" s="12">
         <v>6</v>
@@ -8913,24 +8915,24 @@
       <c r="AA54" s="17">
         <v>42</v>
       </c>
-      <c r="AB54" s="110"/>
-      <c r="AC54" s="110"/>
-      <c r="AD54" s="110"/>
-      <c r="AE54" s="110"/>
-      <c r="AF54" s="110"/>
-      <c r="AG54" s="110"/>
+      <c r="AB54" s="101"/>
+      <c r="AC54" s="101"/>
+      <c r="AD54" s="101"/>
+      <c r="AE54" s="101"/>
+      <c r="AF54" s="101"/>
+      <c r="AG54" s="101"/>
     </row>
     <row r="55" spans="1:33">
-      <c r="A55" s="102"/>
-      <c r="B55" s="102"/>
-      <c r="C55" s="102" t="s">
-        <v>342</v>
+      <c r="A55" s="108"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="108" t="s">
+        <v>341</v>
       </c>
       <c r="D55" s="104">
         <v>4</v>
       </c>
       <c r="E55" s="107" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F55" s="107">
         <v>30</v>
@@ -8942,129 +8944,129 @@
         <v>48</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K55" s="12"/>
       <c r="L55" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N55" s="12"/>
       <c r="O55" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="P55" s="13" t="s">
         <v>311</v>
-      </c>
-      <c r="P55" s="13" t="s">
-        <v>312</v>
       </c>
       <c r="Q55" s="13"/>
       <c r="R55" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="S55" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="S55" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="T55" s="13"/>
       <c r="U55" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="V55" s="17" t="s">
         <v>315</v>
-      </c>
-      <c r="V55" s="17" t="s">
-        <v>316</v>
       </c>
       <c r="W55" s="17"/>
       <c r="X55" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y55" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z55" s="17"/>
       <c r="AA55" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB55" s="108">
+        <v>317</v>
+      </c>
+      <c r="AB55" s="99">
         <v>495</v>
       </c>
-      <c r="AC55" s="108">
+      <c r="AC55" s="99">
         <v>495</v>
       </c>
-      <c r="AD55" s="108">
+      <c r="AD55" s="99">
         <v>8630000</v>
       </c>
-      <c r="AE55" s="108">
+      <c r="AE55" s="99">
         <v>348</v>
       </c>
-      <c r="AF55" s="108">
+      <c r="AF55" s="99">
         <v>16</v>
       </c>
-      <c r="AG55" s="108">
+      <c r="AG55" s="99">
         <v>810</v>
       </c>
     </row>
     <row r="56" spans="1:33">
-      <c r="A56" s="102"/>
-      <c r="B56" s="102"/>
-      <c r="C56" s="102"/>
+      <c r="A56" s="108"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="108"/>
       <c r="D56" s="105"/>
       <c r="E56" s="107"/>
       <c r="F56" s="107"/>
       <c r="G56" s="107"/>
       <c r="H56" s="107"/>
       <c r="I56" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J56" s="12"/>
       <c r="K56" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="L56" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="L56" s="12" t="s">
-        <v>310</v>
-      </c>
       <c r="M56" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N56" s="12"/>
       <c r="O56" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P56" s="13"/>
       <c r="Q56" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="R56" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="R56" s="13" t="s">
+      <c r="S56" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="S56" s="13" t="s">
-        <v>314</v>
       </c>
       <c r="T56" s="13"/>
       <c r="U56" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V56" s="17"/>
       <c r="W56" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="X56" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="X56" s="17" t="s">
-        <v>317</v>
-      </c>
       <c r="Y56" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z56" s="17"/>
       <c r="AA56" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB56" s="109"/>
-      <c r="AC56" s="109"/>
-      <c r="AD56" s="109"/>
-      <c r="AE56" s="109"/>
-      <c r="AF56" s="109"/>
-      <c r="AG56" s="109"/>
+        <v>317</v>
+      </c>
+      <c r="AB56" s="100"/>
+      <c r="AC56" s="100"/>
+      <c r="AD56" s="100"/>
+      <c r="AE56" s="100"/>
+      <c r="AF56" s="100"/>
+      <c r="AG56" s="100"/>
     </row>
     <row r="57" spans="1:33">
       <c r="A57" s="103"/>
@@ -9076,7 +9078,7 @@
       <c r="G57" s="107"/>
       <c r="H57" s="107"/>
       <c r="I57" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J57" s="12">
         <v>20</v>
@@ -9120,12 +9122,12 @@
       <c r="AA57" s="17">
         <v>80</v>
       </c>
-      <c r="AB57" s="110"/>
-      <c r="AC57" s="110"/>
-      <c r="AD57" s="110"/>
-      <c r="AE57" s="110"/>
-      <c r="AF57" s="110"/>
-      <c r="AG57" s="110"/>
+      <c r="AB57" s="101"/>
+      <c r="AC57" s="101"/>
+      <c r="AD57" s="101"/>
+      <c r="AE57" s="101"/>
+      <c r="AF57" s="101"/>
+      <c r="AG57" s="101"/>
     </row>
     <row r="58" spans="1:33" ht="18" customHeight="1">
       <c r="AB58" s="20">
@@ -9149,6 +9151,206 @@
     </row>
   </sheetData>
   <mergeCells count="224">
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="A4:A30"/>
+    <mergeCell ref="A31:A57"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="B19:B30"/>
+    <mergeCell ref="B31:B42"/>
+    <mergeCell ref="B43:B57"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="AB43:AB45"/>
+    <mergeCell ref="AB46:AB48"/>
+    <mergeCell ref="AB49:AB51"/>
+    <mergeCell ref="AB52:AB54"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="AB4:AB6"/>
+    <mergeCell ref="AB7:AB9"/>
+    <mergeCell ref="AB10:AB12"/>
+    <mergeCell ref="AB13:AB15"/>
+    <mergeCell ref="AB16:AB18"/>
+    <mergeCell ref="AB19:AB21"/>
+    <mergeCell ref="AB22:AB24"/>
+    <mergeCell ref="AB25:AB27"/>
+    <mergeCell ref="AB55:AB57"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AC7:AC9"/>
+    <mergeCell ref="AC10:AC12"/>
+    <mergeCell ref="AC13:AC15"/>
+    <mergeCell ref="AC16:AC18"/>
+    <mergeCell ref="AC19:AC21"/>
+    <mergeCell ref="AC22:AC24"/>
+    <mergeCell ref="AC25:AC27"/>
+    <mergeCell ref="AC28:AC30"/>
+    <mergeCell ref="AC31:AC33"/>
+    <mergeCell ref="AC34:AC36"/>
+    <mergeCell ref="AC37:AC39"/>
+    <mergeCell ref="AC40:AC42"/>
+    <mergeCell ref="AC43:AC45"/>
+    <mergeCell ref="AC46:AC48"/>
+    <mergeCell ref="AC49:AC51"/>
+    <mergeCell ref="AC52:AC54"/>
+    <mergeCell ref="AC55:AC57"/>
+    <mergeCell ref="AB28:AB30"/>
+    <mergeCell ref="AB31:AB33"/>
+    <mergeCell ref="AB34:AB36"/>
+    <mergeCell ref="AB37:AB39"/>
+    <mergeCell ref="AB40:AB42"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="AD7:AD9"/>
+    <mergeCell ref="AD10:AD12"/>
+    <mergeCell ref="AD13:AD15"/>
+    <mergeCell ref="AD16:AD18"/>
+    <mergeCell ref="AD19:AD21"/>
+    <mergeCell ref="AD22:AD24"/>
+    <mergeCell ref="AD25:AD27"/>
+    <mergeCell ref="AD28:AD30"/>
+    <mergeCell ref="AD31:AD33"/>
+    <mergeCell ref="AD34:AD36"/>
+    <mergeCell ref="AD37:AD39"/>
+    <mergeCell ref="AD40:AD42"/>
+    <mergeCell ref="AD43:AD45"/>
+    <mergeCell ref="AD46:AD48"/>
+    <mergeCell ref="AD49:AD51"/>
+    <mergeCell ref="AD52:AD54"/>
+    <mergeCell ref="AD55:AD57"/>
+    <mergeCell ref="AE52:AE54"/>
+    <mergeCell ref="AE55:AE57"/>
+    <mergeCell ref="AE4:AE6"/>
+    <mergeCell ref="AE7:AE9"/>
+    <mergeCell ref="AE10:AE12"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AE25:AE27"/>
+    <mergeCell ref="AE28:AE30"/>
+    <mergeCell ref="AF55:AF57"/>
+    <mergeCell ref="AF4:AF6"/>
+    <mergeCell ref="AF7:AF9"/>
+    <mergeCell ref="AF10:AF12"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="AF25:AF27"/>
+    <mergeCell ref="AF28:AF30"/>
+    <mergeCell ref="AG55:AG57"/>
+    <mergeCell ref="AG4:AG6"/>
+    <mergeCell ref="AG7:AG9"/>
+    <mergeCell ref="AG10:AG12"/>
+    <mergeCell ref="AG13:AG15"/>
+    <mergeCell ref="AG16:AG18"/>
+    <mergeCell ref="AG19:AG21"/>
+    <mergeCell ref="AG22:AG24"/>
+    <mergeCell ref="AG25:AG27"/>
+    <mergeCell ref="AG28:AG30"/>
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="AG31:AG33"/>
     <mergeCell ref="AG34:AG36"/>
@@ -9173,206 +9375,6 @@
     <mergeCell ref="AE43:AE45"/>
     <mergeCell ref="AE46:AE48"/>
     <mergeCell ref="AE49:AE51"/>
-    <mergeCell ref="AG55:AG57"/>
-    <mergeCell ref="AG4:AG6"/>
-    <mergeCell ref="AG7:AG9"/>
-    <mergeCell ref="AG10:AG12"/>
-    <mergeCell ref="AG13:AG15"/>
-    <mergeCell ref="AG16:AG18"/>
-    <mergeCell ref="AG19:AG21"/>
-    <mergeCell ref="AG22:AG24"/>
-    <mergeCell ref="AG25:AG27"/>
-    <mergeCell ref="AG28:AG30"/>
-    <mergeCell ref="AF55:AF57"/>
-    <mergeCell ref="AF4:AF6"/>
-    <mergeCell ref="AF7:AF9"/>
-    <mergeCell ref="AF10:AF12"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="AF22:AF24"/>
-    <mergeCell ref="AF25:AF27"/>
-    <mergeCell ref="AF28:AF30"/>
-    <mergeCell ref="AE52:AE54"/>
-    <mergeCell ref="AE55:AE57"/>
-    <mergeCell ref="AE4:AE6"/>
-    <mergeCell ref="AE7:AE9"/>
-    <mergeCell ref="AE10:AE12"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="AE28:AE30"/>
-    <mergeCell ref="AD31:AD33"/>
-    <mergeCell ref="AD34:AD36"/>
-    <mergeCell ref="AD37:AD39"/>
-    <mergeCell ref="AD40:AD42"/>
-    <mergeCell ref="AD43:AD45"/>
-    <mergeCell ref="AD46:AD48"/>
-    <mergeCell ref="AD49:AD51"/>
-    <mergeCell ref="AD52:AD54"/>
-    <mergeCell ref="AD55:AD57"/>
-    <mergeCell ref="AD4:AD6"/>
-    <mergeCell ref="AD7:AD9"/>
-    <mergeCell ref="AD10:AD12"/>
-    <mergeCell ref="AD13:AD15"/>
-    <mergeCell ref="AD16:AD18"/>
-    <mergeCell ref="AD19:AD21"/>
-    <mergeCell ref="AD22:AD24"/>
-    <mergeCell ref="AD25:AD27"/>
-    <mergeCell ref="AD28:AD30"/>
-    <mergeCell ref="AB55:AB57"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="AC7:AC9"/>
-    <mergeCell ref="AC10:AC12"/>
-    <mergeCell ref="AC13:AC15"/>
-    <mergeCell ref="AC16:AC18"/>
-    <mergeCell ref="AC19:AC21"/>
-    <mergeCell ref="AC22:AC24"/>
-    <mergeCell ref="AC25:AC27"/>
-    <mergeCell ref="AC28:AC30"/>
-    <mergeCell ref="AC31:AC33"/>
-    <mergeCell ref="AC34:AC36"/>
-    <mergeCell ref="AC37:AC39"/>
-    <mergeCell ref="AC40:AC42"/>
-    <mergeCell ref="AC43:AC45"/>
-    <mergeCell ref="AC46:AC48"/>
-    <mergeCell ref="AC49:AC51"/>
-    <mergeCell ref="AC52:AC54"/>
-    <mergeCell ref="AC55:AC57"/>
-    <mergeCell ref="AB28:AB30"/>
-    <mergeCell ref="AB31:AB33"/>
-    <mergeCell ref="AB34:AB36"/>
-    <mergeCell ref="AB37:AB39"/>
-    <mergeCell ref="AB40:AB42"/>
-    <mergeCell ref="AB43:AB45"/>
-    <mergeCell ref="AB46:AB48"/>
-    <mergeCell ref="AB49:AB51"/>
-    <mergeCell ref="AB52:AB54"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="AB4:AB6"/>
-    <mergeCell ref="AB7:AB9"/>
-    <mergeCell ref="AB10:AB12"/>
-    <mergeCell ref="AB13:AB15"/>
-    <mergeCell ref="AB16:AB18"/>
-    <mergeCell ref="AB19:AB21"/>
-    <mergeCell ref="AB22:AB24"/>
-    <mergeCell ref="AB25:AB27"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="H49:H51"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="AB2:AG2"/>
-    <mergeCell ref="A4:A30"/>
-    <mergeCell ref="A31:A57"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="B19:B30"/>
-    <mergeCell ref="B31:B42"/>
-    <mergeCell ref="B43:B57"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9383,7 +9385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
@@ -9391,256 +9393,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="68" t="s">
         <v>346</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="C1" s="68" t="s">
         <v>347</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="D1" s="68" t="s">
         <v>348</v>
-      </c>
-      <c r="D1" s="120" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="121" t="s">
-        <v>350</v>
-      </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119"/>
+      <c r="A2" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
     </row>
     <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="122" t="s">
-        <v>351</v>
-      </c>
-      <c r="B3" s="123">
+      <c r="A3" s="70" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="71">
         <v>500</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
     </row>
     <row r="4" spans="1:4" ht="14.25">
-      <c r="A4" s="121" t="s">
-        <v>352</v>
-      </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="119"/>
+      <c r="A4" s="69" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="122"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="124"/>
     </row>
     <row r="5" spans="1:4" ht="14.25">
-      <c r="A5" s="122" t="s">
-        <v>351</v>
-      </c>
-      <c r="B5" s="123" t="s">
-        <v>353</v>
-      </c>
-      <c r="C5" s="123">
+      <c r="A5" s="70" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" s="71">
         <v>190</v>
       </c>
-      <c r="D5" s="124">
+      <c r="D5" s="72">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25">
-      <c r="A6" s="121" t="s">
-        <v>354</v>
-      </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
+      <c r="A6" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" s="122"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="124"/>
     </row>
     <row r="7" spans="1:4" ht="14.25">
-      <c r="A7" s="122" t="s">
-        <v>351</v>
-      </c>
-      <c r="B7" s="123" t="s">
-        <v>353</v>
-      </c>
-      <c r="C7" s="123">
+      <c r="A7" s="70" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" s="71">
         <v>820</v>
       </c>
-      <c r="D7" s="124" t="s">
-        <v>245</v>
+      <c r="D7" s="72" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25">
-      <c r="A8" s="121" t="s">
-        <v>355</v>
-      </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="119"/>
+      <c r="A8" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="124"/>
     </row>
     <row r="9" spans="1:4" ht="14.25">
-      <c r="A9" s="122" t="s">
-        <v>351</v>
-      </c>
-      <c r="B9" s="123" t="s">
-        <v>353</v>
-      </c>
-      <c r="C9" s="123">
+      <c r="A9" s="70" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="C9" s="71">
         <v>1780</v>
       </c>
-      <c r="D9" s="124" t="s">
-        <v>356</v>
+      <c r="D9" s="72" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25">
-      <c r="A10" s="121" t="s">
-        <v>357</v>
-      </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="119"/>
+      <c r="A10" s="69" t="s">
+        <v>356</v>
+      </c>
+      <c r="B10" s="122"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="124"/>
     </row>
     <row r="11" spans="1:4" ht="14.25">
-      <c r="A11" s="122" t="s">
-        <v>351</v>
-      </c>
-      <c r="B11" s="123" t="s">
-        <v>353</v>
-      </c>
-      <c r="C11" s="123">
+      <c r="A11" s="70" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" s="71">
         <v>3460</v>
       </c>
-      <c r="D11" s="124" t="s">
-        <v>358</v>
+      <c r="D11" s="72" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25">
-      <c r="A12" s="121" t="s">
-        <v>359</v>
-      </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="119"/>
+      <c r="A12" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="B12" s="122"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="124"/>
     </row>
     <row r="13" spans="1:4" ht="14.25">
-      <c r="A13" s="122" t="s">
-        <v>351</v>
-      </c>
-      <c r="B13" s="123" t="s">
-        <v>353</v>
-      </c>
-      <c r="C13" s="123">
+      <c r="A13" s="70" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" s="71">
         <v>5950</v>
       </c>
-      <c r="D13" s="124" t="s">
-        <v>360</v>
+      <c r="D13" s="72" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25">
-      <c r="A14" s="121" t="s">
-        <v>361</v>
-      </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="119"/>
+      <c r="A14" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14" s="122"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="124"/>
     </row>
     <row r="15" spans="1:4" ht="14.25">
-      <c r="A15" s="122" t="s">
-        <v>351</v>
-      </c>
-      <c r="B15" s="123" t="s">
-        <v>353</v>
-      </c>
-      <c r="C15" s="123">
+      <c r="A15" s="70" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="71">
         <v>9410</v>
       </c>
-      <c r="D15" s="124" t="s">
-        <v>362</v>
+      <c r="D15" s="72" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25">
-      <c r="A16" s="121" t="s">
-        <v>363</v>
-      </c>
-      <c r="B16" s="117"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="119"/>
+      <c r="A16" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="B16" s="122"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="124"/>
     </row>
     <row r="17" spans="1:4" ht="14.25">
-      <c r="A17" s="122" t="s">
-        <v>351</v>
-      </c>
-      <c r="B17" s="123" t="s">
-        <v>353</v>
-      </c>
-      <c r="C17" s="123">
+      <c r="A17" s="70" t="s">
+        <v>350</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" s="71">
         <v>13260</v>
       </c>
-      <c r="D17" s="124" t="s">
-        <v>364</v>
+      <c r="D17" s="72" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25">
-      <c r="A18" s="121" t="s">
-        <v>365</v>
-      </c>
-      <c r="B18" s="117"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="119"/>
+      <c r="A18" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="B18" s="122"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="124"/>
     </row>
     <row r="19" spans="1:4" ht="14.25">
-      <c r="A19" s="122" t="s">
-        <v>351</v>
-      </c>
-      <c r="B19" s="123" t="s">
-        <v>353</v>
-      </c>
-      <c r="C19" s="123">
+      <c r="A19" s="70" t="s">
+        <v>350</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="C19" s="71">
         <v>21950</v>
       </c>
-      <c r="D19" s="124" t="s">
-        <v>366</v>
+      <c r="D19" s="72" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25">
-      <c r="A20" s="121" t="s">
-        <v>367</v>
-      </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="119"/>
+      <c r="A20" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="B20" s="122"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="124"/>
     </row>
     <row r="21" spans="1:4" ht="14.25">
-      <c r="A21" s="122" t="s">
-        <v>351</v>
-      </c>
-      <c r="B21" s="123" t="s">
-        <v>353</v>
-      </c>
-      <c r="C21" s="123">
+      <c r="A21" s="70" t="s">
+        <v>350</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="C21" s="71">
         <v>32100</v>
       </c>
-      <c r="D21" s="124" t="s">
-        <v>366</v>
+      <c r="D21" s="72" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25">
-      <c r="A22" s="121" t="s">
-        <v>368</v>
-      </c>
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
+      <c r="A22" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="B22" s="122"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9941,36 +9943,36 @@
     <row r="4" spans="1:37" ht="18" customHeight="1">
       <c r="A4" s="52"/>
       <c r="B4" s="52"/>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="78"/>
       <c r="AE4" s="62"/>
       <c r="AF4" s="62"/>
       <c r="AG4" s="62"/>
@@ -10741,36 +10743,36 @@
     <row r="4" spans="1:37" ht="18" customHeight="1">
       <c r="A4" s="52"/>
       <c r="B4" s="52"/>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="78"/>
       <c r="AE4" s="62"/>
       <c r="AF4" s="62"/>
       <c r="AG4" s="62"/>
@@ -11440,7 +11442,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11645,22 +11647,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="10"/>
@@ -11763,20 +11765,20 @@
       <c r="R3" s="22"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="80" t="s">
         <v>128</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="75">
+      <c r="D4" s="80">
         <v>10</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75" t="s">
+      <c r="E4" s="80"/>
+      <c r="F4" s="80" t="s">
         <v>131</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -11799,14 +11801,14 @@
       <c r="R4" s="39"/>
     </row>
     <row r="5" spans="1:18" ht="54" customHeight="1">
-      <c r="A5" s="75"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="6" t="s">
         <v>125</v>
       </c>
@@ -11827,14 +11829,14 @@
       <c r="R5" s="39"/>
     </row>
     <row r="6" spans="1:18" ht="54" customHeight="1">
-      <c r="A6" s="75"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="22"/>
       <c r="H6" s="6" t="s">
         <v>125</v>
@@ -11855,14 +11857,14 @@
       <c r="R6" s="39"/>
     </row>
     <row r="7" spans="1:18" ht="36" customHeight="1">
-      <c r="A7" s="75"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="6" t="s">
@@ -11883,14 +11885,14 @@
       <c r="R7" s="39"/>
     </row>
     <row r="8" spans="1:18" ht="18" customHeight="1">
-      <c r="A8" s="75"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="6" t="s">
         <v>125</v>
       </c>
@@ -11911,14 +11913,14 @@
       <c r="R8" s="39"/>
     </row>
     <row r="9" spans="1:18" ht="18" customHeight="1">
-      <c r="A9" s="75"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="6" t="s">
         <v>125</v>
       </c>
@@ -11939,14 +11941,14 @@
       <c r="R9" s="39"/>
     </row>
     <row r="10" spans="1:18" ht="18" customHeight="1">
-      <c r="A10" s="75"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="6" t="s">
         <v>125</v>
       </c>
@@ -11967,14 +11969,14 @@
       <c r="R10" s="39"/>
     </row>
     <row r="11" spans="1:18" ht="18" customHeight="1">
-      <c r="A11" s="75"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="27"/>
       <c r="H11" s="6" t="s">
         <v>125</v>
@@ -11995,20 +11997,20 @@
       <c r="R11" s="39"/>
     </row>
     <row r="12" spans="1:18" ht="72" customHeight="1">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="81" t="s">
         <v>139</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="C12" s="77" t="s">
+        <v>342</v>
+      </c>
+      <c r="C12" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="85">
         <v>5</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80" t="s">
+      <c r="E12" s="85"/>
+      <c r="F12" s="85" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="37" t="s">
@@ -12029,14 +12031,14 @@
       <c r="R12" s="39"/>
     </row>
     <row r="13" spans="1:18" ht="25.5" customHeight="1">
-      <c r="A13" s="76"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
+        <v>344</v>
+      </c>
+      <c r="C13" s="83"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="37" t="s">
         <v>142</v>
       </c>
@@ -12055,14 +12057,14 @@
       <c r="R13" s="39"/>
     </row>
     <row r="14" spans="1:18" ht="104.25" customHeight="1">
-      <c r="A14" s="76"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
+        <v>343</v>
+      </c>
+      <c r="C14" s="83"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
       <c r="G14" s="22"/>
       <c r="H14" s="37" t="s">
         <v>142</v>
@@ -12080,15 +12082,15 @@
       <c r="Q14" s="39"/>
       <c r="R14" s="39"/>
     </row>
-    <row r="15" spans="1:18" ht="72" customHeight="1">
-      <c r="A15" s="76"/>
+    <row r="15" spans="1:18" ht="85.5" customHeight="1">
+      <c r="A15" s="81"/>
       <c r="B15" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
+        <v>368</v>
+      </c>
+      <c r="C15" s="83"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="37" t="s">
@@ -12107,14 +12109,14 @@
       <c r="R15" s="39"/>
     </row>
     <row r="16" spans="1:18" ht="72" customHeight="1">
-      <c r="A16" s="76"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
+        <v>144</v>
+      </c>
+      <c r="C16" s="84"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -12170,509 +12172,509 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:361" ht="18" customHeight="1">
-      <c r="A1" s="87"/>
-      <c r="B1" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
     </row>
     <row r="2" spans="1:361" ht="60" customHeight="1">
-      <c r="A2" s="87"/>
-      <c r="B2" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
     </row>
     <row r="3" spans="1:361">
       <c r="A3" s="24"/>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83" t="s">
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83" t="s">
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="83"/>
-      <c r="AE3" s="83"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="83"/>
-      <c r="AI3" s="83"/>
-      <c r="AJ3" s="83"/>
-      <c r="AK3" s="83"/>
-      <c r="AL3" s="83" t="s">
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="91"/>
+      <c r="AT3" s="91"/>
+      <c r="AU3" s="91"/>
+      <c r="AV3" s="91"/>
+      <c r="AW3" s="91"/>
+      <c r="AX3" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="AM3" s="83"/>
-      <c r="AN3" s="83"/>
-      <c r="AO3" s="83"/>
-      <c r="AP3" s="83"/>
-      <c r="AQ3" s="83"/>
-      <c r="AR3" s="83"/>
-      <c r="AS3" s="83"/>
-      <c r="AT3" s="83"/>
-      <c r="AU3" s="83"/>
-      <c r="AV3" s="83"/>
-      <c r="AW3" s="83"/>
-      <c r="AX3" s="83" t="s">
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="91"/>
+      <c r="BA3" s="91"/>
+      <c r="BB3" s="91"/>
+      <c r="BC3" s="91"/>
+      <c r="BD3" s="91"/>
+      <c r="BE3" s="91"/>
+      <c r="BF3" s="91"/>
+      <c r="BG3" s="91"/>
+      <c r="BH3" s="91"/>
+      <c r="BI3" s="91"/>
+      <c r="BJ3" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="AY3" s="83"/>
-      <c r="AZ3" s="83"/>
-      <c r="BA3" s="83"/>
-      <c r="BB3" s="83"/>
-      <c r="BC3" s="83"/>
-      <c r="BD3" s="83"/>
-      <c r="BE3" s="83"/>
-      <c r="BF3" s="83"/>
-      <c r="BG3" s="83"/>
-      <c r="BH3" s="83"/>
-      <c r="BI3" s="83"/>
-      <c r="BJ3" s="83" t="s">
+      <c r="BK3" s="91"/>
+      <c r="BL3" s="91"/>
+      <c r="BM3" s="91"/>
+      <c r="BN3" s="91"/>
+      <c r="BO3" s="91"/>
+      <c r="BP3" s="91"/>
+      <c r="BQ3" s="91"/>
+      <c r="BR3" s="91"/>
+      <c r="BS3" s="91"/>
+      <c r="BT3" s="91"/>
+      <c r="BU3" s="91"/>
+      <c r="BV3" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="BK3" s="83"/>
-      <c r="BL3" s="83"/>
-      <c r="BM3" s="83"/>
-      <c r="BN3" s="83"/>
-      <c r="BO3" s="83"/>
-      <c r="BP3" s="83"/>
-      <c r="BQ3" s="83"/>
-      <c r="BR3" s="83"/>
-      <c r="BS3" s="83"/>
-      <c r="BT3" s="83"/>
-      <c r="BU3" s="83"/>
-      <c r="BV3" s="83" t="s">
+      <c r="BW3" s="91"/>
+      <c r="BX3" s="91"/>
+      <c r="BY3" s="91"/>
+      <c r="BZ3" s="91"/>
+      <c r="CA3" s="91"/>
+      <c r="CB3" s="91"/>
+      <c r="CC3" s="91"/>
+      <c r="CD3" s="91"/>
+      <c r="CE3" s="91"/>
+      <c r="CF3" s="91"/>
+      <c r="CG3" s="91"/>
+      <c r="CH3" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="BW3" s="83"/>
-      <c r="BX3" s="83"/>
-      <c r="BY3" s="83"/>
-      <c r="BZ3" s="83"/>
-      <c r="CA3" s="83"/>
-      <c r="CB3" s="83"/>
-      <c r="CC3" s="83"/>
-      <c r="CD3" s="83"/>
-      <c r="CE3" s="83"/>
-      <c r="CF3" s="83"/>
-      <c r="CG3" s="83"/>
-      <c r="CH3" s="83" t="s">
+      <c r="CI3" s="91"/>
+      <c r="CJ3" s="91"/>
+      <c r="CK3" s="91"/>
+      <c r="CL3" s="91"/>
+      <c r="CM3" s="91"/>
+      <c r="CN3" s="91"/>
+      <c r="CO3" s="91"/>
+      <c r="CP3" s="91"/>
+      <c r="CQ3" s="91"/>
+      <c r="CR3" s="91"/>
+      <c r="CS3" s="91"/>
+      <c r="CT3" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="CI3" s="83"/>
-      <c r="CJ3" s="83"/>
-      <c r="CK3" s="83"/>
-      <c r="CL3" s="83"/>
-      <c r="CM3" s="83"/>
-      <c r="CN3" s="83"/>
-      <c r="CO3" s="83"/>
-      <c r="CP3" s="83"/>
-      <c r="CQ3" s="83"/>
-      <c r="CR3" s="83"/>
-      <c r="CS3" s="83"/>
-      <c r="CT3" s="83" t="s">
+      <c r="CU3" s="91"/>
+      <c r="CV3" s="91"/>
+      <c r="CW3" s="91"/>
+      <c r="CX3" s="91"/>
+      <c r="CY3" s="91"/>
+      <c r="CZ3" s="91"/>
+      <c r="DA3" s="91"/>
+      <c r="DB3" s="91"/>
+      <c r="DC3" s="91"/>
+      <c r="DD3" s="91"/>
+      <c r="DE3" s="91"/>
+      <c r="DF3" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="CU3" s="83"/>
-      <c r="CV3" s="83"/>
-      <c r="CW3" s="83"/>
-      <c r="CX3" s="83"/>
-      <c r="CY3" s="83"/>
-      <c r="CZ3" s="83"/>
-      <c r="DA3" s="83"/>
-      <c r="DB3" s="83"/>
-      <c r="DC3" s="83"/>
-      <c r="DD3" s="83"/>
-      <c r="DE3" s="83"/>
-      <c r="DF3" s="83" t="s">
+      <c r="DG3" s="91"/>
+      <c r="DH3" s="91"/>
+      <c r="DI3" s="91"/>
+      <c r="DJ3" s="91"/>
+      <c r="DK3" s="91"/>
+      <c r="DL3" s="91"/>
+      <c r="DM3" s="91"/>
+      <c r="DN3" s="91"/>
+      <c r="DO3" s="91"/>
+      <c r="DP3" s="91"/>
+      <c r="DQ3" s="91"/>
+      <c r="DR3" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="DG3" s="83"/>
-      <c r="DH3" s="83"/>
-      <c r="DI3" s="83"/>
-      <c r="DJ3" s="83"/>
-      <c r="DK3" s="83"/>
-      <c r="DL3" s="83"/>
-      <c r="DM3" s="83"/>
-      <c r="DN3" s="83"/>
-      <c r="DO3" s="83"/>
-      <c r="DP3" s="83"/>
-      <c r="DQ3" s="83"/>
-      <c r="DR3" s="83" t="s">
+      <c r="DS3" s="91"/>
+      <c r="DT3" s="91"/>
+      <c r="DU3" s="91"/>
+      <c r="DV3" s="91"/>
+      <c r="DW3" s="91"/>
+      <c r="DX3" s="91"/>
+      <c r="DY3" s="91"/>
+      <c r="DZ3" s="91"/>
+      <c r="EA3" s="91"/>
+      <c r="EB3" s="91"/>
+      <c r="EC3" s="91"/>
+      <c r="ED3" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="DS3" s="83"/>
-      <c r="DT3" s="83"/>
-      <c r="DU3" s="83"/>
-      <c r="DV3" s="83"/>
-      <c r="DW3" s="83"/>
-      <c r="DX3" s="83"/>
-      <c r="DY3" s="83"/>
-      <c r="DZ3" s="83"/>
-      <c r="EA3" s="83"/>
-      <c r="EB3" s="83"/>
-      <c r="EC3" s="83"/>
-      <c r="ED3" s="83" t="s">
+      <c r="EE3" s="91"/>
+      <c r="EF3" s="91"/>
+      <c r="EG3" s="91"/>
+      <c r="EH3" s="91"/>
+      <c r="EI3" s="91"/>
+      <c r="EJ3" s="91"/>
+      <c r="EK3" s="91"/>
+      <c r="EL3" s="91"/>
+      <c r="EM3" s="91"/>
+      <c r="EN3" s="91"/>
+      <c r="EO3" s="91"/>
+      <c r="EP3" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="EE3" s="83"/>
-      <c r="EF3" s="83"/>
-      <c r="EG3" s="83"/>
-      <c r="EH3" s="83"/>
-      <c r="EI3" s="83"/>
-      <c r="EJ3" s="83"/>
-      <c r="EK3" s="83"/>
-      <c r="EL3" s="83"/>
-      <c r="EM3" s="83"/>
-      <c r="EN3" s="83"/>
-      <c r="EO3" s="83"/>
-      <c r="EP3" s="83" t="s">
+      <c r="EQ3" s="91"/>
+      <c r="ER3" s="91"/>
+      <c r="ES3" s="91"/>
+      <c r="ET3" s="91"/>
+      <c r="EU3" s="91"/>
+      <c r="EV3" s="91"/>
+      <c r="EW3" s="91"/>
+      <c r="EX3" s="91"/>
+      <c r="EY3" s="91"/>
+      <c r="EZ3" s="91"/>
+      <c r="FA3" s="91"/>
+      <c r="FB3" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="EQ3" s="83"/>
-      <c r="ER3" s="83"/>
-      <c r="ES3" s="83"/>
-      <c r="ET3" s="83"/>
-      <c r="EU3" s="83"/>
-      <c r="EV3" s="83"/>
-      <c r="EW3" s="83"/>
-      <c r="EX3" s="83"/>
-      <c r="EY3" s="83"/>
-      <c r="EZ3" s="83"/>
-      <c r="FA3" s="83"/>
-      <c r="FB3" s="83" t="s">
+      <c r="FC3" s="91"/>
+      <c r="FD3" s="91"/>
+      <c r="FE3" s="91"/>
+      <c r="FF3" s="91"/>
+      <c r="FG3" s="91"/>
+      <c r="FH3" s="91"/>
+      <c r="FI3" s="91"/>
+      <c r="FJ3" s="91"/>
+      <c r="FK3" s="91"/>
+      <c r="FL3" s="91"/>
+      <c r="FM3" s="91"/>
+      <c r="FN3" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="FC3" s="83"/>
-      <c r="FD3" s="83"/>
-      <c r="FE3" s="83"/>
-      <c r="FF3" s="83"/>
-      <c r="FG3" s="83"/>
-      <c r="FH3" s="83"/>
-      <c r="FI3" s="83"/>
-      <c r="FJ3" s="83"/>
-      <c r="FK3" s="83"/>
-      <c r="FL3" s="83"/>
-      <c r="FM3" s="83"/>
-      <c r="FN3" s="83" t="s">
+      <c r="FO3" s="91"/>
+      <c r="FP3" s="91"/>
+      <c r="FQ3" s="91"/>
+      <c r="FR3" s="91"/>
+      <c r="FS3" s="91"/>
+      <c r="FT3" s="91"/>
+      <c r="FU3" s="91"/>
+      <c r="FV3" s="91"/>
+      <c r="FW3" s="91"/>
+      <c r="FX3" s="91"/>
+      <c r="FY3" s="91"/>
+      <c r="FZ3" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="FO3" s="83"/>
-      <c r="FP3" s="83"/>
-      <c r="FQ3" s="83"/>
-      <c r="FR3" s="83"/>
-      <c r="FS3" s="83"/>
-      <c r="FT3" s="83"/>
-      <c r="FU3" s="83"/>
-      <c r="FV3" s="83"/>
-      <c r="FW3" s="83"/>
-      <c r="FX3" s="83"/>
-      <c r="FY3" s="83"/>
-      <c r="FZ3" s="83" t="s">
+      <c r="GA3" s="91"/>
+      <c r="GB3" s="91"/>
+      <c r="GC3" s="91"/>
+      <c r="GD3" s="91"/>
+      <c r="GE3" s="91"/>
+      <c r="GF3" s="91"/>
+      <c r="GG3" s="91"/>
+      <c r="GH3" s="91"/>
+      <c r="GI3" s="91"/>
+      <c r="GJ3" s="91"/>
+      <c r="GK3" s="91"/>
+      <c r="GL3" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="GA3" s="83"/>
-      <c r="GB3" s="83"/>
-      <c r="GC3" s="83"/>
-      <c r="GD3" s="83"/>
-      <c r="GE3" s="83"/>
-      <c r="GF3" s="83"/>
-      <c r="GG3" s="83"/>
-      <c r="GH3" s="83"/>
-      <c r="GI3" s="83"/>
-      <c r="GJ3" s="83"/>
-      <c r="GK3" s="83"/>
-      <c r="GL3" s="83" t="s">
+      <c r="GM3" s="91"/>
+      <c r="GN3" s="91"/>
+      <c r="GO3" s="91"/>
+      <c r="GP3" s="91"/>
+      <c r="GQ3" s="91"/>
+      <c r="GR3" s="91"/>
+      <c r="GS3" s="91"/>
+      <c r="GT3" s="91"/>
+      <c r="GU3" s="91"/>
+      <c r="GV3" s="91"/>
+      <c r="GW3" s="91"/>
+      <c r="GX3" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="GM3" s="83"/>
-      <c r="GN3" s="83"/>
-      <c r="GO3" s="83"/>
-      <c r="GP3" s="83"/>
-      <c r="GQ3" s="83"/>
-      <c r="GR3" s="83"/>
-      <c r="GS3" s="83"/>
-      <c r="GT3" s="83"/>
-      <c r="GU3" s="83"/>
-      <c r="GV3" s="83"/>
-      <c r="GW3" s="83"/>
-      <c r="GX3" s="83" t="s">
+      <c r="GY3" s="91"/>
+      <c r="GZ3" s="91"/>
+      <c r="HA3" s="91"/>
+      <c r="HB3" s="91"/>
+      <c r="HC3" s="91"/>
+      <c r="HD3" s="91"/>
+      <c r="HE3" s="91"/>
+      <c r="HF3" s="91"/>
+      <c r="HG3" s="91"/>
+      <c r="HH3" s="91"/>
+      <c r="HI3" s="91"/>
+      <c r="HJ3" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="GY3" s="83"/>
-      <c r="GZ3" s="83"/>
-      <c r="HA3" s="83"/>
-      <c r="HB3" s="83"/>
-      <c r="HC3" s="83"/>
-      <c r="HD3" s="83"/>
-      <c r="HE3" s="83"/>
-      <c r="HF3" s="83"/>
-      <c r="HG3" s="83"/>
-      <c r="HH3" s="83"/>
-      <c r="HI3" s="83"/>
-      <c r="HJ3" s="83" t="s">
+      <c r="HK3" s="91"/>
+      <c r="HL3" s="91"/>
+      <c r="HM3" s="91"/>
+      <c r="HN3" s="91"/>
+      <c r="HO3" s="91"/>
+      <c r="HP3" s="91"/>
+      <c r="HQ3" s="91"/>
+      <c r="HR3" s="91"/>
+      <c r="HS3" s="91"/>
+      <c r="HT3" s="91"/>
+      <c r="HU3" s="91"/>
+      <c r="HV3" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="HK3" s="83"/>
-      <c r="HL3" s="83"/>
-      <c r="HM3" s="83"/>
-      <c r="HN3" s="83"/>
-      <c r="HO3" s="83"/>
-      <c r="HP3" s="83"/>
-      <c r="HQ3" s="83"/>
-      <c r="HR3" s="83"/>
-      <c r="HS3" s="83"/>
-      <c r="HT3" s="83"/>
-      <c r="HU3" s="83"/>
-      <c r="HV3" s="83" t="s">
+      <c r="HW3" s="91"/>
+      <c r="HX3" s="91"/>
+      <c r="HY3" s="91"/>
+      <c r="HZ3" s="91"/>
+      <c r="IA3" s="91"/>
+      <c r="IB3" s="91"/>
+      <c r="IC3" s="91"/>
+      <c r="ID3" s="91"/>
+      <c r="IE3" s="91"/>
+      <c r="IF3" s="91"/>
+      <c r="IG3" s="91"/>
+      <c r="IH3" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="HW3" s="83"/>
-      <c r="HX3" s="83"/>
-      <c r="HY3" s="83"/>
-      <c r="HZ3" s="83"/>
-      <c r="IA3" s="83"/>
-      <c r="IB3" s="83"/>
-      <c r="IC3" s="83"/>
-      <c r="ID3" s="83"/>
-      <c r="IE3" s="83"/>
-      <c r="IF3" s="83"/>
-      <c r="IG3" s="83"/>
-      <c r="IH3" s="83" t="s">
+      <c r="II3" s="91"/>
+      <c r="IJ3" s="91"/>
+      <c r="IK3" s="91"/>
+      <c r="IL3" s="91"/>
+      <c r="IM3" s="91"/>
+      <c r="IN3" s="91"/>
+      <c r="IO3" s="91"/>
+      <c r="IP3" s="91"/>
+      <c r="IQ3" s="91"/>
+      <c r="IR3" s="91"/>
+      <c r="IS3" s="91"/>
+      <c r="IT3" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="II3" s="83"/>
-      <c r="IJ3" s="83"/>
-      <c r="IK3" s="83"/>
-      <c r="IL3" s="83"/>
-      <c r="IM3" s="83"/>
-      <c r="IN3" s="83"/>
-      <c r="IO3" s="83"/>
-      <c r="IP3" s="83"/>
-      <c r="IQ3" s="83"/>
-      <c r="IR3" s="83"/>
-      <c r="IS3" s="83"/>
-      <c r="IT3" s="83" t="s">
+      <c r="IU3" s="91"/>
+      <c r="IV3" s="91"/>
+      <c r="IW3" s="91"/>
+      <c r="IX3" s="91"/>
+      <c r="IY3" s="91"/>
+      <c r="IZ3" s="91"/>
+      <c r="JA3" s="91"/>
+      <c r="JB3" s="91"/>
+      <c r="JC3" s="91"/>
+      <c r="JD3" s="91"/>
+      <c r="JE3" s="91"/>
+      <c r="JF3" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="IU3" s="83"/>
-      <c r="IV3" s="83"/>
-      <c r="IW3" s="83"/>
-      <c r="IX3" s="83"/>
-      <c r="IY3" s="83"/>
-      <c r="IZ3" s="83"/>
-      <c r="JA3" s="83"/>
-      <c r="JB3" s="83"/>
-      <c r="JC3" s="83"/>
-      <c r="JD3" s="83"/>
-      <c r="JE3" s="83"/>
-      <c r="JF3" s="83" t="s">
+      <c r="JG3" s="91"/>
+      <c r="JH3" s="91"/>
+      <c r="JI3" s="91"/>
+      <c r="JJ3" s="91"/>
+      <c r="JK3" s="91"/>
+      <c r="JL3" s="91"/>
+      <c r="JM3" s="91"/>
+      <c r="JN3" s="91"/>
+      <c r="JO3" s="91"/>
+      <c r="JP3" s="91"/>
+      <c r="JQ3" s="91"/>
+      <c r="JR3" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="JG3" s="83"/>
-      <c r="JH3" s="83"/>
-      <c r="JI3" s="83"/>
-      <c r="JJ3" s="83"/>
-      <c r="JK3" s="83"/>
-      <c r="JL3" s="83"/>
-      <c r="JM3" s="83"/>
-      <c r="JN3" s="83"/>
-      <c r="JO3" s="83"/>
-      <c r="JP3" s="83"/>
-      <c r="JQ3" s="83"/>
-      <c r="JR3" s="83" t="s">
+      <c r="JS3" s="91"/>
+      <c r="JT3" s="91"/>
+      <c r="JU3" s="91"/>
+      <c r="JV3" s="91"/>
+      <c r="JW3" s="91"/>
+      <c r="JX3" s="91"/>
+      <c r="JY3" s="91"/>
+      <c r="JZ3" s="91"/>
+      <c r="KA3" s="91"/>
+      <c r="KB3" s="91"/>
+      <c r="KC3" s="91"/>
+      <c r="KD3" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="JS3" s="83"/>
-      <c r="JT3" s="83"/>
-      <c r="JU3" s="83"/>
-      <c r="JV3" s="83"/>
-      <c r="JW3" s="83"/>
-      <c r="JX3" s="83"/>
-      <c r="JY3" s="83"/>
-      <c r="JZ3" s="83"/>
-      <c r="KA3" s="83"/>
-      <c r="KB3" s="83"/>
-      <c r="KC3" s="83"/>
-      <c r="KD3" s="83" t="s">
+      <c r="KE3" s="91"/>
+      <c r="KF3" s="91"/>
+      <c r="KG3" s="91"/>
+      <c r="KH3" s="91"/>
+      <c r="KI3" s="91"/>
+      <c r="KJ3" s="91"/>
+      <c r="KK3" s="91"/>
+      <c r="KL3" s="91"/>
+      <c r="KM3" s="91"/>
+      <c r="KN3" s="91"/>
+      <c r="KO3" s="91"/>
+      <c r="KP3" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="KE3" s="83"/>
-      <c r="KF3" s="83"/>
-      <c r="KG3" s="83"/>
-      <c r="KH3" s="83"/>
-      <c r="KI3" s="83"/>
-      <c r="KJ3" s="83"/>
-      <c r="KK3" s="83"/>
-      <c r="KL3" s="83"/>
-      <c r="KM3" s="83"/>
-      <c r="KN3" s="83"/>
-      <c r="KO3" s="83"/>
-      <c r="KP3" s="83" t="s">
+      <c r="KQ3" s="91"/>
+      <c r="KR3" s="91"/>
+      <c r="KS3" s="91"/>
+      <c r="KT3" s="91"/>
+      <c r="KU3" s="91"/>
+      <c r="KV3" s="91"/>
+      <c r="KW3" s="91"/>
+      <c r="KX3" s="91"/>
+      <c r="KY3" s="91"/>
+      <c r="KZ3" s="91"/>
+      <c r="LA3" s="91"/>
+      <c r="LB3" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="KQ3" s="83"/>
-      <c r="KR3" s="83"/>
-      <c r="KS3" s="83"/>
-      <c r="KT3" s="83"/>
-      <c r="KU3" s="83"/>
-      <c r="KV3" s="83"/>
-      <c r="KW3" s="83"/>
-      <c r="KX3" s="83"/>
-      <c r="KY3" s="83"/>
-      <c r="KZ3" s="83"/>
-      <c r="LA3" s="83"/>
-      <c r="LB3" s="83" t="s">
+      <c r="LC3" s="91"/>
+      <c r="LD3" s="91"/>
+      <c r="LE3" s="91"/>
+      <c r="LF3" s="91"/>
+      <c r="LG3" s="91"/>
+      <c r="LH3" s="91"/>
+      <c r="LI3" s="91"/>
+      <c r="LJ3" s="91"/>
+      <c r="LK3" s="91"/>
+      <c r="LL3" s="91"/>
+      <c r="LM3" s="91"/>
+      <c r="LN3" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="LC3" s="83"/>
-      <c r="LD3" s="83"/>
-      <c r="LE3" s="83"/>
-      <c r="LF3" s="83"/>
-      <c r="LG3" s="83"/>
-      <c r="LH3" s="83"/>
-      <c r="LI3" s="83"/>
-      <c r="LJ3" s="83"/>
-      <c r="LK3" s="83"/>
-      <c r="LL3" s="83"/>
-      <c r="LM3" s="83"/>
-      <c r="LN3" s="83" t="s">
+      <c r="LO3" s="91"/>
+      <c r="LP3" s="91"/>
+      <c r="LQ3" s="91"/>
+      <c r="LR3" s="91"/>
+      <c r="LS3" s="91"/>
+      <c r="LT3" s="91"/>
+      <c r="LU3" s="91"/>
+      <c r="LV3" s="91"/>
+      <c r="LW3" s="91"/>
+      <c r="LX3" s="91"/>
+      <c r="LY3" s="91"/>
+      <c r="LZ3" s="91" t="s">
         <v>175</v>
       </c>
-      <c r="LO3" s="83"/>
-      <c r="LP3" s="83"/>
-      <c r="LQ3" s="83"/>
-      <c r="LR3" s="83"/>
-      <c r="LS3" s="83"/>
-      <c r="LT3" s="83"/>
-      <c r="LU3" s="83"/>
-      <c r="LV3" s="83"/>
-      <c r="LW3" s="83"/>
-      <c r="LX3" s="83"/>
-      <c r="LY3" s="83"/>
-      <c r="LZ3" s="83" t="s">
+      <c r="MA3" s="91"/>
+      <c r="MB3" s="91"/>
+      <c r="MC3" s="91"/>
+      <c r="MD3" s="91"/>
+      <c r="ME3" s="91"/>
+      <c r="MF3" s="91"/>
+      <c r="MG3" s="91"/>
+      <c r="MH3" s="91"/>
+      <c r="MI3" s="91"/>
+      <c r="MJ3" s="91"/>
+      <c r="MK3" s="91"/>
+      <c r="ML3" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="MA3" s="83"/>
-      <c r="MB3" s="83"/>
-      <c r="MC3" s="83"/>
-      <c r="MD3" s="83"/>
-      <c r="ME3" s="83"/>
-      <c r="MF3" s="83"/>
-      <c r="MG3" s="83"/>
-      <c r="MH3" s="83"/>
-      <c r="MI3" s="83"/>
-      <c r="MJ3" s="83"/>
-      <c r="MK3" s="83"/>
-      <c r="ML3" s="83" t="s">
-        <v>177</v>
-      </c>
-      <c r="MM3" s="83"/>
-      <c r="MN3" s="83"/>
-      <c r="MO3" s="83"/>
-      <c r="MP3" s="83"/>
-      <c r="MQ3" s="83"/>
-      <c r="MR3" s="83"/>
-      <c r="MS3" s="83"/>
-      <c r="MT3" s="83"/>
-      <c r="MU3" s="83"/>
-      <c r="MV3" s="83"/>
-      <c r="MW3" s="83"/>
+      <c r="MM3" s="91"/>
+      <c r="MN3" s="91"/>
+      <c r="MO3" s="91"/>
+      <c r="MP3" s="91"/>
+      <c r="MQ3" s="91"/>
+      <c r="MR3" s="91"/>
+      <c r="MS3" s="91"/>
+      <c r="MT3" s="91"/>
+      <c r="MU3" s="91"/>
+      <c r="MV3" s="91"/>
+      <c r="MW3" s="91"/>
     </row>
     <row r="4" spans="1:361">
       <c r="A4" s="24" t="s">
@@ -13761,7 +13763,7 @@
     </row>
     <row r="5" spans="1:361">
       <c r="A5" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -14126,7 +14128,7 @@
     </row>
     <row r="6" spans="1:361">
       <c r="A6" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="26"/>
@@ -14490,7 +14492,7 @@
     </row>
     <row r="7" spans="1:361">
       <c r="A7" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -14855,7 +14857,7 @@
     </row>
     <row r="8" spans="1:361">
       <c r="A8" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -15220,7 +15222,7 @@
     </row>
     <row r="9" spans="1:361">
       <c r="A9" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="22"/>
@@ -15585,7 +15587,7 @@
     </row>
     <row r="10" spans="1:361">
       <c r="A10" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -15950,7 +15952,7 @@
     </row>
     <row r="11" spans="1:361">
       <c r="A11" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -16315,7 +16317,7 @@
     </row>
     <row r="12" spans="1:361">
       <c r="A12" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -16680,7 +16682,7 @@
     </row>
     <row r="13" spans="1:361">
       <c r="A13" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -17045,372 +17047,372 @@
     </row>
     <row r="14" spans="1:361">
       <c r="A14" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="85"/>
-      <c r="AC14" s="85"/>
-      <c r="AD14" s="85"/>
-      <c r="AE14" s="85"/>
-      <c r="AF14" s="85"/>
-      <c r="AG14" s="85"/>
-      <c r="AH14" s="85"/>
-      <c r="AI14" s="85"/>
-      <c r="AJ14" s="85"/>
-      <c r="AK14" s="86"/>
-      <c r="AL14" s="84"/>
-      <c r="AM14" s="85"/>
-      <c r="AN14" s="85"/>
-      <c r="AO14" s="85"/>
-      <c r="AP14" s="85"/>
-      <c r="AQ14" s="85"/>
-      <c r="AR14" s="85"/>
-      <c r="AS14" s="85"/>
-      <c r="AT14" s="85"/>
-      <c r="AU14" s="85"/>
-      <c r="AV14" s="85"/>
-      <c r="AW14" s="86"/>
-      <c r="AX14" s="84"/>
-      <c r="AY14" s="85"/>
-      <c r="AZ14" s="85"/>
-      <c r="BA14" s="85"/>
-      <c r="BB14" s="85"/>
-      <c r="BC14" s="85"/>
-      <c r="BD14" s="85"/>
-      <c r="BE14" s="85"/>
-      <c r="BF14" s="85"/>
-      <c r="BG14" s="85"/>
-      <c r="BH14" s="85"/>
-      <c r="BI14" s="86"/>
-      <c r="BJ14" s="84"/>
-      <c r="BK14" s="85"/>
-      <c r="BL14" s="85"/>
-      <c r="BM14" s="85"/>
-      <c r="BN14" s="85"/>
-      <c r="BO14" s="85"/>
-      <c r="BP14" s="85"/>
-      <c r="BQ14" s="85"/>
-      <c r="BR14" s="85"/>
-      <c r="BS14" s="85"/>
-      <c r="BT14" s="85"/>
-      <c r="BU14" s="86"/>
-      <c r="BV14" s="84"/>
-      <c r="BW14" s="85"/>
-      <c r="BX14" s="85"/>
-      <c r="BY14" s="85"/>
-      <c r="BZ14" s="85"/>
-      <c r="CA14" s="85"/>
-      <c r="CB14" s="85"/>
-      <c r="CC14" s="85"/>
-      <c r="CD14" s="85"/>
-      <c r="CE14" s="85"/>
-      <c r="CF14" s="85"/>
-      <c r="CG14" s="86"/>
-      <c r="CH14" s="84"/>
-      <c r="CI14" s="85"/>
-      <c r="CJ14" s="85"/>
-      <c r="CK14" s="85"/>
-      <c r="CL14" s="85"/>
-      <c r="CM14" s="85"/>
-      <c r="CN14" s="85"/>
-      <c r="CO14" s="85"/>
-      <c r="CP14" s="85"/>
-      <c r="CQ14" s="85"/>
-      <c r="CR14" s="85"/>
-      <c r="CS14" s="86"/>
-      <c r="CT14" s="84"/>
-      <c r="CU14" s="85"/>
-      <c r="CV14" s="85"/>
-      <c r="CW14" s="85"/>
-      <c r="CX14" s="85"/>
-      <c r="CY14" s="85"/>
-      <c r="CZ14" s="85"/>
-      <c r="DA14" s="85"/>
-      <c r="DB14" s="85"/>
-      <c r="DC14" s="85"/>
-      <c r="DD14" s="85"/>
-      <c r="DE14" s="86"/>
-      <c r="DF14" s="84"/>
-      <c r="DG14" s="85"/>
-      <c r="DH14" s="85"/>
-      <c r="DI14" s="85"/>
-      <c r="DJ14" s="85"/>
-      <c r="DK14" s="85"/>
-      <c r="DL14" s="85"/>
-      <c r="DM14" s="85"/>
-      <c r="DN14" s="85"/>
-      <c r="DO14" s="85"/>
-      <c r="DP14" s="85"/>
-      <c r="DQ14" s="86"/>
-      <c r="DR14" s="84"/>
-      <c r="DS14" s="85"/>
-      <c r="DT14" s="85"/>
-      <c r="DU14" s="85"/>
-      <c r="DV14" s="85"/>
-      <c r="DW14" s="85"/>
-      <c r="DX14" s="85"/>
-      <c r="DY14" s="85"/>
-      <c r="DZ14" s="85"/>
-      <c r="EA14" s="85"/>
-      <c r="EB14" s="85"/>
-      <c r="EC14" s="86"/>
-      <c r="ED14" s="84"/>
-      <c r="EE14" s="85"/>
-      <c r="EF14" s="85"/>
-      <c r="EG14" s="85"/>
-      <c r="EH14" s="85"/>
-      <c r="EI14" s="85"/>
-      <c r="EJ14" s="85"/>
-      <c r="EK14" s="85"/>
-      <c r="EL14" s="85"/>
-      <c r="EM14" s="85"/>
-      <c r="EN14" s="85"/>
-      <c r="EO14" s="86"/>
-      <c r="EP14" s="84"/>
-      <c r="EQ14" s="85"/>
-      <c r="ER14" s="85"/>
-      <c r="ES14" s="85"/>
-      <c r="ET14" s="85"/>
-      <c r="EU14" s="85"/>
-      <c r="EV14" s="85"/>
-      <c r="EW14" s="85"/>
-      <c r="EX14" s="85"/>
-      <c r="EY14" s="85"/>
-      <c r="EZ14" s="85"/>
-      <c r="FA14" s="86"/>
-      <c r="FB14" s="84"/>
-      <c r="FC14" s="85"/>
-      <c r="FD14" s="85"/>
-      <c r="FE14" s="85"/>
-      <c r="FF14" s="85"/>
-      <c r="FG14" s="85"/>
-      <c r="FH14" s="85"/>
-      <c r="FI14" s="85"/>
-      <c r="FJ14" s="85"/>
-      <c r="FK14" s="85"/>
-      <c r="FL14" s="85"/>
-      <c r="FM14" s="86"/>
-      <c r="FN14" s="84"/>
-      <c r="FO14" s="85"/>
-      <c r="FP14" s="85"/>
-      <c r="FQ14" s="85"/>
-      <c r="FR14" s="85"/>
-      <c r="FS14" s="85"/>
-      <c r="FT14" s="85"/>
-      <c r="FU14" s="85"/>
-      <c r="FV14" s="85"/>
-      <c r="FW14" s="85"/>
-      <c r="FX14" s="85"/>
-      <c r="FY14" s="86"/>
-      <c r="FZ14" s="84"/>
-      <c r="GA14" s="85"/>
-      <c r="GB14" s="85"/>
-      <c r="GC14" s="85"/>
-      <c r="GD14" s="85"/>
-      <c r="GE14" s="85"/>
-      <c r="GF14" s="85"/>
-      <c r="GG14" s="85"/>
-      <c r="GH14" s="85"/>
-      <c r="GI14" s="85"/>
-      <c r="GJ14" s="85"/>
-      <c r="GK14" s="86"/>
-      <c r="GL14" s="84"/>
-      <c r="GM14" s="85"/>
-      <c r="GN14" s="85"/>
-      <c r="GO14" s="85"/>
-      <c r="GP14" s="85"/>
-      <c r="GQ14" s="85"/>
-      <c r="GR14" s="85"/>
-      <c r="GS14" s="85"/>
-      <c r="GT14" s="85"/>
-      <c r="GU14" s="85"/>
-      <c r="GV14" s="85"/>
-      <c r="GW14" s="86"/>
-      <c r="GX14" s="84"/>
-      <c r="GY14" s="85"/>
-      <c r="GZ14" s="85"/>
-      <c r="HA14" s="85"/>
-      <c r="HB14" s="85"/>
-      <c r="HC14" s="85"/>
-      <c r="HD14" s="85"/>
-      <c r="HE14" s="85"/>
-      <c r="HF14" s="85"/>
-      <c r="HG14" s="85"/>
-      <c r="HH14" s="85"/>
-      <c r="HI14" s="86"/>
-      <c r="HJ14" s="84"/>
-      <c r="HK14" s="85"/>
-      <c r="HL14" s="85"/>
-      <c r="HM14" s="85"/>
-      <c r="HN14" s="85"/>
-      <c r="HO14" s="85"/>
-      <c r="HP14" s="85"/>
-      <c r="HQ14" s="85"/>
-      <c r="HR14" s="85"/>
-      <c r="HS14" s="85"/>
-      <c r="HT14" s="85"/>
-      <c r="HU14" s="86"/>
-      <c r="HV14" s="84"/>
-      <c r="HW14" s="85"/>
-      <c r="HX14" s="85"/>
-      <c r="HY14" s="85"/>
-      <c r="HZ14" s="85"/>
-      <c r="IA14" s="85"/>
-      <c r="IB14" s="85"/>
-      <c r="IC14" s="85"/>
-      <c r="ID14" s="85"/>
-      <c r="IE14" s="85"/>
-      <c r="IF14" s="85"/>
-      <c r="IG14" s="86"/>
-      <c r="IH14" s="84"/>
-      <c r="II14" s="85"/>
-      <c r="IJ14" s="85"/>
-      <c r="IK14" s="85"/>
-      <c r="IL14" s="85"/>
-      <c r="IM14" s="85"/>
-      <c r="IN14" s="85"/>
-      <c r="IO14" s="85"/>
-      <c r="IP14" s="85"/>
-      <c r="IQ14" s="85"/>
-      <c r="IR14" s="85"/>
-      <c r="IS14" s="86"/>
-      <c r="IT14" s="84"/>
-      <c r="IU14" s="85"/>
-      <c r="IV14" s="85"/>
-      <c r="IW14" s="85"/>
-      <c r="IX14" s="85"/>
-      <c r="IY14" s="85"/>
-      <c r="IZ14" s="85"/>
-      <c r="JA14" s="85"/>
-      <c r="JB14" s="85"/>
-      <c r="JC14" s="85"/>
-      <c r="JD14" s="85"/>
-      <c r="JE14" s="86"/>
-      <c r="JF14" s="84"/>
-      <c r="JG14" s="85"/>
-      <c r="JH14" s="85"/>
-      <c r="JI14" s="85"/>
-      <c r="JJ14" s="85"/>
-      <c r="JK14" s="85"/>
-      <c r="JL14" s="85"/>
-      <c r="JM14" s="85"/>
-      <c r="JN14" s="85"/>
-      <c r="JO14" s="85"/>
-      <c r="JP14" s="85"/>
-      <c r="JQ14" s="86"/>
-      <c r="JR14" s="84"/>
-      <c r="JS14" s="85"/>
-      <c r="JT14" s="85"/>
-      <c r="JU14" s="85"/>
-      <c r="JV14" s="85"/>
-      <c r="JW14" s="85"/>
-      <c r="JX14" s="85"/>
-      <c r="JY14" s="85"/>
-      <c r="JZ14" s="85"/>
-      <c r="KA14" s="85"/>
-      <c r="KB14" s="85"/>
-      <c r="KC14" s="86"/>
-      <c r="KD14" s="84"/>
-      <c r="KE14" s="85"/>
-      <c r="KF14" s="85"/>
-      <c r="KG14" s="85"/>
-      <c r="KH14" s="85"/>
-      <c r="KI14" s="85"/>
-      <c r="KJ14" s="85"/>
-      <c r="KK14" s="85"/>
-      <c r="KL14" s="85"/>
-      <c r="KM14" s="85"/>
-      <c r="KN14" s="85"/>
-      <c r="KO14" s="86"/>
-      <c r="KP14" s="84"/>
-      <c r="KQ14" s="85"/>
-      <c r="KR14" s="85"/>
-      <c r="KS14" s="85"/>
-      <c r="KT14" s="85"/>
-      <c r="KU14" s="85"/>
-      <c r="KV14" s="85"/>
-      <c r="KW14" s="85"/>
-      <c r="KX14" s="85"/>
-      <c r="KY14" s="85"/>
-      <c r="KZ14" s="85"/>
-      <c r="LA14" s="86"/>
-      <c r="LB14" s="84"/>
-      <c r="LC14" s="85"/>
-      <c r="LD14" s="85"/>
-      <c r="LE14" s="85"/>
-      <c r="LF14" s="85"/>
-      <c r="LG14" s="85"/>
-      <c r="LH14" s="85"/>
-      <c r="LI14" s="85"/>
-      <c r="LJ14" s="85"/>
-      <c r="LK14" s="85"/>
-      <c r="LL14" s="85"/>
-      <c r="LM14" s="86"/>
-      <c r="LN14" s="84"/>
-      <c r="LO14" s="85"/>
-      <c r="LP14" s="85"/>
-      <c r="LQ14" s="85"/>
-      <c r="LR14" s="85"/>
-      <c r="LS14" s="85"/>
-      <c r="LT14" s="85"/>
-      <c r="LU14" s="85"/>
-      <c r="LV14" s="85"/>
-      <c r="LW14" s="85"/>
-      <c r="LX14" s="85"/>
-      <c r="LY14" s="86"/>
-      <c r="LZ14" s="84"/>
-      <c r="MA14" s="85"/>
-      <c r="MB14" s="85"/>
-      <c r="MC14" s="85"/>
-      <c r="MD14" s="85"/>
-      <c r="ME14" s="85"/>
-      <c r="MF14" s="85"/>
-      <c r="MG14" s="85"/>
-      <c r="MH14" s="85"/>
-      <c r="MI14" s="85"/>
-      <c r="MJ14" s="85"/>
-      <c r="MK14" s="86"/>
-      <c r="ML14" s="84"/>
-      <c r="MM14" s="85"/>
-      <c r="MN14" s="85"/>
-      <c r="MO14" s="85"/>
-      <c r="MP14" s="85"/>
-      <c r="MQ14" s="85"/>
-      <c r="MR14" s="85"/>
-      <c r="MS14" s="85"/>
-      <c r="MT14" s="85"/>
-      <c r="MU14" s="85"/>
-      <c r="MV14" s="85"/>
-      <c r="MW14" s="86"/>
+        <v>186</v>
+      </c>
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="88"/>
+      <c r="AD14" s="88"/>
+      <c r="AE14" s="88"/>
+      <c r="AF14" s="88"/>
+      <c r="AG14" s="88"/>
+      <c r="AH14" s="88"/>
+      <c r="AI14" s="88"/>
+      <c r="AJ14" s="88"/>
+      <c r="AK14" s="89"/>
+      <c r="AL14" s="87"/>
+      <c r="AM14" s="88"/>
+      <c r="AN14" s="88"/>
+      <c r="AO14" s="88"/>
+      <c r="AP14" s="88"/>
+      <c r="AQ14" s="88"/>
+      <c r="AR14" s="88"/>
+      <c r="AS14" s="88"/>
+      <c r="AT14" s="88"/>
+      <c r="AU14" s="88"/>
+      <c r="AV14" s="88"/>
+      <c r="AW14" s="89"/>
+      <c r="AX14" s="87"/>
+      <c r="AY14" s="88"/>
+      <c r="AZ14" s="88"/>
+      <c r="BA14" s="88"/>
+      <c r="BB14" s="88"/>
+      <c r="BC14" s="88"/>
+      <c r="BD14" s="88"/>
+      <c r="BE14" s="88"/>
+      <c r="BF14" s="88"/>
+      <c r="BG14" s="88"/>
+      <c r="BH14" s="88"/>
+      <c r="BI14" s="89"/>
+      <c r="BJ14" s="87"/>
+      <c r="BK14" s="88"/>
+      <c r="BL14" s="88"/>
+      <c r="BM14" s="88"/>
+      <c r="BN14" s="88"/>
+      <c r="BO14" s="88"/>
+      <c r="BP14" s="88"/>
+      <c r="BQ14" s="88"/>
+      <c r="BR14" s="88"/>
+      <c r="BS14" s="88"/>
+      <c r="BT14" s="88"/>
+      <c r="BU14" s="89"/>
+      <c r="BV14" s="87"/>
+      <c r="BW14" s="88"/>
+      <c r="BX14" s="88"/>
+      <c r="BY14" s="88"/>
+      <c r="BZ14" s="88"/>
+      <c r="CA14" s="88"/>
+      <c r="CB14" s="88"/>
+      <c r="CC14" s="88"/>
+      <c r="CD14" s="88"/>
+      <c r="CE14" s="88"/>
+      <c r="CF14" s="88"/>
+      <c r="CG14" s="89"/>
+      <c r="CH14" s="87"/>
+      <c r="CI14" s="88"/>
+      <c r="CJ14" s="88"/>
+      <c r="CK14" s="88"/>
+      <c r="CL14" s="88"/>
+      <c r="CM14" s="88"/>
+      <c r="CN14" s="88"/>
+      <c r="CO14" s="88"/>
+      <c r="CP14" s="88"/>
+      <c r="CQ14" s="88"/>
+      <c r="CR14" s="88"/>
+      <c r="CS14" s="89"/>
+      <c r="CT14" s="87"/>
+      <c r="CU14" s="88"/>
+      <c r="CV14" s="88"/>
+      <c r="CW14" s="88"/>
+      <c r="CX14" s="88"/>
+      <c r="CY14" s="88"/>
+      <c r="CZ14" s="88"/>
+      <c r="DA14" s="88"/>
+      <c r="DB14" s="88"/>
+      <c r="DC14" s="88"/>
+      <c r="DD14" s="88"/>
+      <c r="DE14" s="89"/>
+      <c r="DF14" s="87"/>
+      <c r="DG14" s="88"/>
+      <c r="DH14" s="88"/>
+      <c r="DI14" s="88"/>
+      <c r="DJ14" s="88"/>
+      <c r="DK14" s="88"/>
+      <c r="DL14" s="88"/>
+      <c r="DM14" s="88"/>
+      <c r="DN14" s="88"/>
+      <c r="DO14" s="88"/>
+      <c r="DP14" s="88"/>
+      <c r="DQ14" s="89"/>
+      <c r="DR14" s="87"/>
+      <c r="DS14" s="88"/>
+      <c r="DT14" s="88"/>
+      <c r="DU14" s="88"/>
+      <c r="DV14" s="88"/>
+      <c r="DW14" s="88"/>
+      <c r="DX14" s="88"/>
+      <c r="DY14" s="88"/>
+      <c r="DZ14" s="88"/>
+      <c r="EA14" s="88"/>
+      <c r="EB14" s="88"/>
+      <c r="EC14" s="89"/>
+      <c r="ED14" s="87"/>
+      <c r="EE14" s="88"/>
+      <c r="EF14" s="88"/>
+      <c r="EG14" s="88"/>
+      <c r="EH14" s="88"/>
+      <c r="EI14" s="88"/>
+      <c r="EJ14" s="88"/>
+      <c r="EK14" s="88"/>
+      <c r="EL14" s="88"/>
+      <c r="EM14" s="88"/>
+      <c r="EN14" s="88"/>
+      <c r="EO14" s="89"/>
+      <c r="EP14" s="87"/>
+      <c r="EQ14" s="88"/>
+      <c r="ER14" s="88"/>
+      <c r="ES14" s="88"/>
+      <c r="ET14" s="88"/>
+      <c r="EU14" s="88"/>
+      <c r="EV14" s="88"/>
+      <c r="EW14" s="88"/>
+      <c r="EX14" s="88"/>
+      <c r="EY14" s="88"/>
+      <c r="EZ14" s="88"/>
+      <c r="FA14" s="89"/>
+      <c r="FB14" s="87"/>
+      <c r="FC14" s="88"/>
+      <c r="FD14" s="88"/>
+      <c r="FE14" s="88"/>
+      <c r="FF14" s="88"/>
+      <c r="FG14" s="88"/>
+      <c r="FH14" s="88"/>
+      <c r="FI14" s="88"/>
+      <c r="FJ14" s="88"/>
+      <c r="FK14" s="88"/>
+      <c r="FL14" s="88"/>
+      <c r="FM14" s="89"/>
+      <c r="FN14" s="87"/>
+      <c r="FO14" s="88"/>
+      <c r="FP14" s="88"/>
+      <c r="FQ14" s="88"/>
+      <c r="FR14" s="88"/>
+      <c r="FS14" s="88"/>
+      <c r="FT14" s="88"/>
+      <c r="FU14" s="88"/>
+      <c r="FV14" s="88"/>
+      <c r="FW14" s="88"/>
+      <c r="FX14" s="88"/>
+      <c r="FY14" s="89"/>
+      <c r="FZ14" s="87"/>
+      <c r="GA14" s="88"/>
+      <c r="GB14" s="88"/>
+      <c r="GC14" s="88"/>
+      <c r="GD14" s="88"/>
+      <c r="GE14" s="88"/>
+      <c r="GF14" s="88"/>
+      <c r="GG14" s="88"/>
+      <c r="GH14" s="88"/>
+      <c r="GI14" s="88"/>
+      <c r="GJ14" s="88"/>
+      <c r="GK14" s="89"/>
+      <c r="GL14" s="87"/>
+      <c r="GM14" s="88"/>
+      <c r="GN14" s="88"/>
+      <c r="GO14" s="88"/>
+      <c r="GP14" s="88"/>
+      <c r="GQ14" s="88"/>
+      <c r="GR14" s="88"/>
+      <c r="GS14" s="88"/>
+      <c r="GT14" s="88"/>
+      <c r="GU14" s="88"/>
+      <c r="GV14" s="88"/>
+      <c r="GW14" s="89"/>
+      <c r="GX14" s="87"/>
+      <c r="GY14" s="88"/>
+      <c r="GZ14" s="88"/>
+      <c r="HA14" s="88"/>
+      <c r="HB14" s="88"/>
+      <c r="HC14" s="88"/>
+      <c r="HD14" s="88"/>
+      <c r="HE14" s="88"/>
+      <c r="HF14" s="88"/>
+      <c r="HG14" s="88"/>
+      <c r="HH14" s="88"/>
+      <c r="HI14" s="89"/>
+      <c r="HJ14" s="87"/>
+      <c r="HK14" s="88"/>
+      <c r="HL14" s="88"/>
+      <c r="HM14" s="88"/>
+      <c r="HN14" s="88"/>
+      <c r="HO14" s="88"/>
+      <c r="HP14" s="88"/>
+      <c r="HQ14" s="88"/>
+      <c r="HR14" s="88"/>
+      <c r="HS14" s="88"/>
+      <c r="HT14" s="88"/>
+      <c r="HU14" s="89"/>
+      <c r="HV14" s="87"/>
+      <c r="HW14" s="88"/>
+      <c r="HX14" s="88"/>
+      <c r="HY14" s="88"/>
+      <c r="HZ14" s="88"/>
+      <c r="IA14" s="88"/>
+      <c r="IB14" s="88"/>
+      <c r="IC14" s="88"/>
+      <c r="ID14" s="88"/>
+      <c r="IE14" s="88"/>
+      <c r="IF14" s="88"/>
+      <c r="IG14" s="89"/>
+      <c r="IH14" s="87"/>
+      <c r="II14" s="88"/>
+      <c r="IJ14" s="88"/>
+      <c r="IK14" s="88"/>
+      <c r="IL14" s="88"/>
+      <c r="IM14" s="88"/>
+      <c r="IN14" s="88"/>
+      <c r="IO14" s="88"/>
+      <c r="IP14" s="88"/>
+      <c r="IQ14" s="88"/>
+      <c r="IR14" s="88"/>
+      <c r="IS14" s="89"/>
+      <c r="IT14" s="87"/>
+      <c r="IU14" s="88"/>
+      <c r="IV14" s="88"/>
+      <c r="IW14" s="88"/>
+      <c r="IX14" s="88"/>
+      <c r="IY14" s="88"/>
+      <c r="IZ14" s="88"/>
+      <c r="JA14" s="88"/>
+      <c r="JB14" s="88"/>
+      <c r="JC14" s="88"/>
+      <c r="JD14" s="88"/>
+      <c r="JE14" s="89"/>
+      <c r="JF14" s="87"/>
+      <c r="JG14" s="88"/>
+      <c r="JH14" s="88"/>
+      <c r="JI14" s="88"/>
+      <c r="JJ14" s="88"/>
+      <c r="JK14" s="88"/>
+      <c r="JL14" s="88"/>
+      <c r="JM14" s="88"/>
+      <c r="JN14" s="88"/>
+      <c r="JO14" s="88"/>
+      <c r="JP14" s="88"/>
+      <c r="JQ14" s="89"/>
+      <c r="JR14" s="87"/>
+      <c r="JS14" s="88"/>
+      <c r="JT14" s="88"/>
+      <c r="JU14" s="88"/>
+      <c r="JV14" s="88"/>
+      <c r="JW14" s="88"/>
+      <c r="JX14" s="88"/>
+      <c r="JY14" s="88"/>
+      <c r="JZ14" s="88"/>
+      <c r="KA14" s="88"/>
+      <c r="KB14" s="88"/>
+      <c r="KC14" s="89"/>
+      <c r="KD14" s="87"/>
+      <c r="KE14" s="88"/>
+      <c r="KF14" s="88"/>
+      <c r="KG14" s="88"/>
+      <c r="KH14" s="88"/>
+      <c r="KI14" s="88"/>
+      <c r="KJ14" s="88"/>
+      <c r="KK14" s="88"/>
+      <c r="KL14" s="88"/>
+      <c r="KM14" s="88"/>
+      <c r="KN14" s="88"/>
+      <c r="KO14" s="89"/>
+      <c r="KP14" s="87"/>
+      <c r="KQ14" s="88"/>
+      <c r="KR14" s="88"/>
+      <c r="KS14" s="88"/>
+      <c r="KT14" s="88"/>
+      <c r="KU14" s="88"/>
+      <c r="KV14" s="88"/>
+      <c r="KW14" s="88"/>
+      <c r="KX14" s="88"/>
+      <c r="KY14" s="88"/>
+      <c r="KZ14" s="88"/>
+      <c r="LA14" s="89"/>
+      <c r="LB14" s="87"/>
+      <c r="LC14" s="88"/>
+      <c r="LD14" s="88"/>
+      <c r="LE14" s="88"/>
+      <c r="LF14" s="88"/>
+      <c r="LG14" s="88"/>
+      <c r="LH14" s="88"/>
+      <c r="LI14" s="88"/>
+      <c r="LJ14" s="88"/>
+      <c r="LK14" s="88"/>
+      <c r="LL14" s="88"/>
+      <c r="LM14" s="89"/>
+      <c r="LN14" s="87"/>
+      <c r="LO14" s="88"/>
+      <c r="LP14" s="88"/>
+      <c r="LQ14" s="88"/>
+      <c r="LR14" s="88"/>
+      <c r="LS14" s="88"/>
+      <c r="LT14" s="88"/>
+      <c r="LU14" s="88"/>
+      <c r="LV14" s="88"/>
+      <c r="LW14" s="88"/>
+      <c r="LX14" s="88"/>
+      <c r="LY14" s="89"/>
+      <c r="LZ14" s="87"/>
+      <c r="MA14" s="88"/>
+      <c r="MB14" s="88"/>
+      <c r="MC14" s="88"/>
+      <c r="MD14" s="88"/>
+      <c r="ME14" s="88"/>
+      <c r="MF14" s="88"/>
+      <c r="MG14" s="88"/>
+      <c r="MH14" s="88"/>
+      <c r="MI14" s="88"/>
+      <c r="MJ14" s="88"/>
+      <c r="MK14" s="89"/>
+      <c r="ML14" s="87"/>
+      <c r="MM14" s="88"/>
+      <c r="MN14" s="88"/>
+      <c r="MO14" s="88"/>
+      <c r="MP14" s="88"/>
+      <c r="MQ14" s="88"/>
+      <c r="MR14" s="88"/>
+      <c r="MS14" s="88"/>
+      <c r="MT14" s="88"/>
+      <c r="MU14" s="88"/>
+      <c r="MV14" s="88"/>
+      <c r="MW14" s="89"/>
     </row>
     <row r="15" spans="1:361">
       <c r="A15" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -17774,7 +17776,7 @@
     </row>
     <row r="16" spans="1:361">
       <c r="A16" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -18139,7 +18141,7 @@
     </row>
     <row r="17" spans="1:361">
       <c r="A17" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -18504,7 +18506,7 @@
     </row>
     <row r="18" spans="1:361">
       <c r="A18" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -18869,7 +18871,7 @@
     </row>
     <row r="19" spans="1:361">
       <c r="A19" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -19234,7 +19236,7 @@
     </row>
     <row r="20" spans="1:361">
       <c r="A20" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -19599,7 +19601,7 @@
     </row>
     <row r="21" spans="1:361">
       <c r="A21" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -19964,7 +19966,7 @@
     </row>
     <row r="22" spans="1:361">
       <c r="A22" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -20328,7 +20330,7 @@
     </row>
     <row r="23" spans="1:361">
       <c r="A23" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -20693,7 +20695,7 @@
     </row>
     <row r="24" spans="1:361">
       <c r="A24" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -21058,7 +21060,7 @@
     </row>
     <row r="25" spans="1:361">
       <c r="A25" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -21423,7 +21425,7 @@
     </row>
     <row r="26" spans="1:361">
       <c r="A26" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -21788,7 +21790,7 @@
     </row>
     <row r="27" spans="1:361">
       <c r="A27" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -22153,7 +22155,7 @@
     </row>
     <row r="28" spans="1:361">
       <c r="A28" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
@@ -22518,7 +22520,7 @@
     </row>
     <row r="29" spans="1:361">
       <c r="A29" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -22883,7 +22885,7 @@
     </row>
     <row r="30" spans="1:361">
       <c r="A30" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -23248,7 +23250,7 @@
     </row>
     <row r="31" spans="1:361">
       <c r="A31" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -23613,7 +23615,7 @@
     </row>
     <row r="32" spans="1:361">
       <c r="A32" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -23978,7 +23980,7 @@
     </row>
     <row r="33" spans="1:361">
       <c r="A33" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -24343,7 +24345,7 @@
     </row>
     <row r="34" spans="1:361">
       <c r="A34" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -24736,21 +24738,31 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="LZ14:MK14"/>
-    <mergeCell ref="HV14:IG14"/>
-    <mergeCell ref="IH14:IS14"/>
-    <mergeCell ref="IT14:JE14"/>
-    <mergeCell ref="JF14:JQ14"/>
-    <mergeCell ref="JR14:KC14"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="KD14:KO14"/>
-    <mergeCell ref="KP14:LA14"/>
-    <mergeCell ref="LB14:LM14"/>
-    <mergeCell ref="LN14:LY14"/>
-    <mergeCell ref="FN14:FY14"/>
-    <mergeCell ref="FZ14:GK14"/>
-    <mergeCell ref="GL14:GW14"/>
-    <mergeCell ref="GX14:HI14"/>
+    <mergeCell ref="B1:AK1"/>
+    <mergeCell ref="B2:AK2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="N3:Y3"/>
+    <mergeCell ref="Z3:AK3"/>
+    <mergeCell ref="AL3:AW3"/>
+    <mergeCell ref="AX3:BI3"/>
+    <mergeCell ref="BJ3:BU3"/>
+    <mergeCell ref="BV3:CG3"/>
+    <mergeCell ref="CH3:CS3"/>
+    <mergeCell ref="CT3:DE3"/>
+    <mergeCell ref="DF3:DQ3"/>
+    <mergeCell ref="DR3:EC3"/>
+    <mergeCell ref="ED3:EO3"/>
+    <mergeCell ref="EP3:FA3"/>
+    <mergeCell ref="FZ3:GK3"/>
+    <mergeCell ref="GL3:GW3"/>
+    <mergeCell ref="GX3:HI3"/>
+    <mergeCell ref="HJ14:HU14"/>
+    <mergeCell ref="LN3:LY3"/>
+    <mergeCell ref="HJ3:HU3"/>
+    <mergeCell ref="HV3:IG3"/>
+    <mergeCell ref="IH3:IS3"/>
+    <mergeCell ref="IT3:JE3"/>
+    <mergeCell ref="JF3:JQ3"/>
     <mergeCell ref="LZ3:MK3"/>
     <mergeCell ref="ML3:MW3"/>
     <mergeCell ref="B14:M14"/>
@@ -24767,6 +24779,15 @@
     <mergeCell ref="ED14:EO14"/>
     <mergeCell ref="EP14:FA14"/>
     <mergeCell ref="ML14:MW14"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="KD14:KO14"/>
+    <mergeCell ref="KP14:LA14"/>
+    <mergeCell ref="LB14:LM14"/>
+    <mergeCell ref="LN14:LY14"/>
+    <mergeCell ref="FN14:FY14"/>
+    <mergeCell ref="FZ14:GK14"/>
+    <mergeCell ref="GL14:GW14"/>
+    <mergeCell ref="GX14:HI14"/>
     <mergeCell ref="FB14:FM14"/>
     <mergeCell ref="JR3:KC3"/>
     <mergeCell ref="KD3:KO3"/>
@@ -24774,31 +24795,12 @@
     <mergeCell ref="LB3:LM3"/>
     <mergeCell ref="FB3:FM3"/>
     <mergeCell ref="FN3:FY3"/>
-    <mergeCell ref="FZ3:GK3"/>
-    <mergeCell ref="GL3:GW3"/>
-    <mergeCell ref="GX3:HI3"/>
-    <mergeCell ref="HJ14:HU14"/>
-    <mergeCell ref="LN3:LY3"/>
-    <mergeCell ref="HJ3:HU3"/>
-    <mergeCell ref="HV3:IG3"/>
-    <mergeCell ref="IH3:IS3"/>
-    <mergeCell ref="IT3:JE3"/>
-    <mergeCell ref="JF3:JQ3"/>
-    <mergeCell ref="CT3:DE3"/>
-    <mergeCell ref="DF3:DQ3"/>
-    <mergeCell ref="DR3:EC3"/>
-    <mergeCell ref="ED3:EO3"/>
-    <mergeCell ref="EP3:FA3"/>
-    <mergeCell ref="AL3:AW3"/>
-    <mergeCell ref="AX3:BI3"/>
-    <mergeCell ref="BJ3:BU3"/>
-    <mergeCell ref="BV3:CG3"/>
-    <mergeCell ref="CH3:CS3"/>
-    <mergeCell ref="B1:AK1"/>
-    <mergeCell ref="B2:AK2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="N3:Y3"/>
-    <mergeCell ref="Z3:AK3"/>
+    <mergeCell ref="LZ14:MK14"/>
+    <mergeCell ref="HV14:IG14"/>
+    <mergeCell ref="IH14:IS14"/>
+    <mergeCell ref="IT14:JE14"/>
+    <mergeCell ref="JF14:JQ14"/>
+    <mergeCell ref="JR14:KC14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
